--- a/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
+++ b/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennedict\OneDrive - inc\RenomWork\V-Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\OneDrive - inc\RenomWork\V-Learning\documents_assets\New CourseMap\Intermediate Course\3_Decision Tree, Random Forest and Gradient Boosting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="255" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E1165B27-95A9-467C-B045-FE00923C20B2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{123C3A31-86E6-435C-82D5-45288C94208C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{123C3A31-86E6-435C-82D5-45288C94208C}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Course" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2233,25 +2233,25 @@
       <selection activeCell="M4" sqref="M4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>16</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>17</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>18</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>20</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>21</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>38</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>39</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>40</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>41</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>70</v>
       </c>
@@ -2722,27 +2722,27 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
-    <col min="9" max="9" width="54.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" customWidth="1"/>
-    <col min="19" max="19" width="16.26953125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="Z1" s="18"/>
       <c r="AA1" s="18"/>
     </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2802,7 +2802,7 @@
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
     </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="Z3" s="30"/>
       <c r="AA3" s="30"/>
     </row>
-    <row r="4" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="Z4" s="18"/>
       <c r="AA4" s="18"/>
     </row>
-    <row r="5" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="Z5" s="18"/>
       <c r="AA5" s="18"/>
     </row>
-    <row r="6" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
     </row>
-    <row r="7" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>36</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
     </row>
-    <row r="9" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>37</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
     </row>
-    <row r="10" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -3244,7 +3244,7 @@
       <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
     </row>
-    <row r="11" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -3291,7 +3291,7 @@
       <c r="Z11" s="18"/>
       <c r="AA11" s="18"/>
     </row>
-    <row r="12" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -3338,7 +3338,7 @@
       <c r="Z12" s="18"/>
       <c r="AA12" s="18"/>
     </row>
-    <row r="13" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3385,7 +3385,7 @@
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
     </row>
-    <row r="14" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -3432,7 +3432,7 @@
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
     </row>
-    <row r="15" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -3473,7 +3473,7 @@
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
     </row>
-    <row r="16" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3514,7 +3514,7 @@
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
     </row>
-    <row r="17" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3555,7 +3555,7 @@
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
     </row>
-    <row r="18" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3596,7 +3596,7 @@
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
     </row>
-    <row r="19" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3637,7 +3637,7 @@
       <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
     </row>
-    <row r="20" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3672,7 +3672,7 @@
       <c r="Z20" s="18"/>
       <c r="AA20" s="18"/>
     </row>
-    <row r="21" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3707,7 +3707,7 @@
       <c r="Z21" s="18"/>
       <c r="AA21" s="18"/>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3736,7 +3736,7 @@
       <c r="Z22" s="18"/>
       <c r="AA22" s="18"/>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3765,7 +3765,7 @@
       <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
     </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3794,7 +3794,7 @@
       <c r="Z24" s="18"/>
       <c r="AA24" s="18"/>
     </row>
-    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3823,7 +3823,7 @@
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -3852,7 +3852,7 @@
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
     </row>
-    <row r="27" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -3881,7 +3881,7 @@
       <c r="Z27" s="18"/>
       <c r="AA27" s="18"/>
     </row>
-    <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3910,7 +3910,7 @@
       <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
     </row>
-    <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -3939,7 +3939,7 @@
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
     </row>
-    <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -3968,7 +3968,7 @@
       <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
     </row>
-    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3997,7 +3997,7 @@
       <c r="Z31" s="18"/>
       <c r="AA31" s="18"/>
     </row>
-    <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -4026,7 +4026,7 @@
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
     </row>
-    <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -4055,7 +4055,7 @@
       <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
     </row>
-    <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -4084,7 +4084,7 @@
       <c r="Z34" s="18"/>
       <c r="AA34" s="18"/>
     </row>
-    <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -4113,7 +4113,7 @@
       <c r="Z35" s="18"/>
       <c r="AA35" s="18"/>
     </row>
-    <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -4142,7 +4142,7 @@
       <c r="Z36" s="18"/>
       <c r="AA36" s="18"/>
     </row>
-    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -4171,7 +4171,7 @@
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
     </row>
-    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -4200,7 +4200,7 @@
       <c r="Z38" s="18"/>
       <c r="AA38" s="18"/>
     </row>
-    <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -4229,7 +4229,7 @@
       <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
     </row>
-    <row r="40" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -4258,7 +4258,7 @@
       <c r="Z40" s="18"/>
       <c r="AA40" s="18"/>
     </row>
-    <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -4287,7 +4287,7 @@
       <c r="Z41" s="18"/>
       <c r="AA41" s="18"/>
     </row>
-    <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -4316,7 +4316,7 @@
       <c r="Z42" s="18"/>
       <c r="AA42" s="18"/>
     </row>
-    <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -4345,7 +4345,7 @@
       <c r="Z43" s="18"/>
       <c r="AA43" s="18"/>
     </row>
-    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -4374,7 +4374,7 @@
       <c r="Z44" s="18"/>
       <c r="AA44" s="18"/>
     </row>
-    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -4403,7 +4403,7 @@
       <c r="Z45" s="18"/>
       <c r="AA45" s="18"/>
     </row>
-    <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -4432,7 +4432,7 @@
       <c r="Z46" s="18"/>
       <c r="AA46" s="18"/>
     </row>
-    <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -4461,7 +4461,7 @@
       <c r="Z47" s="18"/>
       <c r="AA47" s="18"/>
     </row>
-    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -4490,7 +4490,7 @@
       <c r="Z48" s="18"/>
       <c r="AA48" s="18"/>
     </row>
-    <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -4519,7 +4519,7 @@
       <c r="Z49" s="18"/>
       <c r="AA49" s="18"/>
     </row>
-    <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -4548,7 +4548,7 @@
       <c r="Z50" s="18"/>
       <c r="AA50" s="18"/>
     </row>
-    <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -4577,7 +4577,7 @@
       <c r="Z51" s="18"/>
       <c r="AA51" s="18"/>
     </row>
-    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -4606,7 +4606,7 @@
       <c r="Z52" s="18"/>
       <c r="AA52" s="18"/>
     </row>
-    <row r="53" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -4635,7 +4635,7 @@
       <c r="Z53" s="18"/>
       <c r="AA53" s="18"/>
     </row>
-    <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -4664,7 +4664,7 @@
       <c r="Z54" s="18"/>
       <c r="AA54" s="18"/>
     </row>
-    <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -4693,7 +4693,7 @@
       <c r="Z55" s="18"/>
       <c r="AA55" s="18"/>
     </row>
-    <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -4722,7 +4722,7 @@
       <c r="Z56" s="18"/>
       <c r="AA56" s="18"/>
     </row>
-    <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -4751,7 +4751,7 @@
       <c r="Z57" s="18"/>
       <c r="AA57" s="18"/>
     </row>
-    <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -4780,7 +4780,7 @@
       <c r="Z58" s="18"/>
       <c r="AA58" s="18"/>
     </row>
-    <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -4809,7 +4809,7 @@
       <c r="Z59" s="18"/>
       <c r="AA59" s="18"/>
     </row>
-    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -4838,7 +4838,7 @@
       <c r="Z60" s="18"/>
       <c r="AA60" s="18"/>
     </row>
-    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -4867,7 +4867,7 @@
       <c r="Z61" s="18"/>
       <c r="AA61" s="18"/>
     </row>
-    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -4896,7 +4896,7 @@
       <c r="Z62" s="18"/>
       <c r="AA62" s="18"/>
     </row>
-    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -4925,7 +4925,7 @@
       <c r="Z63" s="18"/>
       <c r="AA63" s="18"/>
     </row>
-    <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -4954,7 +4954,7 @@
       <c r="Z64" s="18"/>
       <c r="AA64" s="18"/>
     </row>
-    <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -4983,7 +4983,7 @@
       <c r="Z65" s="18"/>
       <c r="AA65" s="18"/>
     </row>
-    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -5012,7 +5012,7 @@
       <c r="Z66" s="18"/>
       <c r="AA66" s="18"/>
     </row>
-    <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -5041,7 +5041,7 @@
       <c r="Z67" s="18"/>
       <c r="AA67" s="18"/>
     </row>
-    <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -5070,7 +5070,7 @@
       <c r="Z68" s="18"/>
       <c r="AA68" s="18"/>
     </row>
-    <row r="69" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -5099,7 +5099,7 @@
       <c r="Z69" s="18"/>
       <c r="AA69" s="18"/>
     </row>
-    <row r="70" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -5128,7 +5128,7 @@
       <c r="Z70" s="18"/>
       <c r="AA70" s="18"/>
     </row>
-    <row r="71" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -5157,7 +5157,7 @@
       <c r="Z71" s="18"/>
       <c r="AA71" s="18"/>
     </row>
-    <row r="72" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -5186,7 +5186,7 @@
       <c r="Z72" s="18"/>
       <c r="AA72" s="18"/>
     </row>
-    <row r="73" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -5215,7 +5215,7 @@
       <c r="Z73" s="18"/>
       <c r="AA73" s="18"/>
     </row>
-    <row r="74" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -5244,7 +5244,7 @@
       <c r="Z74" s="18"/>
       <c r="AA74" s="18"/>
     </row>
-    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -5273,7 +5273,7 @@
       <c r="Z75" s="18"/>
       <c r="AA75" s="18"/>
     </row>
-    <row r="76" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -5302,7 +5302,7 @@
       <c r="Z76" s="18"/>
       <c r="AA76" s="18"/>
     </row>
-    <row r="77" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -5331,7 +5331,7 @@
       <c r="Z77" s="18"/>
       <c r="AA77" s="18"/>
     </row>
-    <row r="78" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -5360,7 +5360,7 @@
       <c r="Z78" s="18"/>
       <c r="AA78" s="18"/>
     </row>
-    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -5389,7 +5389,7 @@
       <c r="Z79" s="18"/>
       <c r="AA79" s="18"/>
     </row>
-    <row r="80" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -5418,7 +5418,7 @@
       <c r="Z80" s="18"/>
       <c r="AA80" s="18"/>
     </row>
-    <row r="81" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -5447,7 +5447,7 @@
       <c r="Z81" s="18"/>
       <c r="AA81" s="18"/>
     </row>
-    <row r="82" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -5476,7 +5476,7 @@
       <c r="Z82" s="18"/>
       <c r="AA82" s="18"/>
     </row>
-    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -5505,7 +5505,7 @@
       <c r="Z83" s="18"/>
       <c r="AA83" s="18"/>
     </row>
-    <row r="84" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -5534,7 +5534,7 @@
       <c r="Z84" s="18"/>
       <c r="AA84" s="18"/>
     </row>
-    <row r="85" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -5563,7 +5563,7 @@
       <c r="Z85" s="18"/>
       <c r="AA85" s="18"/>
     </row>
-    <row r="86" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -5592,7 +5592,7 @@
       <c r="Z86" s="18"/>
       <c r="AA86" s="18"/>
     </row>
-    <row r="87" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -5621,7 +5621,7 @@
       <c r="Z87" s="18"/>
       <c r="AA87" s="18"/>
     </row>
-    <row r="88" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -5650,7 +5650,7 @@
       <c r="Z88" s="18"/>
       <c r="AA88" s="18"/>
     </row>
-    <row r="89" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -5679,7 +5679,7 @@
       <c r="Z89" s="18"/>
       <c r="AA89" s="18"/>
     </row>
-    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -5708,7 +5708,7 @@
       <c r="Z90" s="18"/>
       <c r="AA90" s="18"/>
     </row>
-    <row r="91" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -5737,7 +5737,7 @@
       <c r="Z91" s="18"/>
       <c r="AA91" s="18"/>
     </row>
-    <row r="92" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -5766,7 +5766,7 @@
       <c r="Z92" s="18"/>
       <c r="AA92" s="18"/>
     </row>
-    <row r="93" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -5795,7 +5795,7 @@
       <c r="Z93" s="18"/>
       <c r="AA93" s="18"/>
     </row>
-    <row r="94" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -5824,7 +5824,7 @@
       <c r="Z94" s="18"/>
       <c r="AA94" s="18"/>
     </row>
-    <row r="95" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -5853,7 +5853,7 @@
       <c r="Z95" s="18"/>
       <c r="AA95" s="18"/>
     </row>
-    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -5882,7 +5882,7 @@
       <c r="Z96" s="18"/>
       <c r="AA96" s="18"/>
     </row>
-    <row r="97" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -5911,7 +5911,7 @@
       <c r="Z97" s="18"/>
       <c r="AA97" s="18"/>
     </row>
-    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -5940,7 +5940,7 @@
       <c r="Z98" s="18"/>
       <c r="AA98" s="18"/>
     </row>
-    <row r="99" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -5969,7 +5969,7 @@
       <c r="Z99" s="18"/>
       <c r="AA99" s="18"/>
     </row>
-    <row r="100" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -5998,7 +5998,7 @@
       <c r="Z100" s="18"/>
       <c r="AA100" s="18"/>
     </row>
-    <row r="101" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -6027,7 +6027,7 @@
       <c r="Z101" s="18"/>
       <c r="AA101" s="18"/>
     </row>
-    <row r="102" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -6056,7 +6056,7 @@
       <c r="Z102" s="18"/>
       <c r="AA102" s="18"/>
     </row>
-    <row r="103" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -6085,7 +6085,7 @@
       <c r="Z103" s="18"/>
       <c r="AA103" s="18"/>
     </row>
-    <row r="104" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -6114,7 +6114,7 @@
       <c r="Z104" s="18"/>
       <c r="AA104" s="18"/>
     </row>
-    <row r="105" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -6143,7 +6143,7 @@
       <c r="Z105" s="18"/>
       <c r="AA105" s="18"/>
     </row>
-    <row r="106" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -6172,7 +6172,7 @@
       <c r="Z106" s="18"/>
       <c r="AA106" s="18"/>
     </row>
-    <row r="107" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -6201,7 +6201,7 @@
       <c r="Z107" s="18"/>
       <c r="AA107" s="18"/>
     </row>
-    <row r="108" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -6230,7 +6230,7 @@
       <c r="Z108" s="18"/>
       <c r="AA108" s="18"/>
     </row>
-    <row r="109" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -6259,7 +6259,7 @@
       <c r="Z109" s="18"/>
       <c r="AA109" s="18"/>
     </row>
-    <row r="110" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -6288,7 +6288,7 @@
       <c r="Z110" s="18"/>
       <c r="AA110" s="18"/>
     </row>
-    <row r="111" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -6317,7 +6317,7 @@
       <c r="Z111" s="18"/>
       <c r="AA111" s="18"/>
     </row>
-    <row r="112" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -6346,7 +6346,7 @@
       <c r="Z112" s="18"/>
       <c r="AA112" s="18"/>
     </row>
-    <row r="113" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -6375,7 +6375,7 @@
       <c r="Z113" s="18"/>
       <c r="AA113" s="18"/>
     </row>
-    <row r="114" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -6404,7 +6404,7 @@
       <c r="Z114" s="18"/>
       <c r="AA114" s="18"/>
     </row>
-    <row r="115" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -6433,7 +6433,7 @@
       <c r="Z115" s="18"/>
       <c r="AA115" s="18"/>
     </row>
-    <row r="116" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -6462,7 +6462,7 @@
       <c r="Z116" s="18"/>
       <c r="AA116" s="18"/>
     </row>
-    <row r="117" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -6491,7 +6491,7 @@
       <c r="Z117" s="18"/>
       <c r="AA117" s="18"/>
     </row>
-    <row r="118" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -6520,7 +6520,7 @@
       <c r="Z118" s="18"/>
       <c r="AA118" s="18"/>
     </row>
-    <row r="119" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -6549,7 +6549,7 @@
       <c r="Z119" s="18"/>
       <c r="AA119" s="18"/>
     </row>
-    <row r="120" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
@@ -6578,7 +6578,7 @@
       <c r="Z120" s="18"/>
       <c r="AA120" s="18"/>
     </row>
-    <row r="121" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18"/>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
@@ -6607,7 +6607,7 @@
       <c r="Z121" s="18"/>
       <c r="AA121" s="18"/>
     </row>
-    <row r="122" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -6636,7 +6636,7 @@
       <c r="Z122" s="18"/>
       <c r="AA122" s="18"/>
     </row>
-    <row r="123" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
@@ -6665,7 +6665,7 @@
       <c r="Z123" s="18"/>
       <c r="AA123" s="18"/>
     </row>
-    <row r="124" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -6694,7 +6694,7 @@
       <c r="Z124" s="18"/>
       <c r="AA124" s="18"/>
     </row>
-    <row r="125" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -6723,7 +6723,7 @@
       <c r="Z125" s="18"/>
       <c r="AA125" s="18"/>
     </row>
-    <row r="126" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -6752,7 +6752,7 @@
       <c r="Z126" s="18"/>
       <c r="AA126" s="18"/>
     </row>
-    <row r="127" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -6781,7 +6781,7 @@
       <c r="Z127" s="18"/>
       <c r="AA127" s="18"/>
     </row>
-    <row r="128" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -6810,7 +6810,7 @@
       <c r="Z128" s="18"/>
       <c r="AA128" s="18"/>
     </row>
-    <row r="129" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -6839,7 +6839,7 @@
       <c r="Z129" s="18"/>
       <c r="AA129" s="18"/>
     </row>
-    <row r="130" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -6868,7 +6868,7 @@
       <c r="Z130" s="18"/>
       <c r="AA130" s="18"/>
     </row>
-    <row r="131" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -6897,7 +6897,7 @@
       <c r="Z131" s="18"/>
       <c r="AA131" s="18"/>
     </row>
-    <row r="132" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -6926,7 +6926,7 @@
       <c r="Z132" s="18"/>
       <c r="AA132" s="18"/>
     </row>
-    <row r="133" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
@@ -6955,7 +6955,7 @@
       <c r="Z133" s="18"/>
       <c r="AA133" s="18"/>
     </row>
-    <row r="134" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
@@ -6984,7 +6984,7 @@
       <c r="Z134" s="18"/>
       <c r="AA134" s="18"/>
     </row>
-    <row r="135" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
@@ -7013,7 +7013,7 @@
       <c r="Z135" s="18"/>
       <c r="AA135" s="18"/>
     </row>
-    <row r="136" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
@@ -7042,7 +7042,7 @@
       <c r="Z136" s="18"/>
       <c r="AA136" s="18"/>
     </row>
-    <row r="137" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="18"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
@@ -7071,7 +7071,7 @@
       <c r="Z137" s="18"/>
       <c r="AA137" s="18"/>
     </row>
-    <row r="138" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -7100,7 +7100,7 @@
       <c r="Z138" s="18"/>
       <c r="AA138" s="18"/>
     </row>
-    <row r="139" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -7129,7 +7129,7 @@
       <c r="Z139" s="18"/>
       <c r="AA139" s="18"/>
     </row>
-    <row r="140" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
@@ -7158,7 +7158,7 @@
       <c r="Z140" s="18"/>
       <c r="AA140" s="18"/>
     </row>
-    <row r="141" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="18"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
@@ -7187,7 +7187,7 @@
       <c r="Z141" s="18"/>
       <c r="AA141" s="18"/>
     </row>
-    <row r="142" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
@@ -7216,7 +7216,7 @@
       <c r="Z142" s="18"/>
       <c r="AA142" s="18"/>
     </row>
-    <row r="143" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
@@ -7245,7 +7245,7 @@
       <c r="Z143" s="18"/>
       <c r="AA143" s="18"/>
     </row>
-    <row r="144" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -7274,7 +7274,7 @@
       <c r="Z144" s="18"/>
       <c r="AA144" s="18"/>
     </row>
-    <row r="145" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
@@ -7303,7 +7303,7 @@
       <c r="Z145" s="18"/>
       <c r="AA145" s="18"/>
     </row>
-    <row r="146" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
@@ -7332,7 +7332,7 @@
       <c r="Z146" s="18"/>
       <c r="AA146" s="18"/>
     </row>
-    <row r="147" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="18"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
@@ -7361,7 +7361,7 @@
       <c r="Z147" s="18"/>
       <c r="AA147" s="18"/>
     </row>
-    <row r="148" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
@@ -7390,7 +7390,7 @@
       <c r="Z148" s="18"/>
       <c r="AA148" s="18"/>
     </row>
-    <row r="149" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="18"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
@@ -7419,7 +7419,7 @@
       <c r="Z149" s="18"/>
       <c r="AA149" s="18"/>
     </row>
-    <row r="150" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="18"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
@@ -7448,7 +7448,7 @@
       <c r="Z150" s="18"/>
       <c r="AA150" s="18"/>
     </row>
-    <row r="151" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
@@ -7477,7 +7477,7 @@
       <c r="Z151" s="18"/>
       <c r="AA151" s="18"/>
     </row>
-    <row r="152" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -7506,7 +7506,7 @@
       <c r="Z152" s="18"/>
       <c r="AA152" s="18"/>
     </row>
-    <row r="153" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
@@ -7535,7 +7535,7 @@
       <c r="Z153" s="18"/>
       <c r="AA153" s="18"/>
     </row>
-    <row r="154" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
@@ -7564,7 +7564,7 @@
       <c r="Z154" s="18"/>
       <c r="AA154" s="18"/>
     </row>
-    <row r="155" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="18"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -7593,7 +7593,7 @@
       <c r="Z155" s="18"/>
       <c r="AA155" s="18"/>
     </row>
-    <row r="156" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
@@ -7622,7 +7622,7 @@
       <c r="Z156" s="18"/>
       <c r="AA156" s="18"/>
     </row>
-    <row r="157" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
@@ -7651,7 +7651,7 @@
       <c r="Z157" s="18"/>
       <c r="AA157" s="18"/>
     </row>
-    <row r="158" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -7680,7 +7680,7 @@
       <c r="Z158" s="18"/>
       <c r="AA158" s="18"/>
     </row>
-    <row r="159" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
@@ -7709,7 +7709,7 @@
       <c r="Z159" s="18"/>
       <c r="AA159" s="18"/>
     </row>
-    <row r="160" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="18"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
@@ -7738,7 +7738,7 @@
       <c r="Z160" s="18"/>
       <c r="AA160" s="18"/>
     </row>
-    <row r="161" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
@@ -7767,7 +7767,7 @@
       <c r="Z161" s="18"/>
       <c r="AA161" s="18"/>
     </row>
-    <row r="162" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -7796,7 +7796,7 @@
       <c r="Z162" s="18"/>
       <c r="AA162" s="18"/>
     </row>
-    <row r="163" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
@@ -7825,7 +7825,7 @@
       <c r="Z163" s="18"/>
       <c r="AA163" s="18"/>
     </row>
-    <row r="164" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="18"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
@@ -7854,7 +7854,7 @@
       <c r="Z164" s="18"/>
       <c r="AA164" s="18"/>
     </row>
-    <row r="165" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="18"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
@@ -7883,7 +7883,7 @@
       <c r="Z165" s="18"/>
       <c r="AA165" s="18"/>
     </row>
-    <row r="166" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
@@ -7912,7 +7912,7 @@
       <c r="Z166" s="18"/>
       <c r="AA166" s="18"/>
     </row>
-    <row r="167" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
@@ -7941,7 +7941,7 @@
       <c r="Z167" s="18"/>
       <c r="AA167" s="18"/>
     </row>
-    <row r="168" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
@@ -7970,7 +7970,7 @@
       <c r="Z168" s="18"/>
       <c r="AA168" s="18"/>
     </row>
-    <row r="169" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
@@ -7999,7 +7999,7 @@
       <c r="Z169" s="18"/>
       <c r="AA169" s="18"/>
     </row>
-    <row r="170" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
@@ -8028,7 +8028,7 @@
       <c r="Z170" s="18"/>
       <c r="AA170" s="18"/>
     </row>
-    <row r="171" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
@@ -8057,7 +8057,7 @@
       <c r="Z171" s="18"/>
       <c r="AA171" s="18"/>
     </row>
-    <row r="172" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
@@ -8086,7 +8086,7 @@
       <c r="Z172" s="18"/>
       <c r="AA172" s="18"/>
     </row>
-    <row r="173" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -8115,7 +8115,7 @@
       <c r="Z173" s="18"/>
       <c r="AA173" s="18"/>
     </row>
-    <row r="174" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -8144,7 +8144,7 @@
       <c r="Z174" s="18"/>
       <c r="AA174" s="18"/>
     </row>
-    <row r="175" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
@@ -8173,7 +8173,7 @@
       <c r="Z175" s="18"/>
       <c r="AA175" s="18"/>
     </row>
-    <row r="176" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -8202,7 +8202,7 @@
       <c r="Z176" s="18"/>
       <c r="AA176" s="18"/>
     </row>
-    <row r="177" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -8231,7 +8231,7 @@
       <c r="Z177" s="18"/>
       <c r="AA177" s="18"/>
     </row>
-    <row r="178" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
@@ -8260,7 +8260,7 @@
       <c r="Z178" s="18"/>
       <c r="AA178" s="18"/>
     </row>
-    <row r="179" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -8289,7 +8289,7 @@
       <c r="Z179" s="18"/>
       <c r="AA179" s="18"/>
     </row>
-    <row r="180" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -8318,7 +8318,7 @@
       <c r="Z180" s="18"/>
       <c r="AA180" s="18"/>
     </row>
-    <row r="181" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="18"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
@@ -8347,7 +8347,7 @@
       <c r="Z181" s="18"/>
       <c r="AA181" s="18"/>
     </row>
-    <row r="182" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
@@ -8376,7 +8376,7 @@
       <c r="Z182" s="18"/>
       <c r="AA182" s="18"/>
     </row>
-    <row r="183" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="18"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
@@ -8405,7 +8405,7 @@
       <c r="Z183" s="18"/>
       <c r="AA183" s="18"/>
     </row>
-    <row r="184" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="18"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
@@ -8434,7 +8434,7 @@
       <c r="Z184" s="18"/>
       <c r="AA184" s="18"/>
     </row>
-    <row r="185" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
@@ -8463,7 +8463,7 @@
       <c r="Z185" s="18"/>
       <c r="AA185" s="18"/>
     </row>
-    <row r="186" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
@@ -8492,7 +8492,7 @@
       <c r="Z186" s="18"/>
       <c r="AA186" s="18"/>
     </row>
-    <row r="187" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="18"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
@@ -8521,7 +8521,7 @@
       <c r="Z187" s="18"/>
       <c r="AA187" s="18"/>
     </row>
-    <row r="188" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="18"/>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
@@ -8550,7 +8550,7 @@
       <c r="Z188" s="18"/>
       <c r="AA188" s="18"/>
     </row>
-    <row r="189" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="18"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
@@ -8579,7 +8579,7 @@
       <c r="Z189" s="18"/>
       <c r="AA189" s="18"/>
     </row>
-    <row r="190" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
@@ -8608,7 +8608,7 @@
       <c r="Z190" s="18"/>
       <c r="AA190" s="18"/>
     </row>
-    <row r="191" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="18"/>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
@@ -8637,7 +8637,7 @@
       <c r="Z191" s="18"/>
       <c r="AA191" s="18"/>
     </row>
-    <row r="192" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="18"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
@@ -8666,7 +8666,7 @@
       <c r="Z192" s="18"/>
       <c r="AA192" s="18"/>
     </row>
-    <row r="193" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="18"/>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
@@ -8695,7 +8695,7 @@
       <c r="Z193" s="18"/>
       <c r="AA193" s="18"/>
     </row>
-    <row r="194" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
@@ -8724,7 +8724,7 @@
       <c r="Z194" s="18"/>
       <c r="AA194" s="18"/>
     </row>
-    <row r="195" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="18"/>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
@@ -8753,7 +8753,7 @@
       <c r="Z195" s="18"/>
       <c r="AA195" s="18"/>
     </row>
-    <row r="196" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="18"/>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
@@ -8782,7 +8782,7 @@
       <c r="Z196" s="18"/>
       <c r="AA196" s="18"/>
     </row>
-    <row r="197" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="18"/>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
@@ -8811,7 +8811,7 @@
       <c r="Z197" s="18"/>
       <c r="AA197" s="18"/>
     </row>
-    <row r="198" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="18"/>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
@@ -8840,7 +8840,7 @@
       <c r="Z198" s="18"/>
       <c r="AA198" s="18"/>
     </row>
-    <row r="199" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="18"/>
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
@@ -8869,7 +8869,7 @@
       <c r="Z199" s="18"/>
       <c r="AA199" s="18"/>
     </row>
-    <row r="200" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="18"/>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
@@ -8898,7 +8898,7 @@
       <c r="Z200" s="18"/>
       <c r="AA200" s="18"/>
     </row>
-    <row r="201" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="18"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
@@ -8927,7 +8927,7 @@
       <c r="Z201" s="18"/>
       <c r="AA201" s="18"/>
     </row>
-    <row r="202" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="18"/>
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
@@ -8956,7 +8956,7 @@
       <c r="Z202" s="18"/>
       <c r="AA202" s="18"/>
     </row>
-    <row r="203" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
@@ -8985,7 +8985,7 @@
       <c r="Z203" s="18"/>
       <c r="AA203" s="18"/>
     </row>
-    <row r="204" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="18"/>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
@@ -9014,7 +9014,7 @@
       <c r="Z204" s="18"/>
       <c r="AA204" s="18"/>
     </row>
-    <row r="205" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="18"/>
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
@@ -9043,7 +9043,7 @@
       <c r="Z205" s="18"/>
       <c r="AA205" s="18"/>
     </row>
-    <row r="206" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="18"/>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
@@ -9072,7 +9072,7 @@
       <c r="Z206" s="18"/>
       <c r="AA206" s="18"/>
     </row>
-    <row r="207" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -9101,7 +9101,7 @@
       <c r="Z207" s="18"/>
       <c r="AA207" s="18"/>
     </row>
-    <row r="208" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="18"/>
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
@@ -9130,7 +9130,7 @@
       <c r="Z208" s="18"/>
       <c r="AA208" s="18"/>
     </row>
-    <row r="209" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="18"/>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
@@ -9159,7 +9159,7 @@
       <c r="Z209" s="18"/>
       <c r="AA209" s="18"/>
     </row>
-    <row r="210" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="18"/>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
@@ -9188,7 +9188,7 @@
       <c r="Z210" s="18"/>
       <c r="AA210" s="18"/>
     </row>
-    <row r="211" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="18"/>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
@@ -9217,7 +9217,7 @@
       <c r="Z211" s="18"/>
       <c r="AA211" s="18"/>
     </row>
-    <row r="212" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="18"/>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
@@ -9246,7 +9246,7 @@
       <c r="Z212" s="18"/>
       <c r="AA212" s="18"/>
     </row>
-    <row r="213" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="18"/>
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
@@ -9275,7 +9275,7 @@
       <c r="Z213" s="18"/>
       <c r="AA213" s="18"/>
     </row>
-    <row r="214" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="18"/>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
@@ -9304,7 +9304,7 @@
       <c r="Z214" s="18"/>
       <c r="AA214" s="18"/>
     </row>
-    <row r="215" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="18"/>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
@@ -9333,7 +9333,7 @@
       <c r="Z215" s="18"/>
       <c r="AA215" s="18"/>
     </row>
-    <row r="216" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="18"/>
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
@@ -9362,7 +9362,7 @@
       <c r="Z216" s="18"/>
       <c r="AA216" s="18"/>
     </row>
-    <row r="217" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="18"/>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
@@ -9391,7 +9391,7 @@
       <c r="Z217" s="18"/>
       <c r="AA217" s="18"/>
     </row>
-    <row r="218" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="18"/>
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
@@ -9420,7 +9420,7 @@
       <c r="Z218" s="18"/>
       <c r="AA218" s="18"/>
     </row>
-    <row r="219" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="18"/>
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
@@ -9449,7 +9449,7 @@
       <c r="Z219" s="18"/>
       <c r="AA219" s="18"/>
     </row>
-    <row r="220" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="18"/>
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
@@ -9478,7 +9478,7 @@
       <c r="Z220" s="18"/>
       <c r="AA220" s="18"/>
     </row>
-    <row r="221" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="18"/>
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
@@ -9507,7 +9507,7 @@
       <c r="Z221" s="18"/>
       <c r="AA221" s="18"/>
     </row>
-    <row r="222" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="18"/>
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
@@ -9536,7 +9536,7 @@
       <c r="Z222" s="18"/>
       <c r="AA222" s="18"/>
     </row>
-    <row r="223" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="18"/>
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
@@ -9565,7 +9565,7 @@
       <c r="Z223" s="18"/>
       <c r="AA223" s="18"/>
     </row>
-    <row r="224" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="18"/>
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
@@ -9594,7 +9594,7 @@
       <c r="Z224" s="18"/>
       <c r="AA224" s="18"/>
     </row>
-    <row r="225" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="18"/>
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
@@ -9623,7 +9623,7 @@
       <c r="Z225" s="18"/>
       <c r="AA225" s="18"/>
     </row>
-    <row r="226" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="18"/>
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
@@ -9652,7 +9652,7 @@
       <c r="Z226" s="18"/>
       <c r="AA226" s="18"/>
     </row>
-    <row r="227" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="18"/>
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
@@ -9681,7 +9681,7 @@
       <c r="Z227" s="18"/>
       <c r="AA227" s="18"/>
     </row>
-    <row r="228" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="18"/>
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
@@ -9710,7 +9710,7 @@
       <c r="Z228" s="18"/>
       <c r="AA228" s="18"/>
     </row>
-    <row r="229" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="18"/>
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
@@ -9739,7 +9739,7 @@
       <c r="Z229" s="18"/>
       <c r="AA229" s="18"/>
     </row>
-    <row r="230" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
@@ -9768,7 +9768,7 @@
       <c r="Z230" s="18"/>
       <c r="AA230" s="18"/>
     </row>
-    <row r="231" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="18"/>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
@@ -9797,7 +9797,7 @@
       <c r="Z231" s="18"/>
       <c r="AA231" s="18"/>
     </row>
-    <row r="232" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="18"/>
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
@@ -9826,7 +9826,7 @@
       <c r="Z232" s="18"/>
       <c r="AA232" s="18"/>
     </row>
-    <row r="233" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="18"/>
       <c r="B233" s="18"/>
       <c r="C233" s="18"/>
@@ -9855,7 +9855,7 @@
       <c r="Z233" s="18"/>
       <c r="AA233" s="18"/>
     </row>
-    <row r="234" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
@@ -9884,7 +9884,7 @@
       <c r="Z234" s="18"/>
       <c r="AA234" s="18"/>
     </row>
-    <row r="235" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="18"/>
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
@@ -9913,7 +9913,7 @@
       <c r="Z235" s="18"/>
       <c r="AA235" s="18"/>
     </row>
-    <row r="236" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="18"/>
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
@@ -9942,7 +9942,7 @@
       <c r="Z236" s="18"/>
       <c r="AA236" s="18"/>
     </row>
-    <row r="237" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="18"/>
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
@@ -9971,7 +9971,7 @@
       <c r="Z237" s="18"/>
       <c r="AA237" s="18"/>
     </row>
-    <row r="238" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="18"/>
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
@@ -10000,7 +10000,7 @@
       <c r="Z238" s="18"/>
       <c r="AA238" s="18"/>
     </row>
-    <row r="239" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="18"/>
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
@@ -10029,7 +10029,7 @@
       <c r="Z239" s="18"/>
       <c r="AA239" s="18"/>
     </row>
-    <row r="240" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="18"/>
       <c r="B240" s="18"/>
       <c r="C240" s="18"/>
@@ -10058,7 +10058,7 @@
       <c r="Z240" s="18"/>
       <c r="AA240" s="18"/>
     </row>
-    <row r="241" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="18"/>
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
@@ -10087,7 +10087,7 @@
       <c r="Z241" s="18"/>
       <c r="AA241" s="18"/>
     </row>
-    <row r="242" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="18"/>
       <c r="B242" s="18"/>
       <c r="C242" s="18"/>
@@ -10116,7 +10116,7 @@
       <c r="Z242" s="18"/>
       <c r="AA242" s="18"/>
     </row>
-    <row r="243" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="18"/>
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
@@ -10145,7 +10145,7 @@
       <c r="Z243" s="18"/>
       <c r="AA243" s="18"/>
     </row>
-    <row r="244" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="18"/>
       <c r="B244" s="18"/>
       <c r="C244" s="18"/>
@@ -10174,7 +10174,7 @@
       <c r="Z244" s="18"/>
       <c r="AA244" s="18"/>
     </row>
-    <row r="245" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="18"/>
       <c r="B245" s="18"/>
       <c r="C245" s="18"/>
@@ -10203,7 +10203,7 @@
       <c r="Z245" s="18"/>
       <c r="AA245" s="18"/>
     </row>
-    <row r="246" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="18"/>
       <c r="B246" s="18"/>
       <c r="C246" s="18"/>
@@ -10232,7 +10232,7 @@
       <c r="Z246" s="18"/>
       <c r="AA246" s="18"/>
     </row>
-    <row r="247" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="18"/>
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
@@ -10261,7 +10261,7 @@
       <c r="Z247" s="18"/>
       <c r="AA247" s="18"/>
     </row>
-    <row r="248" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="18"/>
       <c r="B248" s="18"/>
       <c r="C248" s="18"/>
@@ -10290,7 +10290,7 @@
       <c r="Z248" s="18"/>
       <c r="AA248" s="18"/>
     </row>
-    <row r="249" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="18"/>
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
@@ -10319,7 +10319,7 @@
       <c r="Z249" s="18"/>
       <c r="AA249" s="18"/>
     </row>
-    <row r="250" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="18"/>
       <c r="B250" s="18"/>
       <c r="C250" s="18"/>
@@ -10348,7 +10348,7 @@
       <c r="Z250" s="18"/>
       <c r="AA250" s="18"/>
     </row>
-    <row r="251" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="18"/>
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
@@ -10377,7 +10377,7 @@
       <c r="Z251" s="18"/>
       <c r="AA251" s="18"/>
     </row>
-    <row r="252" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="18"/>
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
@@ -10406,7 +10406,7 @@
       <c r="Z252" s="18"/>
       <c r="AA252" s="18"/>
     </row>
-    <row r="253" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="18"/>
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
@@ -10435,7 +10435,7 @@
       <c r="Z253" s="18"/>
       <c r="AA253" s="18"/>
     </row>
-    <row r="254" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="18"/>
       <c r="B254" s="18"/>
       <c r="C254" s="18"/>
@@ -10464,7 +10464,7 @@
       <c r="Z254" s="18"/>
       <c r="AA254" s="18"/>
     </row>
-    <row r="255" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="18"/>
       <c r="B255" s="18"/>
       <c r="C255" s="18"/>
@@ -10493,7 +10493,7 @@
       <c r="Z255" s="18"/>
       <c r="AA255" s="18"/>
     </row>
-    <row r="256" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -10522,7 +10522,7 @@
       <c r="Z256" s="18"/>
       <c r="AA256" s="18"/>
     </row>
-    <row r="257" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="18"/>
       <c r="B257" s="18"/>
       <c r="C257" s="18"/>
@@ -10551,7 +10551,7 @@
       <c r="Z257" s="18"/>
       <c r="AA257" s="18"/>
     </row>
-    <row r="258" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="18"/>
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
@@ -10580,7 +10580,7 @@
       <c r="Z258" s="18"/>
       <c r="AA258" s="18"/>
     </row>
-    <row r="259" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="18"/>
       <c r="B259" s="18"/>
       <c r="C259" s="18"/>
@@ -10609,7 +10609,7 @@
       <c r="Z259" s="18"/>
       <c r="AA259" s="18"/>
     </row>
-    <row r="260" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="18"/>
       <c r="B260" s="18"/>
       <c r="C260" s="18"/>
@@ -10638,7 +10638,7 @@
       <c r="Z260" s="18"/>
       <c r="AA260" s="18"/>
     </row>
-    <row r="261" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="18"/>
       <c r="B261" s="18"/>
       <c r="C261" s="18"/>
@@ -10667,7 +10667,7 @@
       <c r="Z261" s="18"/>
       <c r="AA261" s="18"/>
     </row>
-    <row r="262" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="18"/>
       <c r="B262" s="18"/>
       <c r="C262" s="18"/>
@@ -10696,7 +10696,7 @@
       <c r="Z262" s="18"/>
       <c r="AA262" s="18"/>
     </row>
-    <row r="263" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="18"/>
       <c r="B263" s="18"/>
       <c r="C263" s="18"/>
@@ -10725,7 +10725,7 @@
       <c r="Z263" s="18"/>
       <c r="AA263" s="18"/>
     </row>
-    <row r="264" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="18"/>
       <c r="B264" s="18"/>
       <c r="C264" s="18"/>
@@ -10754,7 +10754,7 @@
       <c r="Z264" s="18"/>
       <c r="AA264" s="18"/>
     </row>
-    <row r="265" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="18"/>
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
@@ -10783,7 +10783,7 @@
       <c r="Z265" s="18"/>
       <c r="AA265" s="18"/>
     </row>
-    <row r="266" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="18"/>
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
@@ -10812,7 +10812,7 @@
       <c r="Z266" s="18"/>
       <c r="AA266" s="18"/>
     </row>
-    <row r="267" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="18"/>
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
@@ -10841,7 +10841,7 @@
       <c r="Z267" s="18"/>
       <c r="AA267" s="18"/>
     </row>
-    <row r="268" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="18"/>
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
@@ -10870,7 +10870,7 @@
       <c r="Z268" s="18"/>
       <c r="AA268" s="18"/>
     </row>
-    <row r="269" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="18"/>
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
@@ -10899,7 +10899,7 @@
       <c r="Z269" s="18"/>
       <c r="AA269" s="18"/>
     </row>
-    <row r="270" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="18"/>
       <c r="B270" s="18"/>
       <c r="C270" s="18"/>
@@ -10928,7 +10928,7 @@
       <c r="Z270" s="18"/>
       <c r="AA270" s="18"/>
     </row>
-    <row r="271" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="18"/>
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
@@ -10957,7 +10957,7 @@
       <c r="Z271" s="18"/>
       <c r="AA271" s="18"/>
     </row>
-    <row r="272" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="18"/>
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
@@ -10986,7 +10986,7 @@
       <c r="Z272" s="18"/>
       <c r="AA272" s="18"/>
     </row>
-    <row r="273" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="18"/>
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
@@ -11015,7 +11015,7 @@
       <c r="Z273" s="18"/>
       <c r="AA273" s="18"/>
     </row>
-    <row r="274" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="18"/>
       <c r="B274" s="18"/>
       <c r="C274" s="18"/>
@@ -11044,7 +11044,7 @@
       <c r="Z274" s="18"/>
       <c r="AA274" s="18"/>
     </row>
-    <row r="275" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="18"/>
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
@@ -11073,7 +11073,7 @@
       <c r="Z275" s="18"/>
       <c r="AA275" s="18"/>
     </row>
-    <row r="276" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="18"/>
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
@@ -11102,7 +11102,7 @@
       <c r="Z276" s="18"/>
       <c r="AA276" s="18"/>
     </row>
-    <row r="277" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="18"/>
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
@@ -11131,7 +11131,7 @@
       <c r="Z277" s="18"/>
       <c r="AA277" s="18"/>
     </row>
-    <row r="278" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="18"/>
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
@@ -11160,7 +11160,7 @@
       <c r="Z278" s="18"/>
       <c r="AA278" s="18"/>
     </row>
-    <row r="279" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="18"/>
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
@@ -11189,7 +11189,7 @@
       <c r="Z279" s="18"/>
       <c r="AA279" s="18"/>
     </row>
-    <row r="280" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="18"/>
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
@@ -11218,7 +11218,7 @@
       <c r="Z280" s="18"/>
       <c r="AA280" s="18"/>
     </row>
-    <row r="281" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="18"/>
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
@@ -11247,7 +11247,7 @@
       <c r="Z281" s="18"/>
       <c r="AA281" s="18"/>
     </row>
-    <row r="282" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="18"/>
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
@@ -11276,7 +11276,7 @@
       <c r="Z282" s="18"/>
       <c r="AA282" s="18"/>
     </row>
-    <row r="283" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="18"/>
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
@@ -11305,7 +11305,7 @@
       <c r="Z283" s="18"/>
       <c r="AA283" s="18"/>
     </row>
-    <row r="284" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="18"/>
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
@@ -11334,7 +11334,7 @@
       <c r="Z284" s="18"/>
       <c r="AA284" s="18"/>
     </row>
-    <row r="285" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="18"/>
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
@@ -11363,7 +11363,7 @@
       <c r="Z285" s="18"/>
       <c r="AA285" s="18"/>
     </row>
-    <row r="286" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="18"/>
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
@@ -11392,7 +11392,7 @@
       <c r="Z286" s="18"/>
       <c r="AA286" s="18"/>
     </row>
-    <row r="287" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="18"/>
       <c r="B287" s="18"/>
       <c r="C287" s="18"/>
@@ -11421,7 +11421,7 @@
       <c r="Z287" s="18"/>
       <c r="AA287" s="18"/>
     </row>
-    <row r="288" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="18"/>
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
@@ -11450,7 +11450,7 @@
       <c r="Z288" s="18"/>
       <c r="AA288" s="18"/>
     </row>
-    <row r="289" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="18"/>
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
@@ -11479,7 +11479,7 @@
       <c r="Z289" s="18"/>
       <c r="AA289" s="18"/>
     </row>
-    <row r="290" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="18"/>
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
@@ -11508,7 +11508,7 @@
       <c r="Z290" s="18"/>
       <c r="AA290" s="18"/>
     </row>
-    <row r="291" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -11537,7 +11537,7 @@
       <c r="Z291" s="18"/>
       <c r="AA291" s="18"/>
     </row>
-    <row r="292" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="18"/>
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
@@ -11566,7 +11566,7 @@
       <c r="Z292" s="18"/>
       <c r="AA292" s="18"/>
     </row>
-    <row r="293" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="18"/>
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
@@ -11595,7 +11595,7 @@
       <c r="Z293" s="18"/>
       <c r="AA293" s="18"/>
     </row>
-    <row r="294" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="18"/>
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
@@ -11624,7 +11624,7 @@
       <c r="Z294" s="18"/>
       <c r="AA294" s="18"/>
     </row>
-    <row r="295" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="18"/>
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
@@ -11653,7 +11653,7 @@
       <c r="Z295" s="18"/>
       <c r="AA295" s="18"/>
     </row>
-    <row r="296" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="18"/>
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
@@ -11682,7 +11682,7 @@
       <c r="Z296" s="18"/>
       <c r="AA296" s="18"/>
     </row>
-    <row r="297" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="18"/>
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
@@ -11711,7 +11711,7 @@
       <c r="Z297" s="18"/>
       <c r="AA297" s="18"/>
     </row>
-    <row r="298" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="18"/>
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
@@ -11740,7 +11740,7 @@
       <c r="Z298" s="18"/>
       <c r="AA298" s="18"/>
     </row>
-    <row r="299" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="18"/>
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
@@ -11769,7 +11769,7 @@
       <c r="Z299" s="18"/>
       <c r="AA299" s="18"/>
     </row>
-    <row r="300" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="18"/>
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
@@ -11798,7 +11798,7 @@
       <c r="Z300" s="18"/>
       <c r="AA300" s="18"/>
     </row>
-    <row r="301" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="18"/>
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
@@ -11827,7 +11827,7 @@
       <c r="Z301" s="18"/>
       <c r="AA301" s="18"/>
     </row>
-    <row r="302" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="18"/>
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
@@ -11856,7 +11856,7 @@
       <c r="Z302" s="18"/>
       <c r="AA302" s="18"/>
     </row>
-    <row r="303" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="18"/>
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
@@ -11885,7 +11885,7 @@
       <c r="Z303" s="18"/>
       <c r="AA303" s="18"/>
     </row>
-    <row r="304" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="18"/>
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
@@ -11914,7 +11914,7 @@
       <c r="Z304" s="18"/>
       <c r="AA304" s="18"/>
     </row>
-    <row r="305" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="18"/>
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
@@ -11943,7 +11943,7 @@
       <c r="Z305" s="18"/>
       <c r="AA305" s="18"/>
     </row>
-    <row r="306" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="18"/>
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
@@ -11972,7 +11972,7 @@
       <c r="Z306" s="18"/>
       <c r="AA306" s="18"/>
     </row>
-    <row r="307" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="18"/>
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
@@ -12001,7 +12001,7 @@
       <c r="Z307" s="18"/>
       <c r="AA307" s="18"/>
     </row>
-    <row r="308" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="18"/>
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
@@ -12030,7 +12030,7 @@
       <c r="Z308" s="18"/>
       <c r="AA308" s="18"/>
     </row>
-    <row r="309" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="18"/>
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
@@ -12059,7 +12059,7 @@
       <c r="Z309" s="18"/>
       <c r="AA309" s="18"/>
     </row>
-    <row r="310" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="18"/>
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
@@ -12088,7 +12088,7 @@
       <c r="Z310" s="18"/>
       <c r="AA310" s="18"/>
     </row>
-    <row r="311" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="18"/>
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
@@ -12117,7 +12117,7 @@
       <c r="Z311" s="18"/>
       <c r="AA311" s="18"/>
     </row>
-    <row r="312" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="18"/>
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
@@ -12146,7 +12146,7 @@
       <c r="Z312" s="18"/>
       <c r="AA312" s="18"/>
     </row>
-    <row r="313" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="18"/>
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
@@ -12175,7 +12175,7 @@
       <c r="Z313" s="18"/>
       <c r="AA313" s="18"/>
     </row>
-    <row r="314" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="18"/>
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
@@ -12204,7 +12204,7 @@
       <c r="Z314" s="18"/>
       <c r="AA314" s="18"/>
     </row>
-    <row r="315" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="18"/>
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
@@ -12233,7 +12233,7 @@
       <c r="Z315" s="18"/>
       <c r="AA315" s="18"/>
     </row>
-    <row r="316" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="18"/>
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
@@ -12262,7 +12262,7 @@
       <c r="Z316" s="18"/>
       <c r="AA316" s="18"/>
     </row>
-    <row r="317" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="18"/>
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
@@ -12291,7 +12291,7 @@
       <c r="Z317" s="18"/>
       <c r="AA317" s="18"/>
     </row>
-    <row r="318" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="18"/>
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
@@ -12320,7 +12320,7 @@
       <c r="Z318" s="18"/>
       <c r="AA318" s="18"/>
     </row>
-    <row r="319" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="18"/>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
@@ -12349,7 +12349,7 @@
       <c r="Z319" s="18"/>
       <c r="AA319" s="18"/>
     </row>
-    <row r="320" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="18"/>
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
@@ -12378,7 +12378,7 @@
       <c r="Z320" s="18"/>
       <c r="AA320" s="18"/>
     </row>
-    <row r="321" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="18"/>
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
@@ -12407,7 +12407,7 @@
       <c r="Z321" s="18"/>
       <c r="AA321" s="18"/>
     </row>
-    <row r="322" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="18"/>
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
@@ -12436,7 +12436,7 @@
       <c r="Z322" s="18"/>
       <c r="AA322" s="18"/>
     </row>
-    <row r="323" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="18"/>
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
@@ -12465,7 +12465,7 @@
       <c r="Z323" s="18"/>
       <c r="AA323" s="18"/>
     </row>
-    <row r="324" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="18"/>
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
@@ -12494,7 +12494,7 @@
       <c r="Z324" s="18"/>
       <c r="AA324" s="18"/>
     </row>
-    <row r="325" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="18"/>
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
@@ -12523,7 +12523,7 @@
       <c r="Z325" s="18"/>
       <c r="AA325" s="18"/>
     </row>
-    <row r="326" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="18"/>
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
@@ -12552,7 +12552,7 @@
       <c r="Z326" s="18"/>
       <c r="AA326" s="18"/>
     </row>
-    <row r="327" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="18"/>
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
@@ -12581,7 +12581,7 @@
       <c r="Z327" s="18"/>
       <c r="AA327" s="18"/>
     </row>
-    <row r="328" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="18"/>
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
@@ -12610,7 +12610,7 @@
       <c r="Z328" s="18"/>
       <c r="AA328" s="18"/>
     </row>
-    <row r="329" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="18"/>
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
@@ -12639,7 +12639,7 @@
       <c r="Z329" s="18"/>
       <c r="AA329" s="18"/>
     </row>
-    <row r="330" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="18"/>
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
@@ -12668,7 +12668,7 @@
       <c r="Z330" s="18"/>
       <c r="AA330" s="18"/>
     </row>
-    <row r="331" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="18"/>
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
@@ -12697,7 +12697,7 @@
       <c r="Z331" s="18"/>
       <c r="AA331" s="18"/>
     </row>
-    <row r="332" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="18"/>
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
@@ -12726,7 +12726,7 @@
       <c r="Z332" s="18"/>
       <c r="AA332" s="18"/>
     </row>
-    <row r="333" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="18"/>
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
@@ -12755,7 +12755,7 @@
       <c r="Z333" s="18"/>
       <c r="AA333" s="18"/>
     </row>
-    <row r="334" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="18"/>
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
@@ -12784,7 +12784,7 @@
       <c r="Z334" s="18"/>
       <c r="AA334" s="18"/>
     </row>
-    <row r="335" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="18"/>
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
@@ -12813,7 +12813,7 @@
       <c r="Z335" s="18"/>
       <c r="AA335" s="18"/>
     </row>
-    <row r="336" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="18"/>
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
@@ -12842,7 +12842,7 @@
       <c r="Z336" s="18"/>
       <c r="AA336" s="18"/>
     </row>
-    <row r="337" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="18"/>
       <c r="B337" s="18"/>
       <c r="C337" s="18"/>
@@ -12871,7 +12871,7 @@
       <c r="Z337" s="18"/>
       <c r="AA337" s="18"/>
     </row>
-    <row r="338" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="18"/>
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
@@ -12900,7 +12900,7 @@
       <c r="Z338" s="18"/>
       <c r="AA338" s="18"/>
     </row>
-    <row r="339" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="18"/>
       <c r="B339" s="18"/>
       <c r="C339" s="18"/>
@@ -12929,7 +12929,7 @@
       <c r="Z339" s="18"/>
       <c r="AA339" s="18"/>
     </row>
-    <row r="340" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="18"/>
       <c r="B340" s="18"/>
       <c r="C340" s="18"/>
@@ -12958,7 +12958,7 @@
       <c r="Z340" s="18"/>
       <c r="AA340" s="18"/>
     </row>
-    <row r="341" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="18"/>
       <c r="B341" s="18"/>
       <c r="C341" s="18"/>
@@ -12987,7 +12987,7 @@
       <c r="Z341" s="18"/>
       <c r="AA341" s="18"/>
     </row>
-    <row r="342" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="18"/>
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
@@ -13016,7 +13016,7 @@
       <c r="Z342" s="18"/>
       <c r="AA342" s="18"/>
     </row>
-    <row r="343" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="18"/>
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
@@ -13045,7 +13045,7 @@
       <c r="Z343" s="18"/>
       <c r="AA343" s="18"/>
     </row>
-    <row r="344" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="18"/>
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
@@ -13074,7 +13074,7 @@
       <c r="Z344" s="18"/>
       <c r="AA344" s="18"/>
     </row>
-    <row r="345" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="18"/>
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
@@ -13103,7 +13103,7 @@
       <c r="Z345" s="18"/>
       <c r="AA345" s="18"/>
     </row>
-    <row r="346" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="18"/>
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
@@ -13132,7 +13132,7 @@
       <c r="Z346" s="18"/>
       <c r="AA346" s="18"/>
     </row>
-    <row r="347" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="18"/>
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
@@ -13161,7 +13161,7 @@
       <c r="Z347" s="18"/>
       <c r="AA347" s="18"/>
     </row>
-    <row r="348" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="18"/>
       <c r="B348" s="18"/>
       <c r="C348" s="18"/>
@@ -13190,7 +13190,7 @@
       <c r="Z348" s="18"/>
       <c r="AA348" s="18"/>
     </row>
-    <row r="349" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="18"/>
       <c r="B349" s="18"/>
       <c r="C349" s="18"/>
@@ -13219,7 +13219,7 @@
       <c r="Z349" s="18"/>
       <c r="AA349" s="18"/>
     </row>
-    <row r="350" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="18"/>
       <c r="B350" s="18"/>
       <c r="C350" s="18"/>
@@ -13248,7 +13248,7 @@
       <c r="Z350" s="18"/>
       <c r="AA350" s="18"/>
     </row>
-    <row r="351" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="18"/>
       <c r="B351" s="18"/>
       <c r="C351" s="18"/>
@@ -13277,7 +13277,7 @@
       <c r="Z351" s="18"/>
       <c r="AA351" s="18"/>
     </row>
-    <row r="352" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="18"/>
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
@@ -13306,7 +13306,7 @@
       <c r="Z352" s="18"/>
       <c r="AA352" s="18"/>
     </row>
-    <row r="353" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="18"/>
       <c r="B353" s="18"/>
       <c r="C353" s="18"/>
@@ -13335,7 +13335,7 @@
       <c r="Z353" s="18"/>
       <c r="AA353" s="18"/>
     </row>
-    <row r="354" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="18"/>
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
@@ -13364,7 +13364,7 @@
       <c r="Z354" s="18"/>
       <c r="AA354" s="18"/>
     </row>
-    <row r="355" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="18"/>
       <c r="B355" s="18"/>
       <c r="C355" s="18"/>
@@ -13393,7 +13393,7 @@
       <c r="Z355" s="18"/>
       <c r="AA355" s="18"/>
     </row>
-    <row r="356" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="18"/>
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
@@ -13422,7 +13422,7 @@
       <c r="Z356" s="18"/>
       <c r="AA356" s="18"/>
     </row>
-    <row r="357" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="18"/>
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
@@ -13451,7 +13451,7 @@
       <c r="Z357" s="18"/>
       <c r="AA357" s="18"/>
     </row>
-    <row r="358" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="18"/>
       <c r="B358" s="18"/>
       <c r="C358" s="18"/>
@@ -13480,7 +13480,7 @@
       <c r="Z358" s="18"/>
       <c r="AA358" s="18"/>
     </row>
-    <row r="359" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="18"/>
       <c r="B359" s="18"/>
       <c r="C359" s="18"/>
@@ -13509,7 +13509,7 @@
       <c r="Z359" s="18"/>
       <c r="AA359" s="18"/>
     </row>
-    <row r="360" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="18"/>
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
@@ -13538,7 +13538,7 @@
       <c r="Z360" s="18"/>
       <c r="AA360" s="18"/>
     </row>
-    <row r="361" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="18"/>
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
@@ -13567,7 +13567,7 @@
       <c r="Z361" s="18"/>
       <c r="AA361" s="18"/>
     </row>
-    <row r="362" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="18"/>
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
@@ -13596,7 +13596,7 @@
       <c r="Z362" s="18"/>
       <c r="AA362" s="18"/>
     </row>
-    <row r="363" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="18"/>
       <c r="B363" s="18"/>
       <c r="C363" s="18"/>
@@ -13625,7 +13625,7 @@
       <c r="Z363" s="18"/>
       <c r="AA363" s="18"/>
     </row>
-    <row r="364" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="18"/>
       <c r="B364" s="18"/>
       <c r="C364" s="18"/>
@@ -13654,7 +13654,7 @@
       <c r="Z364" s="18"/>
       <c r="AA364" s="18"/>
     </row>
-    <row r="365" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="18"/>
       <c r="B365" s="18"/>
       <c r="C365" s="18"/>
@@ -13683,7 +13683,7 @@
       <c r="Z365" s="18"/>
       <c r="AA365" s="18"/>
     </row>
-    <row r="366" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="18"/>
       <c r="B366" s="18"/>
       <c r="C366" s="18"/>
@@ -13712,7 +13712,7 @@
       <c r="Z366" s="18"/>
       <c r="AA366" s="18"/>
     </row>
-    <row r="367" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="18"/>
       <c r="B367" s="18"/>
       <c r="C367" s="18"/>
@@ -13741,7 +13741,7 @@
       <c r="Z367" s="18"/>
       <c r="AA367" s="18"/>
     </row>
-    <row r="368" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="18"/>
       <c r="B368" s="18"/>
       <c r="C368" s="18"/>
@@ -13770,7 +13770,7 @@
       <c r="Z368" s="18"/>
       <c r="AA368" s="18"/>
     </row>
-    <row r="369" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="18"/>
       <c r="B369" s="18"/>
       <c r="C369" s="18"/>
@@ -13799,7 +13799,7 @@
       <c r="Z369" s="18"/>
       <c r="AA369" s="18"/>
     </row>
-    <row r="370" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="18"/>
       <c r="B370" s="18"/>
       <c r="C370" s="18"/>
@@ -13828,7 +13828,7 @@
       <c r="Z370" s="18"/>
       <c r="AA370" s="18"/>
     </row>
-    <row r="371" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="18"/>
       <c r="B371" s="18"/>
       <c r="C371" s="18"/>
@@ -13857,7 +13857,7 @@
       <c r="Z371" s="18"/>
       <c r="AA371" s="18"/>
     </row>
-    <row r="372" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="18"/>
       <c r="B372" s="18"/>
       <c r="C372" s="18"/>
@@ -13886,7 +13886,7 @@
       <c r="Z372" s="18"/>
       <c r="AA372" s="18"/>
     </row>
-    <row r="373" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="18"/>
       <c r="B373" s="18"/>
       <c r="C373" s="18"/>
@@ -13915,7 +13915,7 @@
       <c r="Z373" s="18"/>
       <c r="AA373" s="18"/>
     </row>
-    <row r="374" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="18"/>
       <c r="B374" s="18"/>
       <c r="C374" s="18"/>
@@ -13944,7 +13944,7 @@
       <c r="Z374" s="18"/>
       <c r="AA374" s="18"/>
     </row>
-    <row r="375" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="18"/>
       <c r="B375" s="18"/>
       <c r="C375" s="18"/>
@@ -13973,7 +13973,7 @@
       <c r="Z375" s="18"/>
       <c r="AA375" s="18"/>
     </row>
-    <row r="376" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="18"/>
       <c r="B376" s="18"/>
       <c r="C376" s="18"/>
@@ -14002,7 +14002,7 @@
       <c r="Z376" s="18"/>
       <c r="AA376" s="18"/>
     </row>
-    <row r="377" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="18"/>
       <c r="B377" s="18"/>
       <c r="C377" s="18"/>
@@ -14031,7 +14031,7 @@
       <c r="Z377" s="18"/>
       <c r="AA377" s="18"/>
     </row>
-    <row r="378" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="18"/>
       <c r="B378" s="18"/>
       <c r="C378" s="18"/>
@@ -14060,7 +14060,7 @@
       <c r="Z378" s="18"/>
       <c r="AA378" s="18"/>
     </row>
-    <row r="379" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="18"/>
       <c r="B379" s="18"/>
       <c r="C379" s="18"/>
@@ -14089,7 +14089,7 @@
       <c r="Z379" s="18"/>
       <c r="AA379" s="18"/>
     </row>
-    <row r="380" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="18"/>
       <c r="B380" s="18"/>
       <c r="C380" s="18"/>
@@ -14118,7 +14118,7 @@
       <c r="Z380" s="18"/>
       <c r="AA380" s="18"/>
     </row>
-    <row r="381" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="18"/>
       <c r="B381" s="18"/>
       <c r="C381" s="18"/>
@@ -14147,7 +14147,7 @@
       <c r="Z381" s="18"/>
       <c r="AA381" s="18"/>
     </row>
-    <row r="382" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="18"/>
       <c r="B382" s="18"/>
       <c r="C382" s="18"/>
@@ -14176,7 +14176,7 @@
       <c r="Z382" s="18"/>
       <c r="AA382" s="18"/>
     </row>
-    <row r="383" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="18"/>
       <c r="B383" s="18"/>
       <c r="C383" s="18"/>
@@ -14205,7 +14205,7 @@
       <c r="Z383" s="18"/>
       <c r="AA383" s="18"/>
     </row>
-    <row r="384" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="18"/>
       <c r="B384" s="18"/>
       <c r="C384" s="18"/>
@@ -14234,7 +14234,7 @@
       <c r="Z384" s="18"/>
       <c r="AA384" s="18"/>
     </row>
-    <row r="385" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="18"/>
       <c r="B385" s="18"/>
       <c r="C385" s="18"/>
@@ -14263,7 +14263,7 @@
       <c r="Z385" s="18"/>
       <c r="AA385" s="18"/>
     </row>
-    <row r="386" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="18"/>
       <c r="B386" s="18"/>
       <c r="C386" s="18"/>
@@ -14292,7 +14292,7 @@
       <c r="Z386" s="18"/>
       <c r="AA386" s="18"/>
     </row>
-    <row r="387" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="18"/>
       <c r="B387" s="18"/>
       <c r="C387" s="18"/>
@@ -14321,7 +14321,7 @@
       <c r="Z387" s="18"/>
       <c r="AA387" s="18"/>
     </row>
-    <row r="388" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="18"/>
       <c r="B388" s="18"/>
       <c r="C388" s="18"/>
@@ -14350,7 +14350,7 @@
       <c r="Z388" s="18"/>
       <c r="AA388" s="18"/>
     </row>
-    <row r="389" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="18"/>
       <c r="B389" s="18"/>
       <c r="C389" s="18"/>
@@ -14379,7 +14379,7 @@
       <c r="Z389" s="18"/>
       <c r="AA389" s="18"/>
     </row>
-    <row r="390" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="18"/>
       <c r="B390" s="18"/>
       <c r="C390" s="18"/>
@@ -14408,7 +14408,7 @@
       <c r="Z390" s="18"/>
       <c r="AA390" s="18"/>
     </row>
-    <row r="391" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="18"/>
       <c r="B391" s="18"/>
       <c r="C391" s="18"/>
@@ -14437,7 +14437,7 @@
       <c r="Z391" s="18"/>
       <c r="AA391" s="18"/>
     </row>
-    <row r="392" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="18"/>
       <c r="B392" s="18"/>
       <c r="C392" s="18"/>
@@ -14466,7 +14466,7 @@
       <c r="Z392" s="18"/>
       <c r="AA392" s="18"/>
     </row>
-    <row r="393" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="18"/>
       <c r="B393" s="18"/>
       <c r="C393" s="18"/>
@@ -14495,7 +14495,7 @@
       <c r="Z393" s="18"/>
       <c r="AA393" s="18"/>
     </row>
-    <row r="394" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="18"/>
       <c r="B394" s="18"/>
       <c r="C394" s="18"/>
@@ -14524,7 +14524,7 @@
       <c r="Z394" s="18"/>
       <c r="AA394" s="18"/>
     </row>
-    <row r="395" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="18"/>
       <c r="B395" s="18"/>
       <c r="C395" s="18"/>
@@ -14553,7 +14553,7 @@
       <c r="Z395" s="18"/>
       <c r="AA395" s="18"/>
     </row>
-    <row r="396" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="18"/>
       <c r="B396" s="18"/>
       <c r="C396" s="18"/>
@@ -14582,7 +14582,7 @@
       <c r="Z396" s="18"/>
       <c r="AA396" s="18"/>
     </row>
-    <row r="397" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="18"/>
       <c r="B397" s="18"/>
       <c r="C397" s="18"/>
@@ -14611,7 +14611,7 @@
       <c r="Z397" s="18"/>
       <c r="AA397" s="18"/>
     </row>
-    <row r="398" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="18"/>
       <c r="B398" s="18"/>
       <c r="C398" s="18"/>
@@ -14640,7 +14640,7 @@
       <c r="Z398" s="18"/>
       <c r="AA398" s="18"/>
     </row>
-    <row r="399" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="18"/>
       <c r="B399" s="18"/>
       <c r="C399" s="18"/>
@@ -14669,7 +14669,7 @@
       <c r="Z399" s="18"/>
       <c r="AA399" s="18"/>
     </row>
-    <row r="400" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="18"/>
       <c r="B400" s="18"/>
       <c r="C400" s="18"/>
@@ -14698,7 +14698,7 @@
       <c r="Z400" s="18"/>
       <c r="AA400" s="18"/>
     </row>
-    <row r="401" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="18"/>
       <c r="B401" s="18"/>
       <c r="C401" s="18"/>
@@ -14727,7 +14727,7 @@
       <c r="Z401" s="18"/>
       <c r="AA401" s="18"/>
     </row>
-    <row r="402" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="18"/>
       <c r="B402" s="18"/>
       <c r="C402" s="18"/>
@@ -14756,7 +14756,7 @@
       <c r="Z402" s="18"/>
       <c r="AA402" s="18"/>
     </row>
-    <row r="403" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="18"/>
       <c r="B403" s="18"/>
       <c r="C403" s="18"/>
@@ -14785,7 +14785,7 @@
       <c r="Z403" s="18"/>
       <c r="AA403" s="18"/>
     </row>
-    <row r="404" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="18"/>
       <c r="B404" s="18"/>
       <c r="C404" s="18"/>
@@ -14814,7 +14814,7 @@
       <c r="Z404" s="18"/>
       <c r="AA404" s="18"/>
     </row>
-    <row r="405" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="18"/>
       <c r="B405" s="18"/>
       <c r="C405" s="18"/>
@@ -14843,7 +14843,7 @@
       <c r="Z405" s="18"/>
       <c r="AA405" s="18"/>
     </row>
-    <row r="406" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="18"/>
       <c r="B406" s="18"/>
       <c r="C406" s="18"/>
@@ -14872,7 +14872,7 @@
       <c r="Z406" s="18"/>
       <c r="AA406" s="18"/>
     </row>
-    <row r="407" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="18"/>
       <c r="B407" s="18"/>
       <c r="C407" s="18"/>
@@ -14901,7 +14901,7 @@
       <c r="Z407" s="18"/>
       <c r="AA407" s="18"/>
     </row>
-    <row r="408" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="18"/>
       <c r="B408" s="18"/>
       <c r="C408" s="18"/>
@@ -14930,7 +14930,7 @@
       <c r="Z408" s="18"/>
       <c r="AA408" s="18"/>
     </row>
-    <row r="409" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="18"/>
       <c r="B409" s="18"/>
       <c r="C409" s="18"/>
@@ -14959,7 +14959,7 @@
       <c r="Z409" s="18"/>
       <c r="AA409" s="18"/>
     </row>
-    <row r="410" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="18"/>
       <c r="B410" s="18"/>
       <c r="C410" s="18"/>
@@ -14988,7 +14988,7 @@
       <c r="Z410" s="18"/>
       <c r="AA410" s="18"/>
     </row>
-    <row r="411" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="18"/>
       <c r="B411" s="18"/>
       <c r="C411" s="18"/>
@@ -15017,7 +15017,7 @@
       <c r="Z411" s="18"/>
       <c r="AA411" s="18"/>
     </row>
-    <row r="412" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="18"/>
       <c r="B412" s="18"/>
       <c r="C412" s="18"/>
@@ -15046,7 +15046,7 @@
       <c r="Z412" s="18"/>
       <c r="AA412" s="18"/>
     </row>
-    <row r="413" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="18"/>
       <c r="B413" s="18"/>
       <c r="C413" s="18"/>
@@ -15075,7 +15075,7 @@
       <c r="Z413" s="18"/>
       <c r="AA413" s="18"/>
     </row>
-    <row r="414" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="18"/>
       <c r="B414" s="18"/>
       <c r="C414" s="18"/>
@@ -15104,7 +15104,7 @@
       <c r="Z414" s="18"/>
       <c r="AA414" s="18"/>
     </row>
-    <row r="415" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="18"/>
       <c r="B415" s="18"/>
       <c r="C415" s="18"/>
@@ -15133,7 +15133,7 @@
       <c r="Z415" s="18"/>
       <c r="AA415" s="18"/>
     </row>
-    <row r="416" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="18"/>
       <c r="B416" s="18"/>
       <c r="C416" s="18"/>
@@ -15162,7 +15162,7 @@
       <c r="Z416" s="18"/>
       <c r="AA416" s="18"/>
     </row>
-    <row r="417" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="18"/>
       <c r="B417" s="18"/>
       <c r="C417" s="18"/>
@@ -15191,7 +15191,7 @@
       <c r="Z417" s="18"/>
       <c r="AA417" s="18"/>
     </row>
-    <row r="418" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="18"/>
       <c r="B418" s="18"/>
       <c r="C418" s="18"/>
@@ -15220,7 +15220,7 @@
       <c r="Z418" s="18"/>
       <c r="AA418" s="18"/>
     </row>
-    <row r="419" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="18"/>
       <c r="B419" s="18"/>
       <c r="C419" s="18"/>
@@ -15249,7 +15249,7 @@
       <c r="Z419" s="18"/>
       <c r="AA419" s="18"/>
     </row>
-    <row r="420" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="18"/>
       <c r="B420" s="18"/>
       <c r="C420" s="18"/>
@@ -15278,7 +15278,7 @@
       <c r="Z420" s="18"/>
       <c r="AA420" s="18"/>
     </row>
-    <row r="421" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="18"/>
       <c r="B421" s="18"/>
       <c r="C421" s="18"/>
@@ -15307,7 +15307,7 @@
       <c r="Z421" s="18"/>
       <c r="AA421" s="18"/>
     </row>
-    <row r="422" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="18"/>
       <c r="B422" s="18"/>
       <c r="C422" s="18"/>
@@ -15336,7 +15336,7 @@
       <c r="Z422" s="18"/>
       <c r="AA422" s="18"/>
     </row>
-    <row r="423" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="18"/>
       <c r="B423" s="18"/>
       <c r="C423" s="18"/>
@@ -15365,7 +15365,7 @@
       <c r="Z423" s="18"/>
       <c r="AA423" s="18"/>
     </row>
-    <row r="424" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="18"/>
       <c r="B424" s="18"/>
       <c r="C424" s="18"/>
@@ -15394,7 +15394,7 @@
       <c r="Z424" s="18"/>
       <c r="AA424" s="18"/>
     </row>
-    <row r="425" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="18"/>
       <c r="B425" s="18"/>
       <c r="C425" s="18"/>
@@ -15423,7 +15423,7 @@
       <c r="Z425" s="18"/>
       <c r="AA425" s="18"/>
     </row>
-    <row r="426" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="18"/>
       <c r="B426" s="18"/>
       <c r="C426" s="18"/>
@@ -15452,7 +15452,7 @@
       <c r="Z426" s="18"/>
       <c r="AA426" s="18"/>
     </row>
-    <row r="427" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="18"/>
       <c r="B427" s="18"/>
       <c r="C427" s="18"/>
@@ -15481,7 +15481,7 @@
       <c r="Z427" s="18"/>
       <c r="AA427" s="18"/>
     </row>
-    <row r="428" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="18"/>
       <c r="B428" s="18"/>
       <c r="C428" s="18"/>
@@ -15510,7 +15510,7 @@
       <c r="Z428" s="18"/>
       <c r="AA428" s="18"/>
     </row>
-    <row r="429" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="18"/>
       <c r="B429" s="18"/>
       <c r="C429" s="18"/>
@@ -15539,7 +15539,7 @@
       <c r="Z429" s="18"/>
       <c r="AA429" s="18"/>
     </row>
-    <row r="430" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="18"/>
       <c r="B430" s="18"/>
       <c r="C430" s="18"/>
@@ -15568,7 +15568,7 @@
       <c r="Z430" s="18"/>
       <c r="AA430" s="18"/>
     </row>
-    <row r="431" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="18"/>
       <c r="B431" s="18"/>
       <c r="C431" s="18"/>
@@ -15597,7 +15597,7 @@
       <c r="Z431" s="18"/>
       <c r="AA431" s="18"/>
     </row>
-    <row r="432" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="18"/>
       <c r="B432" s="18"/>
       <c r="C432" s="18"/>
@@ -15626,7 +15626,7 @@
       <c r="Z432" s="18"/>
       <c r="AA432" s="18"/>
     </row>
-    <row r="433" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="18"/>
       <c r="B433" s="18"/>
       <c r="C433" s="18"/>
@@ -15655,7 +15655,7 @@
       <c r="Z433" s="18"/>
       <c r="AA433" s="18"/>
     </row>
-    <row r="434" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="18"/>
       <c r="B434" s="18"/>
       <c r="C434" s="18"/>
@@ -15684,7 +15684,7 @@
       <c r="Z434" s="18"/>
       <c r="AA434" s="18"/>
     </row>
-    <row r="435" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="18"/>
       <c r="B435" s="18"/>
       <c r="C435" s="18"/>
@@ -15713,7 +15713,7 @@
       <c r="Z435" s="18"/>
       <c r="AA435" s="18"/>
     </row>
-    <row r="436" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="18"/>
       <c r="B436" s="18"/>
       <c r="C436" s="18"/>
@@ -15742,7 +15742,7 @@
       <c r="Z436" s="18"/>
       <c r="AA436" s="18"/>
     </row>
-    <row r="437" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="18"/>
       <c r="B437" s="18"/>
       <c r="C437" s="18"/>
@@ -15771,7 +15771,7 @@
       <c r="Z437" s="18"/>
       <c r="AA437" s="18"/>
     </row>
-    <row r="438" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="18"/>
       <c r="B438" s="18"/>
       <c r="C438" s="18"/>
@@ -15800,7 +15800,7 @@
       <c r="Z438" s="18"/>
       <c r="AA438" s="18"/>
     </row>
-    <row r="439" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="18"/>
       <c r="B439" s="18"/>
       <c r="C439" s="18"/>
@@ -15829,7 +15829,7 @@
       <c r="Z439" s="18"/>
       <c r="AA439" s="18"/>
     </row>
-    <row r="440" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="18"/>
       <c r="B440" s="18"/>
       <c r="C440" s="18"/>
@@ -15858,7 +15858,7 @@
       <c r="Z440" s="18"/>
       <c r="AA440" s="18"/>
     </row>
-    <row r="441" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="18"/>
       <c r="B441" s="18"/>
       <c r="C441" s="18"/>
@@ -15887,7 +15887,7 @@
       <c r="Z441" s="18"/>
       <c r="AA441" s="18"/>
     </row>
-    <row r="442" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="18"/>
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
@@ -15916,7 +15916,7 @@
       <c r="Z442" s="18"/>
       <c r="AA442" s="18"/>
     </row>
-    <row r="443" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="18"/>
       <c r="B443" s="18"/>
       <c r="C443" s="18"/>
@@ -15945,7 +15945,7 @@
       <c r="Z443" s="18"/>
       <c r="AA443" s="18"/>
     </row>
-    <row r="444" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="18"/>
       <c r="B444" s="18"/>
       <c r="C444" s="18"/>
@@ -15974,7 +15974,7 @@
       <c r="Z444" s="18"/>
       <c r="AA444" s="18"/>
     </row>
-    <row r="445" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="18"/>
       <c r="B445" s="18"/>
       <c r="C445" s="18"/>
@@ -16003,7 +16003,7 @@
       <c r="Z445" s="18"/>
       <c r="AA445" s="18"/>
     </row>
-    <row r="446" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="18"/>
       <c r="B446" s="18"/>
       <c r="C446" s="18"/>
@@ -16032,7 +16032,7 @@
       <c r="Z446" s="18"/>
       <c r="AA446" s="18"/>
     </row>
-    <row r="447" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="18"/>
       <c r="B447" s="18"/>
       <c r="C447" s="18"/>
@@ -16061,7 +16061,7 @@
       <c r="Z447" s="18"/>
       <c r="AA447" s="18"/>
     </row>
-    <row r="448" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="18"/>
       <c r="B448" s="18"/>
       <c r="C448" s="18"/>
@@ -16090,7 +16090,7 @@
       <c r="Z448" s="18"/>
       <c r="AA448" s="18"/>
     </row>
-    <row r="449" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="18"/>
       <c r="B449" s="18"/>
       <c r="C449" s="18"/>
@@ -16119,7 +16119,7 @@
       <c r="Z449" s="18"/>
       <c r="AA449" s="18"/>
     </row>
-    <row r="450" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="18"/>
       <c r="B450" s="18"/>
       <c r="C450" s="18"/>
@@ -16148,7 +16148,7 @@
       <c r="Z450" s="18"/>
       <c r="AA450" s="18"/>
     </row>
-    <row r="451" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="18"/>
       <c r="B451" s="18"/>
       <c r="C451" s="18"/>
@@ -16177,7 +16177,7 @@
       <c r="Z451" s="18"/>
       <c r="AA451" s="18"/>
     </row>
-    <row r="452" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="18"/>
       <c r="B452" s="18"/>
       <c r="C452" s="18"/>
@@ -16206,7 +16206,7 @@
       <c r="Z452" s="18"/>
       <c r="AA452" s="18"/>
     </row>
-    <row r="453" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="18"/>
       <c r="B453" s="18"/>
       <c r="C453" s="18"/>
@@ -16235,7 +16235,7 @@
       <c r="Z453" s="18"/>
       <c r="AA453" s="18"/>
     </row>
-    <row r="454" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="18"/>
       <c r="B454" s="18"/>
       <c r="C454" s="18"/>
@@ -16264,7 +16264,7 @@
       <c r="Z454" s="18"/>
       <c r="AA454" s="18"/>
     </row>
-    <row r="455" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="18"/>
       <c r="B455" s="18"/>
       <c r="C455" s="18"/>
@@ -16293,7 +16293,7 @@
       <c r="Z455" s="18"/>
       <c r="AA455" s="18"/>
     </row>
-    <row r="456" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="18"/>
       <c r="B456" s="18"/>
       <c r="C456" s="18"/>
@@ -16322,7 +16322,7 @@
       <c r="Z456" s="18"/>
       <c r="AA456" s="18"/>
     </row>
-    <row r="457" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="18"/>
       <c r="B457" s="18"/>
       <c r="C457" s="18"/>
@@ -16351,7 +16351,7 @@
       <c r="Z457" s="18"/>
       <c r="AA457" s="18"/>
     </row>
-    <row r="458" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="18"/>
       <c r="B458" s="18"/>
       <c r="C458" s="18"/>
@@ -16380,7 +16380,7 @@
       <c r="Z458" s="18"/>
       <c r="AA458" s="18"/>
     </row>
-    <row r="459" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="18"/>
       <c r="B459" s="18"/>
       <c r="C459" s="18"/>
@@ -16409,7 +16409,7 @@
       <c r="Z459" s="18"/>
       <c r="AA459" s="18"/>
     </row>
-    <row r="460" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="18"/>
       <c r="B460" s="18"/>
       <c r="C460" s="18"/>
@@ -16438,7 +16438,7 @@
       <c r="Z460" s="18"/>
       <c r="AA460" s="18"/>
     </row>
-    <row r="461" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="18"/>
       <c r="B461" s="18"/>
       <c r="C461" s="18"/>
@@ -16467,7 +16467,7 @@
       <c r="Z461" s="18"/>
       <c r="AA461" s="18"/>
     </row>
-    <row r="462" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="18"/>
       <c r="B462" s="18"/>
       <c r="C462" s="18"/>
@@ -16496,7 +16496,7 @@
       <c r="Z462" s="18"/>
       <c r="AA462" s="18"/>
     </row>
-    <row r="463" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="18"/>
       <c r="B463" s="18"/>
       <c r="C463" s="18"/>
@@ -16525,7 +16525,7 @@
       <c r="Z463" s="18"/>
       <c r="AA463" s="18"/>
     </row>
-    <row r="464" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="18"/>
       <c r="B464" s="18"/>
       <c r="C464" s="18"/>
@@ -16554,7 +16554,7 @@
       <c r="Z464" s="18"/>
       <c r="AA464" s="18"/>
     </row>
-    <row r="465" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="18"/>
       <c r="B465" s="18"/>
       <c r="C465" s="18"/>
@@ -16583,7 +16583,7 @@
       <c r="Z465" s="18"/>
       <c r="AA465" s="18"/>
     </row>
-    <row r="466" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="18"/>
       <c r="B466" s="18"/>
       <c r="C466" s="18"/>
@@ -16612,7 +16612,7 @@
       <c r="Z466" s="18"/>
       <c r="AA466" s="18"/>
     </row>
-    <row r="467" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="18"/>
       <c r="B467" s="18"/>
       <c r="C467" s="18"/>
@@ -16641,7 +16641,7 @@
       <c r="Z467" s="18"/>
       <c r="AA467" s="18"/>
     </row>
-    <row r="468" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="18"/>
       <c r="B468" s="18"/>
       <c r="C468" s="18"/>
@@ -16670,7 +16670,7 @@
       <c r="Z468" s="18"/>
       <c r="AA468" s="18"/>
     </row>
-    <row r="469" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="18"/>
       <c r="B469" s="18"/>
       <c r="C469" s="18"/>
@@ -16699,7 +16699,7 @@
       <c r="Z469" s="18"/>
       <c r="AA469" s="18"/>
     </row>
-    <row r="470" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="18"/>
       <c r="B470" s="18"/>
       <c r="C470" s="18"/>
@@ -16728,7 +16728,7 @@
       <c r="Z470" s="18"/>
       <c r="AA470" s="18"/>
     </row>
-    <row r="471" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="18"/>
       <c r="B471" s="18"/>
       <c r="C471" s="18"/>
@@ -16757,7 +16757,7 @@
       <c r="Z471" s="18"/>
       <c r="AA471" s="18"/>
     </row>
-    <row r="472" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="18"/>
       <c r="B472" s="18"/>
       <c r="C472" s="18"/>
@@ -16786,7 +16786,7 @@
       <c r="Z472" s="18"/>
       <c r="AA472" s="18"/>
     </row>
-    <row r="473" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="18"/>
       <c r="B473" s="18"/>
       <c r="C473" s="18"/>
@@ -16815,7 +16815,7 @@
       <c r="Z473" s="18"/>
       <c r="AA473" s="18"/>
     </row>
-    <row r="474" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="18"/>
       <c r="B474" s="18"/>
       <c r="C474" s="18"/>
@@ -16844,7 +16844,7 @@
       <c r="Z474" s="18"/>
       <c r="AA474" s="18"/>
     </row>
-    <row r="475" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
       <c r="C475" s="18"/>
@@ -16873,7 +16873,7 @@
       <c r="Z475" s="18"/>
       <c r="AA475" s="18"/>
     </row>
-    <row r="476" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="18"/>
       <c r="B476" s="18"/>
       <c r="C476" s="18"/>
@@ -16902,7 +16902,7 @@
       <c r="Z476" s="18"/>
       <c r="AA476" s="18"/>
     </row>
-    <row r="477" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="18"/>
       <c r="B477" s="18"/>
       <c r="C477" s="18"/>
@@ -16931,7 +16931,7 @@
       <c r="Z477" s="18"/>
       <c r="AA477" s="18"/>
     </row>
-    <row r="478" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="18"/>
       <c r="B478" s="18"/>
       <c r="C478" s="18"/>
@@ -16960,7 +16960,7 @@
       <c r="Z478" s="18"/>
       <c r="AA478" s="18"/>
     </row>
-    <row r="479" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="18"/>
       <c r="B479" s="18"/>
       <c r="C479" s="18"/>
@@ -16989,7 +16989,7 @@
       <c r="Z479" s="18"/>
       <c r="AA479" s="18"/>
     </row>
-    <row r="480" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="18"/>
       <c r="B480" s="18"/>
       <c r="C480" s="18"/>
@@ -17018,7 +17018,7 @@
       <c r="Z480" s="18"/>
       <c r="AA480" s="18"/>
     </row>
-    <row r="481" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="18"/>
       <c r="B481" s="18"/>
       <c r="C481" s="18"/>
@@ -17047,7 +17047,7 @@
       <c r="Z481" s="18"/>
       <c r="AA481" s="18"/>
     </row>
-    <row r="482" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="18"/>
       <c r="B482" s="18"/>
       <c r="C482" s="18"/>
@@ -17076,7 +17076,7 @@
       <c r="Z482" s="18"/>
       <c r="AA482" s="18"/>
     </row>
-    <row r="483" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="18"/>
       <c r="B483" s="18"/>
       <c r="C483" s="18"/>
@@ -17105,7 +17105,7 @@
       <c r="Z483" s="18"/>
       <c r="AA483" s="18"/>
     </row>
-    <row r="484" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="18"/>
       <c r="B484" s="18"/>
       <c r="C484" s="18"/>
@@ -17134,7 +17134,7 @@
       <c r="Z484" s="18"/>
       <c r="AA484" s="18"/>
     </row>
-    <row r="485" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="18"/>
       <c r="B485" s="18"/>
       <c r="C485" s="18"/>
@@ -17163,7 +17163,7 @@
       <c r="Z485" s="18"/>
       <c r="AA485" s="18"/>
     </row>
-    <row r="486" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="18"/>
       <c r="B486" s="18"/>
       <c r="C486" s="18"/>
@@ -17192,7 +17192,7 @@
       <c r="Z486" s="18"/>
       <c r="AA486" s="18"/>
     </row>
-    <row r="487" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="18"/>
       <c r="B487" s="18"/>
       <c r="C487" s="18"/>
@@ -17221,7 +17221,7 @@
       <c r="Z487" s="18"/>
       <c r="AA487" s="18"/>
     </row>
-    <row r="488" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="18"/>
       <c r="B488" s="18"/>
       <c r="C488" s="18"/>
@@ -17250,7 +17250,7 @@
       <c r="Z488" s="18"/>
       <c r="AA488" s="18"/>
     </row>
-    <row r="489" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="18"/>
       <c r="B489" s="18"/>
       <c r="C489" s="18"/>
@@ -17279,7 +17279,7 @@
       <c r="Z489" s="18"/>
       <c r="AA489" s="18"/>
     </row>
-    <row r="490" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="18"/>
       <c r="B490" s="18"/>
       <c r="C490" s="18"/>
@@ -17308,7 +17308,7 @@
       <c r="Z490" s="18"/>
       <c r="AA490" s="18"/>
     </row>
-    <row r="491" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="18"/>
       <c r="B491" s="18"/>
       <c r="C491" s="18"/>
@@ -17337,7 +17337,7 @@
       <c r="Z491" s="18"/>
       <c r="AA491" s="18"/>
     </row>
-    <row r="492" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="18"/>
       <c r="B492" s="18"/>
       <c r="C492" s="18"/>
@@ -17366,7 +17366,7 @@
       <c r="Z492" s="18"/>
       <c r="AA492" s="18"/>
     </row>
-    <row r="493" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="18"/>
       <c r="B493" s="18"/>
       <c r="C493" s="18"/>
@@ -17395,7 +17395,7 @@
       <c r="Z493" s="18"/>
       <c r="AA493" s="18"/>
     </row>
-    <row r="494" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="18"/>
       <c r="B494" s="18"/>
       <c r="C494" s="18"/>
@@ -17424,7 +17424,7 @@
       <c r="Z494" s="18"/>
       <c r="AA494" s="18"/>
     </row>
-    <row r="495" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="18"/>
       <c r="B495" s="18"/>
       <c r="C495" s="18"/>
@@ -17453,7 +17453,7 @@
       <c r="Z495" s="18"/>
       <c r="AA495" s="18"/>
     </row>
-    <row r="496" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="18"/>
       <c r="B496" s="18"/>
       <c r="C496" s="18"/>
@@ -17482,7 +17482,7 @@
       <c r="Z496" s="18"/>
       <c r="AA496" s="18"/>
     </row>
-    <row r="497" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="18"/>
       <c r="B497" s="18"/>
       <c r="C497" s="18"/>
@@ -17511,7 +17511,7 @@
       <c r="Z497" s="18"/>
       <c r="AA497" s="18"/>
     </row>
-    <row r="498" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="18"/>
       <c r="B498" s="18"/>
       <c r="C498" s="18"/>
@@ -17540,7 +17540,7 @@
       <c r="Z498" s="18"/>
       <c r="AA498" s="18"/>
     </row>
-    <row r="499" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="18"/>
       <c r="B499" s="18"/>
       <c r="C499" s="18"/>
@@ -17569,7 +17569,7 @@
       <c r="Z499" s="18"/>
       <c r="AA499" s="18"/>
     </row>
-    <row r="500" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="18"/>
       <c r="B500" s="18"/>
       <c r="C500" s="18"/>
@@ -17598,7 +17598,7 @@
       <c r="Z500" s="18"/>
       <c r="AA500" s="18"/>
     </row>
-    <row r="501" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="18"/>
       <c r="B501" s="18"/>
       <c r="C501" s="18"/>
@@ -17627,7 +17627,7 @@
       <c r="Z501" s="18"/>
       <c r="AA501" s="18"/>
     </row>
-    <row r="502" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="18"/>
       <c r="B502" s="18"/>
       <c r="C502" s="18"/>
@@ -17656,7 +17656,7 @@
       <c r="Z502" s="18"/>
       <c r="AA502" s="18"/>
     </row>
-    <row r="503" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="18"/>
       <c r="B503" s="18"/>
       <c r="C503" s="18"/>
@@ -17685,7 +17685,7 @@
       <c r="Z503" s="18"/>
       <c r="AA503" s="18"/>
     </row>
-    <row r="504" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="18"/>
       <c r="B504" s="18"/>
       <c r="C504" s="18"/>
@@ -17714,7 +17714,7 @@
       <c r="Z504" s="18"/>
       <c r="AA504" s="18"/>
     </row>
-    <row r="505" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="18"/>
       <c r="B505" s="18"/>
       <c r="C505" s="18"/>
@@ -17743,7 +17743,7 @@
       <c r="Z505" s="18"/>
       <c r="AA505" s="18"/>
     </row>
-    <row r="506" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="18"/>
       <c r="B506" s="18"/>
       <c r="C506" s="18"/>
@@ -17772,7 +17772,7 @@
       <c r="Z506" s="18"/>
       <c r="AA506" s="18"/>
     </row>
-    <row r="507" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="18"/>
       <c r="B507" s="18"/>
       <c r="C507" s="18"/>
@@ -17801,7 +17801,7 @@
       <c r="Z507" s="18"/>
       <c r="AA507" s="18"/>
     </row>
-    <row r="508" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="18"/>
       <c r="B508" s="18"/>
       <c r="C508" s="18"/>
@@ -17830,7 +17830,7 @@
       <c r="Z508" s="18"/>
       <c r="AA508" s="18"/>
     </row>
-    <row r="509" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="18"/>
       <c r="B509" s="18"/>
       <c r="C509" s="18"/>
@@ -17859,7 +17859,7 @@
       <c r="Z509" s="18"/>
       <c r="AA509" s="18"/>
     </row>
-    <row r="510" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="18"/>
       <c r="B510" s="18"/>
       <c r="C510" s="18"/>
@@ -17888,7 +17888,7 @@
       <c r="Z510" s="18"/>
       <c r="AA510" s="18"/>
     </row>
-    <row r="511" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="18"/>
       <c r="B511" s="18"/>
       <c r="C511" s="18"/>
@@ -17917,7 +17917,7 @@
       <c r="Z511" s="18"/>
       <c r="AA511" s="18"/>
     </row>
-    <row r="512" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="18"/>
       <c r="B512" s="18"/>
       <c r="C512" s="18"/>
@@ -17946,7 +17946,7 @@
       <c r="Z512" s="18"/>
       <c r="AA512" s="18"/>
     </row>
-    <row r="513" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="18"/>
       <c r="B513" s="18"/>
       <c r="C513" s="18"/>
@@ -17975,7 +17975,7 @@
       <c r="Z513" s="18"/>
       <c r="AA513" s="18"/>
     </row>
-    <row r="514" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="18"/>
       <c r="B514" s="18"/>
       <c r="C514" s="18"/>
@@ -18004,7 +18004,7 @@
       <c r="Z514" s="18"/>
       <c r="AA514" s="18"/>
     </row>
-    <row r="515" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="18"/>
       <c r="B515" s="18"/>
       <c r="C515" s="18"/>
@@ -18033,7 +18033,7 @@
       <c r="Z515" s="18"/>
       <c r="AA515" s="18"/>
     </row>
-    <row r="516" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="18"/>
       <c r="B516" s="18"/>
       <c r="C516" s="18"/>
@@ -18062,7 +18062,7 @@
       <c r="Z516" s="18"/>
       <c r="AA516" s="18"/>
     </row>
-    <row r="517" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="18"/>
       <c r="B517" s="18"/>
       <c r="C517" s="18"/>
@@ -18091,7 +18091,7 @@
       <c r="Z517" s="18"/>
       <c r="AA517" s="18"/>
     </row>
-    <row r="518" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="18"/>
       <c r="B518" s="18"/>
       <c r="C518" s="18"/>
@@ -18120,7 +18120,7 @@
       <c r="Z518" s="18"/>
       <c r="AA518" s="18"/>
     </row>
-    <row r="519" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="18"/>
       <c r="B519" s="18"/>
       <c r="C519" s="18"/>
@@ -18149,7 +18149,7 @@
       <c r="Z519" s="18"/>
       <c r="AA519" s="18"/>
     </row>
-    <row r="520" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="18"/>
       <c r="B520" s="18"/>
       <c r="C520" s="18"/>
@@ -18178,7 +18178,7 @@
       <c r="Z520" s="18"/>
       <c r="AA520" s="18"/>
     </row>
-    <row r="521" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="18"/>
       <c r="B521" s="18"/>
       <c r="C521" s="18"/>
@@ -18207,7 +18207,7 @@
       <c r="Z521" s="18"/>
       <c r="AA521" s="18"/>
     </row>
-    <row r="522" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="18"/>
       <c r="B522" s="18"/>
       <c r="C522" s="18"/>
@@ -18236,7 +18236,7 @@
       <c r="Z522" s="18"/>
       <c r="AA522" s="18"/>
     </row>
-    <row r="523" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="18"/>
       <c r="B523" s="18"/>
       <c r="C523" s="18"/>
@@ -18265,7 +18265,7 @@
       <c r="Z523" s="18"/>
       <c r="AA523" s="18"/>
     </row>
-    <row r="524" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="18"/>
       <c r="B524" s="18"/>
       <c r="C524" s="18"/>
@@ -18294,7 +18294,7 @@
       <c r="Z524" s="18"/>
       <c r="AA524" s="18"/>
     </row>
-    <row r="525" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="18"/>
       <c r="B525" s="18"/>
       <c r="C525" s="18"/>
@@ -18323,7 +18323,7 @@
       <c r="Z525" s="18"/>
       <c r="AA525" s="18"/>
     </row>
-    <row r="526" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="18"/>
       <c r="B526" s="18"/>
       <c r="C526" s="18"/>
@@ -18352,7 +18352,7 @@
       <c r="Z526" s="18"/>
       <c r="AA526" s="18"/>
     </row>
-    <row r="527" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="18"/>
       <c r="B527" s="18"/>
       <c r="C527" s="18"/>
@@ -18381,7 +18381,7 @@
       <c r="Z527" s="18"/>
       <c r="AA527" s="18"/>
     </row>
-    <row r="528" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="18"/>
       <c r="B528" s="18"/>
       <c r="C528" s="18"/>
@@ -18410,7 +18410,7 @@
       <c r="Z528" s="18"/>
       <c r="AA528" s="18"/>
     </row>
-    <row r="529" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="18"/>
       <c r="B529" s="18"/>
       <c r="C529" s="18"/>
@@ -18439,7 +18439,7 @@
       <c r="Z529" s="18"/>
       <c r="AA529" s="18"/>
     </row>
-    <row r="530" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="18"/>
       <c r="B530" s="18"/>
       <c r="C530" s="18"/>
@@ -18468,7 +18468,7 @@
       <c r="Z530" s="18"/>
       <c r="AA530" s="18"/>
     </row>
-    <row r="531" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="18"/>
       <c r="B531" s="18"/>
       <c r="C531" s="18"/>
@@ -18497,7 +18497,7 @@
       <c r="Z531" s="18"/>
       <c r="AA531" s="18"/>
     </row>
-    <row r="532" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="18"/>
       <c r="B532" s="18"/>
       <c r="C532" s="18"/>
@@ -18526,7 +18526,7 @@
       <c r="Z532" s="18"/>
       <c r="AA532" s="18"/>
     </row>
-    <row r="533" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="18"/>
       <c r="B533" s="18"/>
       <c r="C533" s="18"/>
@@ -18555,7 +18555,7 @@
       <c r="Z533" s="18"/>
       <c r="AA533" s="18"/>
     </row>
-    <row r="534" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="18"/>
       <c r="B534" s="18"/>
       <c r="C534" s="18"/>
@@ -18584,7 +18584,7 @@
       <c r="Z534" s="18"/>
       <c r="AA534" s="18"/>
     </row>
-    <row r="535" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="18"/>
       <c r="B535" s="18"/>
       <c r="C535" s="18"/>
@@ -18613,7 +18613,7 @@
       <c r="Z535" s="18"/>
       <c r="AA535" s="18"/>
     </row>
-    <row r="536" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="18"/>
       <c r="B536" s="18"/>
       <c r="C536" s="18"/>
@@ -18642,7 +18642,7 @@
       <c r="Z536" s="18"/>
       <c r="AA536" s="18"/>
     </row>
-    <row r="537" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="18"/>
       <c r="B537" s="18"/>
       <c r="C537" s="18"/>
@@ -18671,7 +18671,7 @@
       <c r="Z537" s="18"/>
       <c r="AA537" s="18"/>
     </row>
-    <row r="538" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="18"/>
       <c r="B538" s="18"/>
       <c r="C538" s="18"/>
@@ -18700,7 +18700,7 @@
       <c r="Z538" s="18"/>
       <c r="AA538" s="18"/>
     </row>
-    <row r="539" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="18"/>
       <c r="B539" s="18"/>
       <c r="C539" s="18"/>
@@ -18729,7 +18729,7 @@
       <c r="Z539" s="18"/>
       <c r="AA539" s="18"/>
     </row>
-    <row r="540" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="18"/>
       <c r="B540" s="18"/>
       <c r="C540" s="18"/>
@@ -18758,7 +18758,7 @@
       <c r="Z540" s="18"/>
       <c r="AA540" s="18"/>
     </row>
-    <row r="541" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="18"/>
       <c r="B541" s="18"/>
       <c r="C541" s="18"/>
@@ -18787,7 +18787,7 @@
       <c r="Z541" s="18"/>
       <c r="AA541" s="18"/>
     </row>
-    <row r="542" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="18"/>
       <c r="B542" s="18"/>
       <c r="C542" s="18"/>
@@ -18816,7 +18816,7 @@
       <c r="Z542" s="18"/>
       <c r="AA542" s="18"/>
     </row>
-    <row r="543" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="18"/>
       <c r="B543" s="18"/>
       <c r="C543" s="18"/>
@@ -18845,7 +18845,7 @@
       <c r="Z543" s="18"/>
       <c r="AA543" s="18"/>
     </row>
-    <row r="544" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="18"/>
       <c r="B544" s="18"/>
       <c r="C544" s="18"/>
@@ -18874,7 +18874,7 @@
       <c r="Z544" s="18"/>
       <c r="AA544" s="18"/>
     </row>
-    <row r="545" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="18"/>
       <c r="B545" s="18"/>
       <c r="C545" s="18"/>
@@ -18903,7 +18903,7 @@
       <c r="Z545" s="18"/>
       <c r="AA545" s="18"/>
     </row>
-    <row r="546" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="18"/>
       <c r="B546" s="18"/>
       <c r="C546" s="18"/>
@@ -18932,7 +18932,7 @@
       <c r="Z546" s="18"/>
       <c r="AA546" s="18"/>
     </row>
-    <row r="547" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="18"/>
       <c r="B547" s="18"/>
       <c r="C547" s="18"/>
@@ -18961,7 +18961,7 @@
       <c r="Z547" s="18"/>
       <c r="AA547" s="18"/>
     </row>
-    <row r="548" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="18"/>
       <c r="B548" s="18"/>
       <c r="C548" s="18"/>
@@ -18990,7 +18990,7 @@
       <c r="Z548" s="18"/>
       <c r="AA548" s="18"/>
     </row>
-    <row r="549" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="18"/>
       <c r="B549" s="18"/>
       <c r="C549" s="18"/>
@@ -19019,7 +19019,7 @@
       <c r="Z549" s="18"/>
       <c r="AA549" s="18"/>
     </row>
-    <row r="550" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="18"/>
       <c r="B550" s="18"/>
       <c r="C550" s="18"/>
@@ -19048,7 +19048,7 @@
       <c r="Z550" s="18"/>
       <c r="AA550" s="18"/>
     </row>
-    <row r="551" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="18"/>
       <c r="B551" s="18"/>
       <c r="C551" s="18"/>
@@ -19077,7 +19077,7 @@
       <c r="Z551" s="18"/>
       <c r="AA551" s="18"/>
     </row>
-    <row r="552" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="18"/>
       <c r="B552" s="18"/>
       <c r="C552" s="18"/>
@@ -19106,7 +19106,7 @@
       <c r="Z552" s="18"/>
       <c r="AA552" s="18"/>
     </row>
-    <row r="553" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="18"/>
       <c r="B553" s="18"/>
       <c r="C553" s="18"/>
@@ -19135,7 +19135,7 @@
       <c r="Z553" s="18"/>
       <c r="AA553" s="18"/>
     </row>
-    <row r="554" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="18"/>
       <c r="B554" s="18"/>
       <c r="C554" s="18"/>
@@ -19164,7 +19164,7 @@
       <c r="Z554" s="18"/>
       <c r="AA554" s="18"/>
     </row>
-    <row r="555" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="18"/>
       <c r="B555" s="18"/>
       <c r="C555" s="18"/>
@@ -19193,7 +19193,7 @@
       <c r="Z555" s="18"/>
       <c r="AA555" s="18"/>
     </row>
-    <row r="556" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="18"/>
       <c r="B556" s="18"/>
       <c r="C556" s="18"/>
@@ -19222,7 +19222,7 @@
       <c r="Z556" s="18"/>
       <c r="AA556" s="18"/>
     </row>
-    <row r="557" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="18"/>
       <c r="B557" s="18"/>
       <c r="C557" s="18"/>
@@ -19251,7 +19251,7 @@
       <c r="Z557" s="18"/>
       <c r="AA557" s="18"/>
     </row>
-    <row r="558" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="18"/>
       <c r="B558" s="18"/>
       <c r="C558" s="18"/>
@@ -19280,7 +19280,7 @@
       <c r="Z558" s="18"/>
       <c r="AA558" s="18"/>
     </row>
-    <row r="559" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="18"/>
       <c r="B559" s="18"/>
       <c r="C559" s="18"/>
@@ -19309,7 +19309,7 @@
       <c r="Z559" s="18"/>
       <c r="AA559" s="18"/>
     </row>
-    <row r="560" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="18"/>
       <c r="B560" s="18"/>
       <c r="C560" s="18"/>
@@ -19338,7 +19338,7 @@
       <c r="Z560" s="18"/>
       <c r="AA560" s="18"/>
     </row>
-    <row r="561" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="18"/>
       <c r="B561" s="18"/>
       <c r="C561" s="18"/>
@@ -19367,7 +19367,7 @@
       <c r="Z561" s="18"/>
       <c r="AA561" s="18"/>
     </row>
-    <row r="562" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="18"/>
       <c r="B562" s="18"/>
       <c r="C562" s="18"/>
@@ -19396,7 +19396,7 @@
       <c r="Z562" s="18"/>
       <c r="AA562" s="18"/>
     </row>
-    <row r="563" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="18"/>
       <c r="B563" s="18"/>
       <c r="C563" s="18"/>
@@ -19425,7 +19425,7 @@
       <c r="Z563" s="18"/>
       <c r="AA563" s="18"/>
     </row>
-    <row r="564" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="18"/>
       <c r="B564" s="18"/>
       <c r="C564" s="18"/>
@@ -19454,7 +19454,7 @@
       <c r="Z564" s="18"/>
       <c r="AA564" s="18"/>
     </row>
-    <row r="565" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="18"/>
       <c r="B565" s="18"/>
       <c r="C565" s="18"/>
@@ -19483,7 +19483,7 @@
       <c r="Z565" s="18"/>
       <c r="AA565" s="18"/>
     </row>
-    <row r="566" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="18"/>
       <c r="B566" s="18"/>
       <c r="C566" s="18"/>
@@ -19512,7 +19512,7 @@
       <c r="Z566" s="18"/>
       <c r="AA566" s="18"/>
     </row>
-    <row r="567" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="18"/>
       <c r="B567" s="18"/>
       <c r="C567" s="18"/>
@@ -19541,7 +19541,7 @@
       <c r="Z567" s="18"/>
       <c r="AA567" s="18"/>
     </row>
-    <row r="568" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="18"/>
       <c r="B568" s="18"/>
       <c r="C568" s="18"/>
@@ -19570,7 +19570,7 @@
       <c r="Z568" s="18"/>
       <c r="AA568" s="18"/>
     </row>
-    <row r="569" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="18"/>
       <c r="B569" s="18"/>
       <c r="C569" s="18"/>
@@ -19599,7 +19599,7 @@
       <c r="Z569" s="18"/>
       <c r="AA569" s="18"/>
     </row>
-    <row r="570" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="18"/>
       <c r="B570" s="18"/>
       <c r="C570" s="18"/>
@@ -19628,7 +19628,7 @@
       <c r="Z570" s="18"/>
       <c r="AA570" s="18"/>
     </row>
-    <row r="571" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="18"/>
       <c r="B571" s="18"/>
       <c r="C571" s="18"/>
@@ -19657,7 +19657,7 @@
       <c r="Z571" s="18"/>
       <c r="AA571" s="18"/>
     </row>
-    <row r="572" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="18"/>
       <c r="B572" s="18"/>
       <c r="C572" s="18"/>
@@ -19686,7 +19686,7 @@
       <c r="Z572" s="18"/>
       <c r="AA572" s="18"/>
     </row>
-    <row r="573" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="18"/>
       <c r="B573" s="18"/>
       <c r="C573" s="18"/>
@@ -19715,7 +19715,7 @@
       <c r="Z573" s="18"/>
       <c r="AA573" s="18"/>
     </row>
-    <row r="574" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="18"/>
       <c r="B574" s="18"/>
       <c r="C574" s="18"/>
@@ -19744,7 +19744,7 @@
       <c r="Z574" s="18"/>
       <c r="AA574" s="18"/>
     </row>
-    <row r="575" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="18"/>
       <c r="B575" s="18"/>
       <c r="C575" s="18"/>
@@ -19773,7 +19773,7 @@
       <c r="Z575" s="18"/>
       <c r="AA575" s="18"/>
     </row>
-    <row r="576" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="18"/>
       <c r="B576" s="18"/>
       <c r="C576" s="18"/>
@@ -19802,7 +19802,7 @@
       <c r="Z576" s="18"/>
       <c r="AA576" s="18"/>
     </row>
-    <row r="577" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="18"/>
       <c r="B577" s="18"/>
       <c r="C577" s="18"/>
@@ -19831,7 +19831,7 @@
       <c r="Z577" s="18"/>
       <c r="AA577" s="18"/>
     </row>
-    <row r="578" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="18"/>
       <c r="B578" s="18"/>
       <c r="C578" s="18"/>
@@ -19860,7 +19860,7 @@
       <c r="Z578" s="18"/>
       <c r="AA578" s="18"/>
     </row>
-    <row r="579" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="18"/>
       <c r="B579" s="18"/>
       <c r="C579" s="18"/>
@@ -19889,7 +19889,7 @@
       <c r="Z579" s="18"/>
       <c r="AA579" s="18"/>
     </row>
-    <row r="580" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="18"/>
       <c r="B580" s="18"/>
       <c r="C580" s="18"/>
@@ -19918,7 +19918,7 @@
       <c r="Z580" s="18"/>
       <c r="AA580" s="18"/>
     </row>
-    <row r="581" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="18"/>
       <c r="B581" s="18"/>
       <c r="C581" s="18"/>
@@ -19947,7 +19947,7 @@
       <c r="Z581" s="18"/>
       <c r="AA581" s="18"/>
     </row>
-    <row r="582" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="18"/>
       <c r="B582" s="18"/>
       <c r="C582" s="18"/>
@@ -19976,7 +19976,7 @@
       <c r="Z582" s="18"/>
       <c r="AA582" s="18"/>
     </row>
-    <row r="583" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="18"/>
       <c r="B583" s="18"/>
       <c r="C583" s="18"/>
@@ -20005,7 +20005,7 @@
       <c r="Z583" s="18"/>
       <c r="AA583" s="18"/>
     </row>
-    <row r="584" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="18"/>
       <c r="B584" s="18"/>
       <c r="C584" s="18"/>
@@ -20034,7 +20034,7 @@
       <c r="Z584" s="18"/>
       <c r="AA584" s="18"/>
     </row>
-    <row r="585" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="18"/>
       <c r="B585" s="18"/>
       <c r="C585" s="18"/>
@@ -20063,7 +20063,7 @@
       <c r="Z585" s="18"/>
       <c r="AA585" s="18"/>
     </row>
-    <row r="586" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="18"/>
       <c r="B586" s="18"/>
       <c r="C586" s="18"/>
@@ -20092,7 +20092,7 @@
       <c r="Z586" s="18"/>
       <c r="AA586" s="18"/>
     </row>
-    <row r="587" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="18"/>
       <c r="B587" s="18"/>
       <c r="C587" s="18"/>
@@ -20121,7 +20121,7 @@
       <c r="Z587" s="18"/>
       <c r="AA587" s="18"/>
     </row>
-    <row r="588" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="18"/>
       <c r="B588" s="18"/>
       <c r="C588" s="18"/>
@@ -20150,7 +20150,7 @@
       <c r="Z588" s="18"/>
       <c r="AA588" s="18"/>
     </row>
-    <row r="589" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="18"/>
       <c r="B589" s="18"/>
       <c r="C589" s="18"/>
@@ -20179,7 +20179,7 @@
       <c r="Z589" s="18"/>
       <c r="AA589" s="18"/>
     </row>
-    <row r="590" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="18"/>
       <c r="B590" s="18"/>
       <c r="C590" s="18"/>
@@ -20208,7 +20208,7 @@
       <c r="Z590" s="18"/>
       <c r="AA590" s="18"/>
     </row>
-    <row r="591" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="18"/>
       <c r="B591" s="18"/>
       <c r="C591" s="18"/>
@@ -20237,7 +20237,7 @@
       <c r="Z591" s="18"/>
       <c r="AA591" s="18"/>
     </row>
-    <row r="592" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="18"/>
       <c r="B592" s="18"/>
       <c r="C592" s="18"/>
@@ -20266,7 +20266,7 @@
       <c r="Z592" s="18"/>
       <c r="AA592" s="18"/>
     </row>
-    <row r="593" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="18"/>
       <c r="B593" s="18"/>
       <c r="C593" s="18"/>
@@ -20295,7 +20295,7 @@
       <c r="Z593" s="18"/>
       <c r="AA593" s="18"/>
     </row>
-    <row r="594" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="18"/>
       <c r="B594" s="18"/>
       <c r="C594" s="18"/>
@@ -20324,7 +20324,7 @@
       <c r="Z594" s="18"/>
       <c r="AA594" s="18"/>
     </row>
-    <row r="595" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="18"/>
       <c r="B595" s="18"/>
       <c r="C595" s="18"/>
@@ -20353,7 +20353,7 @@
       <c r="Z595" s="18"/>
       <c r="AA595" s="18"/>
     </row>
-    <row r="596" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="18"/>
       <c r="B596" s="18"/>
       <c r="C596" s="18"/>
@@ -20382,7 +20382,7 @@
       <c r="Z596" s="18"/>
       <c r="AA596" s="18"/>
     </row>
-    <row r="597" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="18"/>
       <c r="B597" s="18"/>
       <c r="C597" s="18"/>
@@ -20411,7 +20411,7 @@
       <c r="Z597" s="18"/>
       <c r="AA597" s="18"/>
     </row>
-    <row r="598" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="18"/>
       <c r="B598" s="18"/>
       <c r="C598" s="18"/>
@@ -20440,7 +20440,7 @@
       <c r="Z598" s="18"/>
       <c r="AA598" s="18"/>
     </row>
-    <row r="599" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="18"/>
       <c r="B599" s="18"/>
       <c r="C599" s="18"/>
@@ -20469,7 +20469,7 @@
       <c r="Z599" s="18"/>
       <c r="AA599" s="18"/>
     </row>
-    <row r="600" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="18"/>
       <c r="B600" s="18"/>
       <c r="C600" s="18"/>
@@ -20498,7 +20498,7 @@
       <c r="Z600" s="18"/>
       <c r="AA600" s="18"/>
     </row>
-    <row r="601" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="18"/>
       <c r="B601" s="18"/>
       <c r="C601" s="18"/>
@@ -20527,7 +20527,7 @@
       <c r="Z601" s="18"/>
       <c r="AA601" s="18"/>
     </row>
-    <row r="602" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="18"/>
       <c r="B602" s="18"/>
       <c r="C602" s="18"/>
@@ -20556,7 +20556,7 @@
       <c r="Z602" s="18"/>
       <c r="AA602" s="18"/>
     </row>
-    <row r="603" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="18"/>
       <c r="B603" s="18"/>
       <c r="C603" s="18"/>
@@ -20585,7 +20585,7 @@
       <c r="Z603" s="18"/>
       <c r="AA603" s="18"/>
     </row>
-    <row r="604" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="18"/>
       <c r="B604" s="18"/>
       <c r="C604" s="18"/>
@@ -20614,7 +20614,7 @@
       <c r="Z604" s="18"/>
       <c r="AA604" s="18"/>
     </row>
-    <row r="605" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="18"/>
       <c r="B605" s="18"/>
       <c r="C605" s="18"/>
@@ -20643,7 +20643,7 @@
       <c r="Z605" s="18"/>
       <c r="AA605" s="18"/>
     </row>
-    <row r="606" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="18"/>
       <c r="B606" s="18"/>
       <c r="C606" s="18"/>
@@ -20672,7 +20672,7 @@
       <c r="Z606" s="18"/>
       <c r="AA606" s="18"/>
     </row>
-    <row r="607" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="18"/>
       <c r="B607" s="18"/>
       <c r="C607" s="18"/>
@@ -20701,7 +20701,7 @@
       <c r="Z607" s="18"/>
       <c r="AA607" s="18"/>
     </row>
-    <row r="608" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="18"/>
       <c r="B608" s="18"/>
       <c r="C608" s="18"/>
@@ -20730,7 +20730,7 @@
       <c r="Z608" s="18"/>
       <c r="AA608" s="18"/>
     </row>
-    <row r="609" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="18"/>
       <c r="B609" s="18"/>
       <c r="C609" s="18"/>
@@ -20759,7 +20759,7 @@
       <c r="Z609" s="18"/>
       <c r="AA609" s="18"/>
     </row>
-    <row r="610" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="18"/>
       <c r="B610" s="18"/>
       <c r="C610" s="18"/>
@@ -20788,7 +20788,7 @@
       <c r="Z610" s="18"/>
       <c r="AA610" s="18"/>
     </row>
-    <row r="611" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="18"/>
       <c r="B611" s="18"/>
       <c r="C611" s="18"/>
@@ -20817,7 +20817,7 @@
       <c r="Z611" s="18"/>
       <c r="AA611" s="18"/>
     </row>
-    <row r="612" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="18"/>
       <c r="B612" s="18"/>
       <c r="C612" s="18"/>
@@ -20846,7 +20846,7 @@
       <c r="Z612" s="18"/>
       <c r="AA612" s="18"/>
     </row>
-    <row r="613" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="18"/>
       <c r="B613" s="18"/>
       <c r="C613" s="18"/>
@@ -20875,7 +20875,7 @@
       <c r="Z613" s="18"/>
       <c r="AA613" s="18"/>
     </row>
-    <row r="614" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="18"/>
       <c r="B614" s="18"/>
       <c r="C614" s="18"/>
@@ -20904,7 +20904,7 @@
       <c r="Z614" s="18"/>
       <c r="AA614" s="18"/>
     </row>
-    <row r="615" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="18"/>
       <c r="B615" s="18"/>
       <c r="C615" s="18"/>
@@ -20933,7 +20933,7 @@
       <c r="Z615" s="18"/>
       <c r="AA615" s="18"/>
     </row>
-    <row r="616" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="18"/>
       <c r="B616" s="18"/>
       <c r="C616" s="18"/>
@@ -20962,7 +20962,7 @@
       <c r="Z616" s="18"/>
       <c r="AA616" s="18"/>
     </row>
-    <row r="617" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="18"/>
       <c r="B617" s="18"/>
       <c r="C617" s="18"/>
@@ -20991,7 +20991,7 @@
       <c r="Z617" s="18"/>
       <c r="AA617" s="18"/>
     </row>
-    <row r="618" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="18"/>
       <c r="B618" s="18"/>
       <c r="C618" s="18"/>
@@ -21020,7 +21020,7 @@
       <c r="Z618" s="18"/>
       <c r="AA618" s="18"/>
     </row>
-    <row r="619" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="18"/>
       <c r="B619" s="18"/>
       <c r="C619" s="18"/>
@@ -21049,7 +21049,7 @@
       <c r="Z619" s="18"/>
       <c r="AA619" s="18"/>
     </row>
-    <row r="620" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="18"/>
       <c r="B620" s="18"/>
       <c r="C620" s="18"/>
@@ -21078,7 +21078,7 @@
       <c r="Z620" s="18"/>
       <c r="AA620" s="18"/>
     </row>
-    <row r="621" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="18"/>
       <c r="B621" s="18"/>
       <c r="C621" s="18"/>
@@ -21107,7 +21107,7 @@
       <c r="Z621" s="18"/>
       <c r="AA621" s="18"/>
     </row>
-    <row r="622" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="18"/>
       <c r="B622" s="18"/>
       <c r="C622" s="18"/>
@@ -21136,7 +21136,7 @@
       <c r="Z622" s="18"/>
       <c r="AA622" s="18"/>
     </row>
-    <row r="623" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="18"/>
       <c r="B623" s="18"/>
       <c r="C623" s="18"/>
@@ -21165,7 +21165,7 @@
       <c r="Z623" s="18"/>
       <c r="AA623" s="18"/>
     </row>
-    <row r="624" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="18"/>
       <c r="B624" s="18"/>
       <c r="C624" s="18"/>
@@ -21194,7 +21194,7 @@
       <c r="Z624" s="18"/>
       <c r="AA624" s="18"/>
     </row>
-    <row r="625" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="18"/>
       <c r="B625" s="18"/>
       <c r="C625" s="18"/>
@@ -21223,7 +21223,7 @@
       <c r="Z625" s="18"/>
       <c r="AA625" s="18"/>
     </row>
-    <row r="626" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="18"/>
       <c r="B626" s="18"/>
       <c r="C626" s="18"/>
@@ -21252,7 +21252,7 @@
       <c r="Z626" s="18"/>
       <c r="AA626" s="18"/>
     </row>
-    <row r="627" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="18"/>
       <c r="B627" s="18"/>
       <c r="C627" s="18"/>
@@ -21281,7 +21281,7 @@
       <c r="Z627" s="18"/>
       <c r="AA627" s="18"/>
     </row>
-    <row r="628" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="18"/>
       <c r="B628" s="18"/>
       <c r="C628" s="18"/>
@@ -21310,7 +21310,7 @@
       <c r="Z628" s="18"/>
       <c r="AA628" s="18"/>
     </row>
-    <row r="629" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="18"/>
       <c r="B629" s="18"/>
       <c r="C629" s="18"/>
@@ -21339,7 +21339,7 @@
       <c r="Z629" s="18"/>
       <c r="AA629" s="18"/>
     </row>
-    <row r="630" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="18"/>
       <c r="B630" s="18"/>
       <c r="C630" s="18"/>
@@ -21368,7 +21368,7 @@
       <c r="Z630" s="18"/>
       <c r="AA630" s="18"/>
     </row>
-    <row r="631" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="18"/>
       <c r="B631" s="18"/>
       <c r="C631" s="18"/>
@@ -21397,7 +21397,7 @@
       <c r="Z631" s="18"/>
       <c r="AA631" s="18"/>
     </row>
-    <row r="632" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="18"/>
       <c r="B632" s="18"/>
       <c r="C632" s="18"/>
@@ -21426,7 +21426,7 @@
       <c r="Z632" s="18"/>
       <c r="AA632" s="18"/>
     </row>
-    <row r="633" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="18"/>
       <c r="B633" s="18"/>
       <c r="C633" s="18"/>
@@ -21455,7 +21455,7 @@
       <c r="Z633" s="18"/>
       <c r="AA633" s="18"/>
     </row>
-    <row r="634" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="18"/>
       <c r="B634" s="18"/>
       <c r="C634" s="18"/>
@@ -21484,7 +21484,7 @@
       <c r="Z634" s="18"/>
       <c r="AA634" s="18"/>
     </row>
-    <row r="635" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="18"/>
       <c r="B635" s="18"/>
       <c r="C635" s="18"/>
@@ -21513,7 +21513,7 @@
       <c r="Z635" s="18"/>
       <c r="AA635" s="18"/>
     </row>
-    <row r="636" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="18"/>
       <c r="B636" s="18"/>
       <c r="C636" s="18"/>
@@ -21542,7 +21542,7 @@
       <c r="Z636" s="18"/>
       <c r="AA636" s="18"/>
     </row>
-    <row r="637" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="18"/>
       <c r="B637" s="18"/>
       <c r="C637" s="18"/>
@@ -21571,7 +21571,7 @@
       <c r="Z637" s="18"/>
       <c r="AA637" s="18"/>
     </row>
-    <row r="638" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="18"/>
       <c r="B638" s="18"/>
       <c r="C638" s="18"/>
@@ -21600,7 +21600,7 @@
       <c r="Z638" s="18"/>
       <c r="AA638" s="18"/>
     </row>
-    <row r="639" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="18"/>
       <c r="B639" s="18"/>
       <c r="C639" s="18"/>
@@ -21629,7 +21629,7 @@
       <c r="Z639" s="18"/>
       <c r="AA639" s="18"/>
     </row>
-    <row r="640" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="18"/>
       <c r="B640" s="18"/>
       <c r="C640" s="18"/>
@@ -21658,7 +21658,7 @@
       <c r="Z640" s="18"/>
       <c r="AA640" s="18"/>
     </row>
-    <row r="641" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="18"/>
       <c r="B641" s="18"/>
       <c r="C641" s="18"/>
@@ -21687,7 +21687,7 @@
       <c r="Z641" s="18"/>
       <c r="AA641" s="18"/>
     </row>
-    <row r="642" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="18"/>
       <c r="B642" s="18"/>
       <c r="C642" s="18"/>
@@ -21716,7 +21716,7 @@
       <c r="Z642" s="18"/>
       <c r="AA642" s="18"/>
     </row>
-    <row r="643" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="18"/>
       <c r="B643" s="18"/>
       <c r="C643" s="18"/>
@@ -21745,7 +21745,7 @@
       <c r="Z643" s="18"/>
       <c r="AA643" s="18"/>
     </row>
-    <row r="644" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="18"/>
       <c r="B644" s="18"/>
       <c r="C644" s="18"/>
@@ -21774,7 +21774,7 @@
       <c r="Z644" s="18"/>
       <c r="AA644" s="18"/>
     </row>
-    <row r="645" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="18"/>
       <c r="B645" s="18"/>
       <c r="C645" s="18"/>
@@ -21803,7 +21803,7 @@
       <c r="Z645" s="18"/>
       <c r="AA645" s="18"/>
     </row>
-    <row r="646" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="18"/>
       <c r="B646" s="18"/>
       <c r="C646" s="18"/>
@@ -21832,7 +21832,7 @@
       <c r="Z646" s="18"/>
       <c r="AA646" s="18"/>
     </row>
-    <row r="647" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="18"/>
       <c r="B647" s="18"/>
       <c r="C647" s="18"/>
@@ -21861,7 +21861,7 @@
       <c r="Z647" s="18"/>
       <c r="AA647" s="18"/>
     </row>
-    <row r="648" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="18"/>
       <c r="B648" s="18"/>
       <c r="C648" s="18"/>
@@ -21890,7 +21890,7 @@
       <c r="Z648" s="18"/>
       <c r="AA648" s="18"/>
     </row>
-    <row r="649" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="18"/>
       <c r="B649" s="18"/>
       <c r="C649" s="18"/>
@@ -21919,7 +21919,7 @@
       <c r="Z649" s="18"/>
       <c r="AA649" s="18"/>
     </row>
-    <row r="650" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="18"/>
       <c r="B650" s="18"/>
       <c r="C650" s="18"/>
@@ -21948,7 +21948,7 @@
       <c r="Z650" s="18"/>
       <c r="AA650" s="18"/>
     </row>
-    <row r="651" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="18"/>
       <c r="B651" s="18"/>
       <c r="C651" s="18"/>
@@ -21977,7 +21977,7 @@
       <c r="Z651" s="18"/>
       <c r="AA651" s="18"/>
     </row>
-    <row r="652" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="18"/>
       <c r="B652" s="18"/>
       <c r="C652" s="18"/>
@@ -22006,7 +22006,7 @@
       <c r="Z652" s="18"/>
       <c r="AA652" s="18"/>
     </row>
-    <row r="653" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="18"/>
       <c r="B653" s="18"/>
       <c r="C653" s="18"/>
@@ -22035,7 +22035,7 @@
       <c r="Z653" s="18"/>
       <c r="AA653" s="18"/>
     </row>
-    <row r="654" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="18"/>
       <c r="B654" s="18"/>
       <c r="C654" s="18"/>
@@ -22064,7 +22064,7 @@
       <c r="Z654" s="18"/>
       <c r="AA654" s="18"/>
     </row>
-    <row r="655" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="18"/>
       <c r="B655" s="18"/>
       <c r="C655" s="18"/>
@@ -22093,7 +22093,7 @@
       <c r="Z655" s="18"/>
       <c r="AA655" s="18"/>
     </row>
-    <row r="656" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="18"/>
       <c r="B656" s="18"/>
       <c r="C656" s="18"/>
@@ -22122,7 +22122,7 @@
       <c r="Z656" s="18"/>
       <c r="AA656" s="18"/>
     </row>
-    <row r="657" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="18"/>
       <c r="B657" s="18"/>
       <c r="C657" s="18"/>
@@ -22151,7 +22151,7 @@
       <c r="Z657" s="18"/>
       <c r="AA657" s="18"/>
     </row>
-    <row r="658" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="18"/>
       <c r="B658" s="18"/>
       <c r="C658" s="18"/>
@@ -22180,7 +22180,7 @@
       <c r="Z658" s="18"/>
       <c r="AA658" s="18"/>
     </row>
-    <row r="659" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="18"/>
       <c r="B659" s="18"/>
       <c r="C659" s="18"/>
@@ -22209,7 +22209,7 @@
       <c r="Z659" s="18"/>
       <c r="AA659" s="18"/>
     </row>
-    <row r="660" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="18"/>
       <c r="B660" s="18"/>
       <c r="C660" s="18"/>
@@ -22238,7 +22238,7 @@
       <c r="Z660" s="18"/>
       <c r="AA660" s="18"/>
     </row>
-    <row r="661" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="18"/>
       <c r="B661" s="18"/>
       <c r="C661" s="18"/>
@@ -22267,7 +22267,7 @@
       <c r="Z661" s="18"/>
       <c r="AA661" s="18"/>
     </row>
-    <row r="662" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="18"/>
       <c r="B662" s="18"/>
       <c r="C662" s="18"/>
@@ -22296,7 +22296,7 @@
       <c r="Z662" s="18"/>
       <c r="AA662" s="18"/>
     </row>
-    <row r="663" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="18"/>
       <c r="B663" s="18"/>
       <c r="C663" s="18"/>
@@ -22325,7 +22325,7 @@
       <c r="Z663" s="18"/>
       <c r="AA663" s="18"/>
     </row>
-    <row r="664" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="18"/>
       <c r="B664" s="18"/>
       <c r="C664" s="18"/>
@@ -22354,7 +22354,7 @@
       <c r="Z664" s="18"/>
       <c r="AA664" s="18"/>
     </row>
-    <row r="665" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="18"/>
       <c r="B665" s="18"/>
       <c r="C665" s="18"/>
@@ -22383,7 +22383,7 @@
       <c r="Z665" s="18"/>
       <c r="AA665" s="18"/>
     </row>
-    <row r="666" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="18"/>
       <c r="B666" s="18"/>
       <c r="C666" s="18"/>
@@ -22412,7 +22412,7 @@
       <c r="Z666" s="18"/>
       <c r="AA666" s="18"/>
     </row>
-    <row r="667" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="18"/>
       <c r="B667" s="18"/>
       <c r="C667" s="18"/>
@@ -22441,7 +22441,7 @@
       <c r="Z667" s="18"/>
       <c r="AA667" s="18"/>
     </row>
-    <row r="668" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="18"/>
       <c r="B668" s="18"/>
       <c r="C668" s="18"/>
@@ -22470,7 +22470,7 @@
       <c r="Z668" s="18"/>
       <c r="AA668" s="18"/>
     </row>
-    <row r="669" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="18"/>
       <c r="B669" s="18"/>
       <c r="C669" s="18"/>
@@ -22499,7 +22499,7 @@
       <c r="Z669" s="18"/>
       <c r="AA669" s="18"/>
     </row>
-    <row r="670" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="18"/>
       <c r="B670" s="18"/>
       <c r="C670" s="18"/>
@@ -22528,7 +22528,7 @@
       <c r="Z670" s="18"/>
       <c r="AA670" s="18"/>
     </row>
-    <row r="671" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="18"/>
       <c r="B671" s="18"/>
       <c r="C671" s="18"/>
@@ -22557,7 +22557,7 @@
       <c r="Z671" s="18"/>
       <c r="AA671" s="18"/>
     </row>
-    <row r="672" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="18"/>
       <c r="B672" s="18"/>
       <c r="C672" s="18"/>
@@ -22586,7 +22586,7 @@
       <c r="Z672" s="18"/>
       <c r="AA672" s="18"/>
     </row>
-    <row r="673" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="18"/>
       <c r="B673" s="18"/>
       <c r="C673" s="18"/>
@@ -22615,7 +22615,7 @@
       <c r="Z673" s="18"/>
       <c r="AA673" s="18"/>
     </row>
-    <row r="674" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="18"/>
       <c r="B674" s="18"/>
       <c r="C674" s="18"/>
@@ -22644,7 +22644,7 @@
       <c r="Z674" s="18"/>
       <c r="AA674" s="18"/>
     </row>
-    <row r="675" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="18"/>
       <c r="B675" s="18"/>
       <c r="C675" s="18"/>
@@ -22673,7 +22673,7 @@
       <c r="Z675" s="18"/>
       <c r="AA675" s="18"/>
     </row>
-    <row r="676" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="18"/>
       <c r="B676" s="18"/>
       <c r="C676" s="18"/>
@@ -22702,7 +22702,7 @@
       <c r="Z676" s="18"/>
       <c r="AA676" s="18"/>
     </row>
-    <row r="677" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="18"/>
       <c r="B677" s="18"/>
       <c r="C677" s="18"/>
@@ -22731,7 +22731,7 @@
       <c r="Z677" s="18"/>
       <c r="AA677" s="18"/>
     </row>
-    <row r="678" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="18"/>
       <c r="B678" s="18"/>
       <c r="C678" s="18"/>
@@ -22760,7 +22760,7 @@
       <c r="Z678" s="18"/>
       <c r="AA678" s="18"/>
     </row>
-    <row r="679" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="18"/>
       <c r="B679" s="18"/>
       <c r="C679" s="18"/>
@@ -22789,7 +22789,7 @@
       <c r="Z679" s="18"/>
       <c r="AA679" s="18"/>
     </row>
-    <row r="680" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="18"/>
       <c r="B680" s="18"/>
       <c r="C680" s="18"/>
@@ -22818,7 +22818,7 @@
       <c r="Z680" s="18"/>
       <c r="AA680" s="18"/>
     </row>
-    <row r="681" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="18"/>
       <c r="B681" s="18"/>
       <c r="C681" s="18"/>
@@ -22847,7 +22847,7 @@
       <c r="Z681" s="18"/>
       <c r="AA681" s="18"/>
     </row>
-    <row r="682" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="18"/>
       <c r="B682" s="18"/>
       <c r="C682" s="18"/>
@@ -22876,7 +22876,7 @@
       <c r="Z682" s="18"/>
       <c r="AA682" s="18"/>
     </row>
-    <row r="683" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="18"/>
       <c r="B683" s="18"/>
       <c r="C683" s="18"/>
@@ -22905,7 +22905,7 @@
       <c r="Z683" s="18"/>
       <c r="AA683" s="18"/>
     </row>
-    <row r="684" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="18"/>
       <c r="B684" s="18"/>
       <c r="C684" s="18"/>
@@ -22934,7 +22934,7 @@
       <c r="Z684" s="18"/>
       <c r="AA684" s="18"/>
     </row>
-    <row r="685" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="18"/>
       <c r="B685" s="18"/>
       <c r="C685" s="18"/>
@@ -22963,7 +22963,7 @@
       <c r="Z685" s="18"/>
       <c r="AA685" s="18"/>
     </row>
-    <row r="686" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="18"/>
       <c r="B686" s="18"/>
       <c r="C686" s="18"/>
@@ -22992,7 +22992,7 @@
       <c r="Z686" s="18"/>
       <c r="AA686" s="18"/>
     </row>
-    <row r="687" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="18"/>
       <c r="B687" s="18"/>
       <c r="C687" s="18"/>
@@ -23021,7 +23021,7 @@
       <c r="Z687" s="18"/>
       <c r="AA687" s="18"/>
     </row>
-    <row r="688" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="18"/>
       <c r="B688" s="18"/>
       <c r="C688" s="18"/>
@@ -23050,7 +23050,7 @@
       <c r="Z688" s="18"/>
       <c r="AA688" s="18"/>
     </row>
-    <row r="689" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="18"/>
       <c r="B689" s="18"/>
       <c r="C689" s="18"/>
@@ -23079,7 +23079,7 @@
       <c r="Z689" s="18"/>
       <c r="AA689" s="18"/>
     </row>
-    <row r="690" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="18"/>
       <c r="B690" s="18"/>
       <c r="C690" s="18"/>
@@ -23108,7 +23108,7 @@
       <c r="Z690" s="18"/>
       <c r="AA690" s="18"/>
     </row>
-    <row r="691" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="18"/>
       <c r="B691" s="18"/>
       <c r="C691" s="18"/>
@@ -23137,7 +23137,7 @@
       <c r="Z691" s="18"/>
       <c r="AA691" s="18"/>
     </row>
-    <row r="692" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="18"/>
       <c r="B692" s="18"/>
       <c r="C692" s="18"/>
@@ -23166,7 +23166,7 @@
       <c r="Z692" s="18"/>
       <c r="AA692" s="18"/>
     </row>
-    <row r="693" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="18"/>
       <c r="B693" s="18"/>
       <c r="C693" s="18"/>
@@ -23195,7 +23195,7 @@
       <c r="Z693" s="18"/>
       <c r="AA693" s="18"/>
     </row>
-    <row r="694" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="18"/>
       <c r="B694" s="18"/>
       <c r="C694" s="18"/>
@@ -23224,7 +23224,7 @@
       <c r="Z694" s="18"/>
       <c r="AA694" s="18"/>
     </row>
-    <row r="695" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="18"/>
       <c r="B695" s="18"/>
       <c r="C695" s="18"/>
@@ -23253,7 +23253,7 @@
       <c r="Z695" s="18"/>
       <c r="AA695" s="18"/>
     </row>
-    <row r="696" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="18"/>
       <c r="B696" s="18"/>
       <c r="C696" s="18"/>
@@ -23282,7 +23282,7 @@
       <c r="Z696" s="18"/>
       <c r="AA696" s="18"/>
     </row>
-    <row r="697" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="18"/>
       <c r="B697" s="18"/>
       <c r="C697" s="18"/>
@@ -23311,7 +23311,7 @@
       <c r="Z697" s="18"/>
       <c r="AA697" s="18"/>
     </row>
-    <row r="698" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="18"/>
       <c r="B698" s="18"/>
       <c r="C698" s="18"/>
@@ -23340,7 +23340,7 @@
       <c r="Z698" s="18"/>
       <c r="AA698" s="18"/>
     </row>
-    <row r="699" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="18"/>
       <c r="B699" s="18"/>
       <c r="C699" s="18"/>
@@ -23369,7 +23369,7 @@
       <c r="Z699" s="18"/>
       <c r="AA699" s="18"/>
     </row>
-    <row r="700" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="18"/>
       <c r="B700" s="18"/>
       <c r="C700" s="18"/>
@@ -23398,7 +23398,7 @@
       <c r="Z700" s="18"/>
       <c r="AA700" s="18"/>
     </row>
-    <row r="701" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="18"/>
       <c r="B701" s="18"/>
       <c r="C701" s="18"/>
@@ -23427,7 +23427,7 @@
       <c r="Z701" s="18"/>
       <c r="AA701" s="18"/>
     </row>
-    <row r="702" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="18"/>
       <c r="B702" s="18"/>
       <c r="C702" s="18"/>
@@ -23456,7 +23456,7 @@
       <c r="Z702" s="18"/>
       <c r="AA702" s="18"/>
     </row>
-    <row r="703" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="18"/>
       <c r="B703" s="18"/>
       <c r="C703" s="18"/>
@@ -23485,7 +23485,7 @@
       <c r="Z703" s="18"/>
       <c r="AA703" s="18"/>
     </row>
-    <row r="704" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="18"/>
       <c r="B704" s="18"/>
       <c r="C704" s="18"/>
@@ -23514,7 +23514,7 @@
       <c r="Z704" s="18"/>
       <c r="AA704" s="18"/>
     </row>
-    <row r="705" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="18"/>
       <c r="B705" s="18"/>
       <c r="C705" s="18"/>
@@ -23543,7 +23543,7 @@
       <c r="Z705" s="18"/>
       <c r="AA705" s="18"/>
     </row>
-    <row r="706" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="18"/>
       <c r="B706" s="18"/>
       <c r="C706" s="18"/>
@@ -23572,7 +23572,7 @@
       <c r="Z706" s="18"/>
       <c r="AA706" s="18"/>
     </row>
-    <row r="707" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="18"/>
       <c r="B707" s="18"/>
       <c r="C707" s="18"/>
@@ -23601,7 +23601,7 @@
       <c r="Z707" s="18"/>
       <c r="AA707" s="18"/>
     </row>
-    <row r="708" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="18"/>
       <c r="B708" s="18"/>
       <c r="C708" s="18"/>
@@ -23630,7 +23630,7 @@
       <c r="Z708" s="18"/>
       <c r="AA708" s="18"/>
     </row>
-    <row r="709" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="18"/>
       <c r="B709" s="18"/>
       <c r="C709" s="18"/>
@@ -23659,7 +23659,7 @@
       <c r="Z709" s="18"/>
       <c r="AA709" s="18"/>
     </row>
-    <row r="710" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="18"/>
       <c r="B710" s="18"/>
       <c r="C710" s="18"/>
@@ -23688,7 +23688,7 @@
       <c r="Z710" s="18"/>
       <c r="AA710" s="18"/>
     </row>
-    <row r="711" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="18"/>
       <c r="B711" s="18"/>
       <c r="C711" s="18"/>
@@ -23717,7 +23717,7 @@
       <c r="Z711" s="18"/>
       <c r="AA711" s="18"/>
     </row>
-    <row r="712" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="18"/>
       <c r="B712" s="18"/>
       <c r="C712" s="18"/>
@@ -23746,7 +23746,7 @@
       <c r="Z712" s="18"/>
       <c r="AA712" s="18"/>
     </row>
-    <row r="713" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="18"/>
       <c r="B713" s="18"/>
       <c r="C713" s="18"/>
@@ -23775,7 +23775,7 @@
       <c r="Z713" s="18"/>
       <c r="AA713" s="18"/>
     </row>
-    <row r="714" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="18"/>
       <c r="B714" s="18"/>
       <c r="C714" s="18"/>
@@ -23804,7 +23804,7 @@
       <c r="Z714" s="18"/>
       <c r="AA714" s="18"/>
     </row>
-    <row r="715" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="18"/>
       <c r="B715" s="18"/>
       <c r="C715" s="18"/>
@@ -23833,7 +23833,7 @@
       <c r="Z715" s="18"/>
       <c r="AA715" s="18"/>
     </row>
-    <row r="716" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="18"/>
       <c r="B716" s="18"/>
       <c r="C716" s="18"/>
@@ -23862,7 +23862,7 @@
       <c r="Z716" s="18"/>
       <c r="AA716" s="18"/>
     </row>
-    <row r="717" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="18"/>
       <c r="B717" s="18"/>
       <c r="C717" s="18"/>
@@ -23891,7 +23891,7 @@
       <c r="Z717" s="18"/>
       <c r="AA717" s="18"/>
     </row>
-    <row r="718" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="18"/>
       <c r="B718" s="18"/>
       <c r="C718" s="18"/>
@@ -23920,7 +23920,7 @@
       <c r="Z718" s="18"/>
       <c r="AA718" s="18"/>
     </row>
-    <row r="719" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="18"/>
       <c r="B719" s="18"/>
       <c r="C719" s="18"/>
@@ -23949,7 +23949,7 @@
       <c r="Z719" s="18"/>
       <c r="AA719" s="18"/>
     </row>
-    <row r="720" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="18"/>
       <c r="B720" s="18"/>
       <c r="C720" s="18"/>
@@ -23978,7 +23978,7 @@
       <c r="Z720" s="18"/>
       <c r="AA720" s="18"/>
     </row>
-    <row r="721" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="18"/>
       <c r="B721" s="18"/>
       <c r="C721" s="18"/>
@@ -24007,7 +24007,7 @@
       <c r="Z721" s="18"/>
       <c r="AA721" s="18"/>
     </row>
-    <row r="722" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="18"/>
       <c r="B722" s="18"/>
       <c r="C722" s="18"/>
@@ -24036,7 +24036,7 @@
       <c r="Z722" s="18"/>
       <c r="AA722" s="18"/>
     </row>
-    <row r="723" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="18"/>
       <c r="B723" s="18"/>
       <c r="C723" s="18"/>
@@ -24065,7 +24065,7 @@
       <c r="Z723" s="18"/>
       <c r="AA723" s="18"/>
     </row>
-    <row r="724" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="18"/>
       <c r="B724" s="18"/>
       <c r="C724" s="18"/>
@@ -24094,7 +24094,7 @@
       <c r="Z724" s="18"/>
       <c r="AA724" s="18"/>
     </row>
-    <row r="725" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="18"/>
       <c r="B725" s="18"/>
       <c r="C725" s="18"/>
@@ -24123,7 +24123,7 @@
       <c r="Z725" s="18"/>
       <c r="AA725" s="18"/>
     </row>
-    <row r="726" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="18"/>
       <c r="B726" s="18"/>
       <c r="C726" s="18"/>
@@ -24152,7 +24152,7 @@
       <c r="Z726" s="18"/>
       <c r="AA726" s="18"/>
     </row>
-    <row r="727" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="18"/>
       <c r="B727" s="18"/>
       <c r="C727" s="18"/>
@@ -24181,7 +24181,7 @@
       <c r="Z727" s="18"/>
       <c r="AA727" s="18"/>
     </row>
-    <row r="728" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="18"/>
       <c r="B728" s="18"/>
       <c r="C728" s="18"/>
@@ -24210,7 +24210,7 @@
       <c r="Z728" s="18"/>
       <c r="AA728" s="18"/>
     </row>
-    <row r="729" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="18"/>
       <c r="B729" s="18"/>
       <c r="C729" s="18"/>
@@ -24239,7 +24239,7 @@
       <c r="Z729" s="18"/>
       <c r="AA729" s="18"/>
     </row>
-    <row r="730" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="18"/>
       <c r="B730" s="18"/>
       <c r="C730" s="18"/>
@@ -24268,7 +24268,7 @@
       <c r="Z730" s="18"/>
       <c r="AA730" s="18"/>
     </row>
-    <row r="731" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="18"/>
       <c r="B731" s="18"/>
       <c r="C731" s="18"/>
@@ -24297,7 +24297,7 @@
       <c r="Z731" s="18"/>
       <c r="AA731" s="18"/>
     </row>
-    <row r="732" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="18"/>
       <c r="B732" s="18"/>
       <c r="C732" s="18"/>
@@ -24326,7 +24326,7 @@
       <c r="Z732" s="18"/>
       <c r="AA732" s="18"/>
     </row>
-    <row r="733" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="18"/>
       <c r="B733" s="18"/>
       <c r="C733" s="18"/>
@@ -24355,7 +24355,7 @@
       <c r="Z733" s="18"/>
       <c r="AA733" s="18"/>
     </row>
-    <row r="734" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="18"/>
       <c r="B734" s="18"/>
       <c r="C734" s="18"/>
@@ -24384,7 +24384,7 @@
       <c r="Z734" s="18"/>
       <c r="AA734" s="18"/>
     </row>
-    <row r="735" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="18"/>
       <c r="B735" s="18"/>
       <c r="C735" s="18"/>
@@ -24413,7 +24413,7 @@
       <c r="Z735" s="18"/>
       <c r="AA735" s="18"/>
     </row>
-    <row r="736" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="18"/>
       <c r="B736" s="18"/>
       <c r="C736" s="18"/>
@@ -24442,7 +24442,7 @@
       <c r="Z736" s="18"/>
       <c r="AA736" s="18"/>
     </row>
-    <row r="737" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="18"/>
       <c r="B737" s="18"/>
       <c r="C737" s="18"/>
@@ -24471,7 +24471,7 @@
       <c r="Z737" s="18"/>
       <c r="AA737" s="18"/>
     </row>
-    <row r="738" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="18"/>
       <c r="B738" s="18"/>
       <c r="C738" s="18"/>
@@ -24500,7 +24500,7 @@
       <c r="Z738" s="18"/>
       <c r="AA738" s="18"/>
     </row>
-    <row r="739" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="18"/>
       <c r="B739" s="18"/>
       <c r="C739" s="18"/>
@@ -24529,7 +24529,7 @@
       <c r="Z739" s="18"/>
       <c r="AA739" s="18"/>
     </row>
-    <row r="740" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="18"/>
       <c r="B740" s="18"/>
       <c r="C740" s="18"/>
@@ -24558,7 +24558,7 @@
       <c r="Z740" s="18"/>
       <c r="AA740" s="18"/>
     </row>
-    <row r="741" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="18"/>
       <c r="B741" s="18"/>
       <c r="C741" s="18"/>
@@ -24587,7 +24587,7 @@
       <c r="Z741" s="18"/>
       <c r="AA741" s="18"/>
     </row>
-    <row r="742" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="18"/>
       <c r="B742" s="18"/>
       <c r="C742" s="18"/>
@@ -24616,7 +24616,7 @@
       <c r="Z742" s="18"/>
       <c r="AA742" s="18"/>
     </row>
-    <row r="743" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="18"/>
       <c r="B743" s="18"/>
       <c r="C743" s="18"/>
@@ -24645,7 +24645,7 @@
       <c r="Z743" s="18"/>
       <c r="AA743" s="18"/>
     </row>
-    <row r="744" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="18"/>
       <c r="B744" s="18"/>
       <c r="C744" s="18"/>
@@ -24674,7 +24674,7 @@
       <c r="Z744" s="18"/>
       <c r="AA744" s="18"/>
     </row>
-    <row r="745" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="18"/>
       <c r="B745" s="18"/>
       <c r="C745" s="18"/>
@@ -24703,7 +24703,7 @@
       <c r="Z745" s="18"/>
       <c r="AA745" s="18"/>
     </row>
-    <row r="746" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="18"/>
       <c r="B746" s="18"/>
       <c r="C746" s="18"/>
@@ -24732,7 +24732,7 @@
       <c r="Z746" s="18"/>
       <c r="AA746" s="18"/>
     </row>
-    <row r="747" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="18"/>
       <c r="B747" s="18"/>
       <c r="C747" s="18"/>
@@ -24761,7 +24761,7 @@
       <c r="Z747" s="18"/>
       <c r="AA747" s="18"/>
     </row>
-    <row r="748" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="18"/>
       <c r="B748" s="18"/>
       <c r="C748" s="18"/>
@@ -24790,7 +24790,7 @@
       <c r="Z748" s="18"/>
       <c r="AA748" s="18"/>
     </row>
-    <row r="749" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A749" s="18"/>
       <c r="B749" s="18"/>
       <c r="C749" s="18"/>
@@ -24819,7 +24819,7 @@
       <c r="Z749" s="18"/>
       <c r="AA749" s="18"/>
     </row>
-    <row r="750" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="18"/>
       <c r="B750" s="18"/>
       <c r="C750" s="18"/>
@@ -24848,7 +24848,7 @@
       <c r="Z750" s="18"/>
       <c r="AA750" s="18"/>
     </row>
-    <row r="751" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="18"/>
       <c r="B751" s="18"/>
       <c r="C751" s="18"/>
@@ -24877,7 +24877,7 @@
       <c r="Z751" s="18"/>
       <c r="AA751" s="18"/>
     </row>
-    <row r="752" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="18"/>
       <c r="B752" s="18"/>
       <c r="C752" s="18"/>
@@ -24906,7 +24906,7 @@
       <c r="Z752" s="18"/>
       <c r="AA752" s="18"/>
     </row>
-    <row r="753" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="18"/>
       <c r="B753" s="18"/>
       <c r="C753" s="18"/>
@@ -24935,7 +24935,7 @@
       <c r="Z753" s="18"/>
       <c r="AA753" s="18"/>
     </row>
-    <row r="754" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="18"/>
       <c r="B754" s="18"/>
       <c r="C754" s="18"/>
@@ -24964,7 +24964,7 @@
       <c r="Z754" s="18"/>
       <c r="AA754" s="18"/>
     </row>
-    <row r="755" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A755" s="18"/>
       <c r="B755" s="18"/>
       <c r="C755" s="18"/>
@@ -24993,7 +24993,7 @@
       <c r="Z755" s="18"/>
       <c r="AA755" s="18"/>
     </row>
-    <row r="756" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="18"/>
       <c r="B756" s="18"/>
       <c r="C756" s="18"/>
@@ -25022,7 +25022,7 @@
       <c r="Z756" s="18"/>
       <c r="AA756" s="18"/>
     </row>
-    <row r="757" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="18"/>
       <c r="B757" s="18"/>
       <c r="C757" s="18"/>
@@ -25051,7 +25051,7 @@
       <c r="Z757" s="18"/>
       <c r="AA757" s="18"/>
     </row>
-    <row r="758" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="18"/>
       <c r="B758" s="18"/>
       <c r="C758" s="18"/>
@@ -25080,7 +25080,7 @@
       <c r="Z758" s="18"/>
       <c r="AA758" s="18"/>
     </row>
-    <row r="759" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="18"/>
       <c r="B759" s="18"/>
       <c r="C759" s="18"/>
@@ -25109,7 +25109,7 @@
       <c r="Z759" s="18"/>
       <c r="AA759" s="18"/>
     </row>
-    <row r="760" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="18"/>
       <c r="B760" s="18"/>
       <c r="C760" s="18"/>
@@ -25138,7 +25138,7 @@
       <c r="Z760" s="18"/>
       <c r="AA760" s="18"/>
     </row>
-    <row r="761" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="18"/>
       <c r="B761" s="18"/>
       <c r="C761" s="18"/>
@@ -25167,7 +25167,7 @@
       <c r="Z761" s="18"/>
       <c r="AA761" s="18"/>
     </row>
-    <row r="762" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="18"/>
       <c r="B762" s="18"/>
       <c r="C762" s="18"/>
@@ -25196,7 +25196,7 @@
       <c r="Z762" s="18"/>
       <c r="AA762" s="18"/>
     </row>
-    <row r="763" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="18"/>
       <c r="B763" s="18"/>
       <c r="C763" s="18"/>
@@ -25225,7 +25225,7 @@
       <c r="Z763" s="18"/>
       <c r="AA763" s="18"/>
     </row>
-    <row r="764" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A764" s="18"/>
       <c r="B764" s="18"/>
       <c r="C764" s="18"/>
@@ -25254,7 +25254,7 @@
       <c r="Z764" s="18"/>
       <c r="AA764" s="18"/>
     </row>
-    <row r="765" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="18"/>
       <c r="B765" s="18"/>
       <c r="C765" s="18"/>
@@ -25283,7 +25283,7 @@
       <c r="Z765" s="18"/>
       <c r="AA765" s="18"/>
     </row>
-    <row r="766" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="18"/>
       <c r="B766" s="18"/>
       <c r="C766" s="18"/>
@@ -25312,7 +25312,7 @@
       <c r="Z766" s="18"/>
       <c r="AA766" s="18"/>
     </row>
-    <row r="767" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="18"/>
       <c r="B767" s="18"/>
       <c r="C767" s="18"/>
@@ -25341,7 +25341,7 @@
       <c r="Z767" s="18"/>
       <c r="AA767" s="18"/>
     </row>
-    <row r="768" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A768" s="18"/>
       <c r="B768" s="18"/>
       <c r="C768" s="18"/>
@@ -25370,7 +25370,7 @@
       <c r="Z768" s="18"/>
       <c r="AA768" s="18"/>
     </row>
-    <row r="769" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="18"/>
       <c r="B769" s="18"/>
       <c r="C769" s="18"/>
@@ -25399,7 +25399,7 @@
       <c r="Z769" s="18"/>
       <c r="AA769" s="18"/>
     </row>
-    <row r="770" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A770" s="18"/>
       <c r="B770" s="18"/>
       <c r="C770" s="18"/>
@@ -25428,7 +25428,7 @@
       <c r="Z770" s="18"/>
       <c r="AA770" s="18"/>
     </row>
-    <row r="771" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="18"/>
       <c r="B771" s="18"/>
       <c r="C771" s="18"/>
@@ -25457,7 +25457,7 @@
       <c r="Z771" s="18"/>
       <c r="AA771" s="18"/>
     </row>
-    <row r="772" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="18"/>
       <c r="B772" s="18"/>
       <c r="C772" s="18"/>
@@ -25486,7 +25486,7 @@
       <c r="Z772" s="18"/>
       <c r="AA772" s="18"/>
     </row>
-    <row r="773" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="18"/>
       <c r="B773" s="18"/>
       <c r="C773" s="18"/>
@@ -25515,7 +25515,7 @@
       <c r="Z773" s="18"/>
       <c r="AA773" s="18"/>
     </row>
-    <row r="774" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A774" s="18"/>
       <c r="B774" s="18"/>
       <c r="C774" s="18"/>
@@ -25544,7 +25544,7 @@
       <c r="Z774" s="18"/>
       <c r="AA774" s="18"/>
     </row>
-    <row r="775" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="18"/>
       <c r="B775" s="18"/>
       <c r="C775" s="18"/>
@@ -25573,7 +25573,7 @@
       <c r="Z775" s="18"/>
       <c r="AA775" s="18"/>
     </row>
-    <row r="776" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="18"/>
       <c r="B776" s="18"/>
       <c r="C776" s="18"/>
@@ -25602,7 +25602,7 @@
       <c r="Z776" s="18"/>
       <c r="AA776" s="18"/>
     </row>
-    <row r="777" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="18"/>
       <c r="B777" s="18"/>
       <c r="C777" s="18"/>
@@ -25631,7 +25631,7 @@
       <c r="Z777" s="18"/>
       <c r="AA777" s="18"/>
     </row>
-    <row r="778" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A778" s="18"/>
       <c r="B778" s="18"/>
       <c r="C778" s="18"/>
@@ -25660,7 +25660,7 @@
       <c r="Z778" s="18"/>
       <c r="AA778" s="18"/>
     </row>
-    <row r="779" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A779" s="18"/>
       <c r="B779" s="18"/>
       <c r="C779" s="18"/>
@@ -25689,7 +25689,7 @@
       <c r="Z779" s="18"/>
       <c r="AA779" s="18"/>
     </row>
-    <row r="780" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A780" s="18"/>
       <c r="B780" s="18"/>
       <c r="C780" s="18"/>
@@ -25718,7 +25718,7 @@
       <c r="Z780" s="18"/>
       <c r="AA780" s="18"/>
     </row>
-    <row r="781" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781" s="18"/>
       <c r="B781" s="18"/>
       <c r="C781" s="18"/>
@@ -25747,7 +25747,7 @@
       <c r="Z781" s="18"/>
       <c r="AA781" s="18"/>
     </row>
-    <row r="782" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="18"/>
       <c r="B782" s="18"/>
       <c r="C782" s="18"/>
@@ -25776,7 +25776,7 @@
       <c r="Z782" s="18"/>
       <c r="AA782" s="18"/>
     </row>
-    <row r="783" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="18"/>
       <c r="B783" s="18"/>
       <c r="C783" s="18"/>
@@ -25805,7 +25805,7 @@
       <c r="Z783" s="18"/>
       <c r="AA783" s="18"/>
     </row>
-    <row r="784" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A784" s="18"/>
       <c r="B784" s="18"/>
       <c r="C784" s="18"/>
@@ -25834,7 +25834,7 @@
       <c r="Z784" s="18"/>
       <c r="AA784" s="18"/>
     </row>
-    <row r="785" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="18"/>
       <c r="B785" s="18"/>
       <c r="C785" s="18"/>
@@ -25863,7 +25863,7 @@
       <c r="Z785" s="18"/>
       <c r="AA785" s="18"/>
     </row>
-    <row r="786" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A786" s="18"/>
       <c r="B786" s="18"/>
       <c r="C786" s="18"/>
@@ -25892,7 +25892,7 @@
       <c r="Z786" s="18"/>
       <c r="AA786" s="18"/>
     </row>
-    <row r="787" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787" s="18"/>
       <c r="B787" s="18"/>
       <c r="C787" s="18"/>
@@ -25921,7 +25921,7 @@
       <c r="Z787" s="18"/>
       <c r="AA787" s="18"/>
     </row>
-    <row r="788" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A788" s="18"/>
       <c r="B788" s="18"/>
       <c r="C788" s="18"/>
@@ -25950,7 +25950,7 @@
       <c r="Z788" s="18"/>
       <c r="AA788" s="18"/>
     </row>
-    <row r="789" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A789" s="18"/>
       <c r="B789" s="18"/>
       <c r="C789" s="18"/>
@@ -25979,7 +25979,7 @@
       <c r="Z789" s="18"/>
       <c r="AA789" s="18"/>
     </row>
-    <row r="790" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A790" s="18"/>
       <c r="B790" s="18"/>
       <c r="C790" s="18"/>
@@ -26008,7 +26008,7 @@
       <c r="Z790" s="18"/>
       <c r="AA790" s="18"/>
     </row>
-    <row r="791" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A791" s="18"/>
       <c r="B791" s="18"/>
       <c r="C791" s="18"/>
@@ -26037,7 +26037,7 @@
       <c r="Z791" s="18"/>
       <c r="AA791" s="18"/>
     </row>
-    <row r="792" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A792" s="18"/>
       <c r="B792" s="18"/>
       <c r="C792" s="18"/>
@@ -26066,7 +26066,7 @@
       <c r="Z792" s="18"/>
       <c r="AA792" s="18"/>
     </row>
-    <row r="793" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A793" s="18"/>
       <c r="B793" s="18"/>
       <c r="C793" s="18"/>
@@ -26095,7 +26095,7 @@
       <c r="Z793" s="18"/>
       <c r="AA793" s="18"/>
     </row>
-    <row r="794" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A794" s="18"/>
       <c r="B794" s="18"/>
       <c r="C794" s="18"/>
@@ -26124,7 +26124,7 @@
       <c r="Z794" s="18"/>
       <c r="AA794" s="18"/>
     </row>
-    <row r="795" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A795" s="18"/>
       <c r="B795" s="18"/>
       <c r="C795" s="18"/>
@@ -26153,7 +26153,7 @@
       <c r="Z795" s="18"/>
       <c r="AA795" s="18"/>
     </row>
-    <row r="796" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A796" s="18"/>
       <c r="B796" s="18"/>
       <c r="C796" s="18"/>
@@ -26182,7 +26182,7 @@
       <c r="Z796" s="18"/>
       <c r="AA796" s="18"/>
     </row>
-    <row r="797" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A797" s="18"/>
       <c r="B797" s="18"/>
       <c r="C797" s="18"/>
@@ -26211,7 +26211,7 @@
       <c r="Z797" s="18"/>
       <c r="AA797" s="18"/>
     </row>
-    <row r="798" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A798" s="18"/>
       <c r="B798" s="18"/>
       <c r="C798" s="18"/>
@@ -26240,7 +26240,7 @@
       <c r="Z798" s="18"/>
       <c r="AA798" s="18"/>
     </row>
-    <row r="799" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A799" s="18"/>
       <c r="B799" s="18"/>
       <c r="C799" s="18"/>
@@ -26269,7 +26269,7 @@
       <c r="Z799" s="18"/>
       <c r="AA799" s="18"/>
     </row>
-    <row r="800" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A800" s="18"/>
       <c r="B800" s="18"/>
       <c r="C800" s="18"/>
@@ -26298,7 +26298,7 @@
       <c r="Z800" s="18"/>
       <c r="AA800" s="18"/>
     </row>
-    <row r="801" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A801" s="18"/>
       <c r="B801" s="18"/>
       <c r="C801" s="18"/>
@@ -26327,7 +26327,7 @@
       <c r="Z801" s="18"/>
       <c r="AA801" s="18"/>
     </row>
-    <row r="802" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A802" s="18"/>
       <c r="B802" s="18"/>
       <c r="C802" s="18"/>
@@ -26356,7 +26356,7 @@
       <c r="Z802" s="18"/>
       <c r="AA802" s="18"/>
     </row>
-    <row r="803" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A803" s="18"/>
       <c r="B803" s="18"/>
       <c r="C803" s="18"/>
@@ -26385,7 +26385,7 @@
       <c r="Z803" s="18"/>
       <c r="AA803" s="18"/>
     </row>
-    <row r="804" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A804" s="18"/>
       <c r="B804" s="18"/>
       <c r="C804" s="18"/>
@@ -26414,7 +26414,7 @@
       <c r="Z804" s="18"/>
       <c r="AA804" s="18"/>
     </row>
-    <row r="805" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A805" s="18"/>
       <c r="B805" s="18"/>
       <c r="C805" s="18"/>
@@ -26443,7 +26443,7 @@
       <c r="Z805" s="18"/>
       <c r="AA805" s="18"/>
     </row>
-    <row r="806" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A806" s="18"/>
       <c r="B806" s="18"/>
       <c r="C806" s="18"/>
@@ -26472,7 +26472,7 @@
       <c r="Z806" s="18"/>
       <c r="AA806" s="18"/>
     </row>
-    <row r="807" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A807" s="18"/>
       <c r="B807" s="18"/>
       <c r="C807" s="18"/>
@@ -26501,7 +26501,7 @@
       <c r="Z807" s="18"/>
       <c r="AA807" s="18"/>
     </row>
-    <row r="808" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A808" s="18"/>
       <c r="B808" s="18"/>
       <c r="C808" s="18"/>
@@ -26530,7 +26530,7 @@
       <c r="Z808" s="18"/>
       <c r="AA808" s="18"/>
     </row>
-    <row r="809" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A809" s="18"/>
       <c r="B809" s="18"/>
       <c r="C809" s="18"/>
@@ -26559,7 +26559,7 @@
       <c r="Z809" s="18"/>
       <c r="AA809" s="18"/>
     </row>
-    <row r="810" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A810" s="18"/>
       <c r="B810" s="18"/>
       <c r="C810" s="18"/>
@@ -26588,7 +26588,7 @@
       <c r="Z810" s="18"/>
       <c r="AA810" s="18"/>
     </row>
-    <row r="811" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A811" s="18"/>
       <c r="B811" s="18"/>
       <c r="C811" s="18"/>
@@ -26617,7 +26617,7 @@
       <c r="Z811" s="18"/>
       <c r="AA811" s="18"/>
     </row>
-    <row r="812" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A812" s="18"/>
       <c r="B812" s="18"/>
       <c r="C812" s="18"/>
@@ -26646,7 +26646,7 @@
       <c r="Z812" s="18"/>
       <c r="AA812" s="18"/>
     </row>
-    <row r="813" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A813" s="18"/>
       <c r="B813" s="18"/>
       <c r="C813" s="18"/>
@@ -26675,7 +26675,7 @@
       <c r="Z813" s="18"/>
       <c r="AA813" s="18"/>
     </row>
-    <row r="814" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A814" s="18"/>
       <c r="B814" s="18"/>
       <c r="C814" s="18"/>
@@ -26704,7 +26704,7 @@
       <c r="Z814" s="18"/>
       <c r="AA814" s="18"/>
     </row>
-    <row r="815" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A815" s="18"/>
       <c r="B815" s="18"/>
       <c r="C815" s="18"/>
@@ -26733,7 +26733,7 @@
       <c r="Z815" s="18"/>
       <c r="AA815" s="18"/>
     </row>
-    <row r="816" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A816" s="18"/>
       <c r="B816" s="18"/>
       <c r="C816" s="18"/>
@@ -26762,7 +26762,7 @@
       <c r="Z816" s="18"/>
       <c r="AA816" s="18"/>
     </row>
-    <row r="817" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A817" s="18"/>
       <c r="B817" s="18"/>
       <c r="C817" s="18"/>
@@ -26791,7 +26791,7 @@
       <c r="Z817" s="18"/>
       <c r="AA817" s="18"/>
     </row>
-    <row r="818" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A818" s="18"/>
       <c r="B818" s="18"/>
       <c r="C818" s="18"/>
@@ -26820,7 +26820,7 @@
       <c r="Z818" s="18"/>
       <c r="AA818" s="18"/>
     </row>
-    <row r="819" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A819" s="18"/>
       <c r="B819" s="18"/>
       <c r="C819" s="18"/>
@@ -26849,7 +26849,7 @@
       <c r="Z819" s="18"/>
       <c r="AA819" s="18"/>
     </row>
-    <row r="820" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A820" s="18"/>
       <c r="B820" s="18"/>
       <c r="C820" s="18"/>
@@ -26878,7 +26878,7 @@
       <c r="Z820" s="18"/>
       <c r="AA820" s="18"/>
     </row>
-    <row r="821" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A821" s="18"/>
       <c r="B821" s="18"/>
       <c r="C821" s="18"/>
@@ -26907,7 +26907,7 @@
       <c r="Z821" s="18"/>
       <c r="AA821" s="18"/>
     </row>
-    <row r="822" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A822" s="18"/>
       <c r="B822" s="18"/>
       <c r="C822" s="18"/>
@@ -26936,7 +26936,7 @@
       <c r="Z822" s="18"/>
       <c r="AA822" s="18"/>
     </row>
-    <row r="823" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A823" s="18"/>
       <c r="B823" s="18"/>
       <c r="C823" s="18"/>
@@ -26965,7 +26965,7 @@
       <c r="Z823" s="18"/>
       <c r="AA823" s="18"/>
     </row>
-    <row r="824" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A824" s="18"/>
       <c r="B824" s="18"/>
       <c r="C824" s="18"/>
@@ -26994,7 +26994,7 @@
       <c r="Z824" s="18"/>
       <c r="AA824" s="18"/>
     </row>
-    <row r="825" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A825" s="18"/>
       <c r="B825" s="18"/>
       <c r="C825" s="18"/>
@@ -27023,7 +27023,7 @@
       <c r="Z825" s="18"/>
       <c r="AA825" s="18"/>
     </row>
-    <row r="826" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A826" s="18"/>
       <c r="B826" s="18"/>
       <c r="C826" s="18"/>
@@ -27052,7 +27052,7 @@
       <c r="Z826" s="18"/>
       <c r="AA826" s="18"/>
     </row>
-    <row r="827" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A827" s="18"/>
       <c r="B827" s="18"/>
       <c r="C827" s="18"/>
@@ -27081,7 +27081,7 @@
       <c r="Z827" s="18"/>
       <c r="AA827" s="18"/>
     </row>
-    <row r="828" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A828" s="18"/>
       <c r="B828" s="18"/>
       <c r="C828" s="18"/>
@@ -27110,7 +27110,7 @@
       <c r="Z828" s="18"/>
       <c r="AA828" s="18"/>
     </row>
-    <row r="829" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A829" s="18"/>
       <c r="B829" s="18"/>
       <c r="C829" s="18"/>
@@ -27139,7 +27139,7 @@
       <c r="Z829" s="18"/>
       <c r="AA829" s="18"/>
     </row>
-    <row r="830" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A830" s="18"/>
       <c r="B830" s="18"/>
       <c r="C830" s="18"/>
@@ -27168,7 +27168,7 @@
       <c r="Z830" s="18"/>
       <c r="AA830" s="18"/>
     </row>
-    <row r="831" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A831" s="18"/>
       <c r="B831" s="18"/>
       <c r="C831" s="18"/>
@@ -27197,7 +27197,7 @@
       <c r="Z831" s="18"/>
       <c r="AA831" s="18"/>
     </row>
-    <row r="832" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A832" s="18"/>
       <c r="B832" s="18"/>
       <c r="C832" s="18"/>
@@ -27226,7 +27226,7 @@
       <c r="Z832" s="18"/>
       <c r="AA832" s="18"/>
     </row>
-    <row r="833" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A833" s="18"/>
       <c r="B833" s="18"/>
       <c r="C833" s="18"/>
@@ -27255,7 +27255,7 @@
       <c r="Z833" s="18"/>
       <c r="AA833" s="18"/>
     </row>
-    <row r="834" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A834" s="18"/>
       <c r="B834" s="18"/>
       <c r="C834" s="18"/>
@@ -27284,7 +27284,7 @@
       <c r="Z834" s="18"/>
       <c r="AA834" s="18"/>
     </row>
-    <row r="835" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A835" s="18"/>
       <c r="B835" s="18"/>
       <c r="C835" s="18"/>
@@ -27313,7 +27313,7 @@
       <c r="Z835" s="18"/>
       <c r="AA835" s="18"/>
     </row>
-    <row r="836" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A836" s="18"/>
       <c r="B836" s="18"/>
       <c r="C836" s="18"/>
@@ -27342,7 +27342,7 @@
       <c r="Z836" s="18"/>
       <c r="AA836" s="18"/>
     </row>
-    <row r="837" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A837" s="18"/>
       <c r="B837" s="18"/>
       <c r="C837" s="18"/>
@@ -27371,7 +27371,7 @@
       <c r="Z837" s="18"/>
       <c r="AA837" s="18"/>
     </row>
-    <row r="838" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A838" s="18"/>
       <c r="B838" s="18"/>
       <c r="C838" s="18"/>
@@ -27400,7 +27400,7 @@
       <c r="Z838" s="18"/>
       <c r="AA838" s="18"/>
     </row>
-    <row r="839" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A839" s="18"/>
       <c r="B839" s="18"/>
       <c r="C839" s="18"/>
@@ -27429,7 +27429,7 @@
       <c r="Z839" s="18"/>
       <c r="AA839" s="18"/>
     </row>
-    <row r="840" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A840" s="18"/>
       <c r="B840" s="18"/>
       <c r="C840" s="18"/>
@@ -27458,7 +27458,7 @@
       <c r="Z840" s="18"/>
       <c r="AA840" s="18"/>
     </row>
-    <row r="841" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A841" s="18"/>
       <c r="B841" s="18"/>
       <c r="C841" s="18"/>
@@ -27487,7 +27487,7 @@
       <c r="Z841" s="18"/>
       <c r="AA841" s="18"/>
     </row>
-    <row r="842" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A842" s="18"/>
       <c r="B842" s="18"/>
       <c r="C842" s="18"/>
@@ -27516,7 +27516,7 @@
       <c r="Z842" s="18"/>
       <c r="AA842" s="18"/>
     </row>
-    <row r="843" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A843" s="18"/>
       <c r="B843" s="18"/>
       <c r="C843" s="18"/>
@@ -27545,7 +27545,7 @@
       <c r="Z843" s="18"/>
       <c r="AA843" s="18"/>
     </row>
-    <row r="844" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A844" s="18"/>
       <c r="B844" s="18"/>
       <c r="C844" s="18"/>
@@ -27574,7 +27574,7 @@
       <c r="Z844" s="18"/>
       <c r="AA844" s="18"/>
     </row>
-    <row r="845" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A845" s="18"/>
       <c r="B845" s="18"/>
       <c r="C845" s="18"/>
@@ -27603,7 +27603,7 @@
       <c r="Z845" s="18"/>
       <c r="AA845" s="18"/>
     </row>
-    <row r="846" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A846" s="18"/>
       <c r="B846" s="18"/>
       <c r="C846" s="18"/>
@@ -27632,7 +27632,7 @@
       <c r="Z846" s="18"/>
       <c r="AA846" s="18"/>
     </row>
-    <row r="847" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A847" s="18"/>
       <c r="B847" s="18"/>
       <c r="C847" s="18"/>
@@ -27661,7 +27661,7 @@
       <c r="Z847" s="18"/>
       <c r="AA847" s="18"/>
     </row>
-    <row r="848" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A848" s="18"/>
       <c r="B848" s="18"/>
       <c r="C848" s="18"/>
@@ -27690,7 +27690,7 @@
       <c r="Z848" s="18"/>
       <c r="AA848" s="18"/>
     </row>
-    <row r="849" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A849" s="18"/>
       <c r="B849" s="18"/>
       <c r="C849" s="18"/>
@@ -27719,7 +27719,7 @@
       <c r="Z849" s="18"/>
       <c r="AA849" s="18"/>
     </row>
-    <row r="850" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A850" s="18"/>
       <c r="B850" s="18"/>
       <c r="C850" s="18"/>
@@ -27748,7 +27748,7 @@
       <c r="Z850" s="18"/>
       <c r="AA850" s="18"/>
     </row>
-    <row r="851" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A851" s="18"/>
       <c r="B851" s="18"/>
       <c r="C851" s="18"/>
@@ -27777,7 +27777,7 @@
       <c r="Z851" s="18"/>
       <c r="AA851" s="18"/>
     </row>
-    <row r="852" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A852" s="18"/>
       <c r="B852" s="18"/>
       <c r="C852" s="18"/>
@@ -27806,7 +27806,7 @@
       <c r="Z852" s="18"/>
       <c r="AA852" s="18"/>
     </row>
-    <row r="853" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A853" s="18"/>
       <c r="B853" s="18"/>
       <c r="C853" s="18"/>
@@ -27835,7 +27835,7 @@
       <c r="Z853" s="18"/>
       <c r="AA853" s="18"/>
     </row>
-    <row r="854" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A854" s="18"/>
       <c r="B854" s="18"/>
       <c r="C854" s="18"/>
@@ -27864,7 +27864,7 @@
       <c r="Z854" s="18"/>
       <c r="AA854" s="18"/>
     </row>
-    <row r="855" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A855" s="18"/>
       <c r="B855" s="18"/>
       <c r="C855" s="18"/>
@@ -27893,7 +27893,7 @@
       <c r="Z855" s="18"/>
       <c r="AA855" s="18"/>
     </row>
-    <row r="856" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A856" s="18"/>
       <c r="B856" s="18"/>
       <c r="C856" s="18"/>
@@ -27922,7 +27922,7 @@
       <c r="Z856" s="18"/>
       <c r="AA856" s="18"/>
     </row>
-    <row r="857" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A857" s="18"/>
       <c r="B857" s="18"/>
       <c r="C857" s="18"/>
@@ -27951,7 +27951,7 @@
       <c r="Z857" s="18"/>
       <c r="AA857" s="18"/>
     </row>
-    <row r="858" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A858" s="18"/>
       <c r="B858" s="18"/>
       <c r="C858" s="18"/>
@@ -27980,7 +27980,7 @@
       <c r="Z858" s="18"/>
       <c r="AA858" s="18"/>
     </row>
-    <row r="859" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A859" s="18"/>
       <c r="B859" s="18"/>
       <c r="C859" s="18"/>
@@ -28009,7 +28009,7 @@
       <c r="Z859" s="18"/>
       <c r="AA859" s="18"/>
     </row>
-    <row r="860" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A860" s="18"/>
       <c r="B860" s="18"/>
       <c r="C860" s="18"/>
@@ -28038,7 +28038,7 @@
       <c r="Z860" s="18"/>
       <c r="AA860" s="18"/>
     </row>
-    <row r="861" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A861" s="18"/>
       <c r="B861" s="18"/>
       <c r="C861" s="18"/>
@@ -28067,7 +28067,7 @@
       <c r="Z861" s="18"/>
       <c r="AA861" s="18"/>
     </row>
-    <row r="862" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A862" s="18"/>
       <c r="B862" s="18"/>
       <c r="C862" s="18"/>
@@ -28096,7 +28096,7 @@
       <c r="Z862" s="18"/>
       <c r="AA862" s="18"/>
     </row>
-    <row r="863" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A863" s="18"/>
       <c r="B863" s="18"/>
       <c r="C863" s="18"/>
@@ -28125,7 +28125,7 @@
       <c r="Z863" s="18"/>
       <c r="AA863" s="18"/>
     </row>
-    <row r="864" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A864" s="18"/>
       <c r="B864" s="18"/>
       <c r="C864" s="18"/>
@@ -28154,7 +28154,7 @@
       <c r="Z864" s="18"/>
       <c r="AA864" s="18"/>
     </row>
-    <row r="865" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A865" s="18"/>
       <c r="B865" s="18"/>
       <c r="C865" s="18"/>
@@ -28183,7 +28183,7 @@
       <c r="Z865" s="18"/>
       <c r="AA865" s="18"/>
     </row>
-    <row r="866" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A866" s="18"/>
       <c r="B866" s="18"/>
       <c r="C866" s="18"/>
@@ -28212,7 +28212,7 @@
       <c r="Z866" s="18"/>
       <c r="AA866" s="18"/>
     </row>
-    <row r="867" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A867" s="18"/>
       <c r="B867" s="18"/>
       <c r="C867" s="18"/>
@@ -28241,7 +28241,7 @@
       <c r="Z867" s="18"/>
       <c r="AA867" s="18"/>
     </row>
-    <row r="868" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A868" s="18"/>
       <c r="B868" s="18"/>
       <c r="C868" s="18"/>
@@ -28270,7 +28270,7 @@
       <c r="Z868" s="18"/>
       <c r="AA868" s="18"/>
     </row>
-    <row r="869" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A869" s="18"/>
       <c r="B869" s="18"/>
       <c r="C869" s="18"/>
@@ -28299,7 +28299,7 @@
       <c r="Z869" s="18"/>
       <c r="AA869" s="18"/>
     </row>
-    <row r="870" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A870" s="18"/>
       <c r="B870" s="18"/>
       <c r="C870" s="18"/>
@@ -28328,7 +28328,7 @@
       <c r="Z870" s="18"/>
       <c r="AA870" s="18"/>
     </row>
-    <row r="871" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A871" s="18"/>
       <c r="B871" s="18"/>
       <c r="C871" s="18"/>
@@ -28357,7 +28357,7 @@
       <c r="Z871" s="18"/>
       <c r="AA871" s="18"/>
     </row>
-    <row r="872" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A872" s="18"/>
       <c r="B872" s="18"/>
       <c r="C872" s="18"/>
@@ -28386,7 +28386,7 @@
       <c r="Z872" s="18"/>
       <c r="AA872" s="18"/>
     </row>
-    <row r="873" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A873" s="18"/>
       <c r="B873" s="18"/>
       <c r="C873" s="18"/>
@@ -28415,7 +28415,7 @@
       <c r="Z873" s="18"/>
       <c r="AA873" s="18"/>
     </row>
-    <row r="874" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A874" s="18"/>
       <c r="B874" s="18"/>
       <c r="C874" s="18"/>
@@ -28444,7 +28444,7 @@
       <c r="Z874" s="18"/>
       <c r="AA874" s="18"/>
     </row>
-    <row r="875" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A875" s="18"/>
       <c r="B875" s="18"/>
       <c r="C875" s="18"/>
@@ -28473,7 +28473,7 @@
       <c r="Z875" s="18"/>
       <c r="AA875" s="18"/>
     </row>
-    <row r="876" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A876" s="18"/>
       <c r="B876" s="18"/>
       <c r="C876" s="18"/>
@@ -28502,7 +28502,7 @@
       <c r="Z876" s="18"/>
       <c r="AA876" s="18"/>
     </row>
-    <row r="877" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A877" s="18"/>
       <c r="B877" s="18"/>
       <c r="C877" s="18"/>
@@ -28531,7 +28531,7 @@
       <c r="Z877" s="18"/>
       <c r="AA877" s="18"/>
     </row>
-    <row r="878" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A878" s="18"/>
       <c r="B878" s="18"/>
       <c r="C878" s="18"/>
@@ -28560,7 +28560,7 @@
       <c r="Z878" s="18"/>
       <c r="AA878" s="18"/>
     </row>
-    <row r="879" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A879" s="18"/>
       <c r="B879" s="18"/>
       <c r="C879" s="18"/>
@@ -28589,7 +28589,7 @@
       <c r="Z879" s="18"/>
       <c r="AA879" s="18"/>
     </row>
-    <row r="880" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A880" s="18"/>
       <c r="B880" s="18"/>
       <c r="C880" s="18"/>
@@ -28618,7 +28618,7 @@
       <c r="Z880" s="18"/>
       <c r="AA880" s="18"/>
     </row>
-    <row r="881" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A881" s="18"/>
       <c r="B881" s="18"/>
       <c r="C881" s="18"/>
@@ -28647,7 +28647,7 @@
       <c r="Z881" s="18"/>
       <c r="AA881" s="18"/>
     </row>
-    <row r="882" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A882" s="18"/>
       <c r="B882" s="18"/>
       <c r="C882" s="18"/>
@@ -28676,7 +28676,7 @@
       <c r="Z882" s="18"/>
       <c r="AA882" s="18"/>
     </row>
-    <row r="883" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A883" s="18"/>
       <c r="B883" s="18"/>
       <c r="C883" s="18"/>
@@ -28705,7 +28705,7 @@
       <c r="Z883" s="18"/>
       <c r="AA883" s="18"/>
     </row>
-    <row r="884" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A884" s="18"/>
       <c r="B884" s="18"/>
       <c r="C884" s="18"/>
@@ -28734,7 +28734,7 @@
       <c r="Z884" s="18"/>
       <c r="AA884" s="18"/>
     </row>
-    <row r="885" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A885" s="18"/>
       <c r="B885" s="18"/>
       <c r="C885" s="18"/>
@@ -28763,7 +28763,7 @@
       <c r="Z885" s="18"/>
       <c r="AA885" s="18"/>
     </row>
-    <row r="886" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A886" s="18"/>
       <c r="B886" s="18"/>
       <c r="C886" s="18"/>
@@ -28792,7 +28792,7 @@
       <c r="Z886" s="18"/>
       <c r="AA886" s="18"/>
     </row>
-    <row r="887" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A887" s="18"/>
       <c r="B887" s="18"/>
       <c r="C887" s="18"/>
@@ -28821,7 +28821,7 @@
       <c r="Z887" s="18"/>
       <c r="AA887" s="18"/>
     </row>
-    <row r="888" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A888" s="18"/>
       <c r="B888" s="18"/>
       <c r="C888" s="18"/>
@@ -28850,7 +28850,7 @@
       <c r="Z888" s="18"/>
       <c r="AA888" s="18"/>
     </row>
-    <row r="889" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A889" s="18"/>
       <c r="B889" s="18"/>
       <c r="C889" s="18"/>
@@ -28879,7 +28879,7 @@
       <c r="Z889" s="18"/>
       <c r="AA889" s="18"/>
     </row>
-    <row r="890" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A890" s="18"/>
       <c r="B890" s="18"/>
       <c r="C890" s="18"/>
@@ -28908,7 +28908,7 @@
       <c r="Z890" s="18"/>
       <c r="AA890" s="18"/>
     </row>
-    <row r="891" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A891" s="18"/>
       <c r="B891" s="18"/>
       <c r="C891" s="18"/>
@@ -28937,7 +28937,7 @@
       <c r="Z891" s="18"/>
       <c r="AA891" s="18"/>
     </row>
-    <row r="892" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A892" s="18"/>
       <c r="B892" s="18"/>
       <c r="C892" s="18"/>
@@ -28966,7 +28966,7 @@
       <c r="Z892" s="18"/>
       <c r="AA892" s="18"/>
     </row>
-    <row r="893" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A893" s="18"/>
       <c r="B893" s="18"/>
       <c r="C893" s="18"/>
@@ -28995,7 +28995,7 @@
       <c r="Z893" s="18"/>
       <c r="AA893" s="18"/>
     </row>
-    <row r="894" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A894" s="18"/>
       <c r="B894" s="18"/>
       <c r="C894" s="18"/>
@@ -29024,7 +29024,7 @@
       <c r="Z894" s="18"/>
       <c r="AA894" s="18"/>
     </row>
-    <row r="895" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A895" s="18"/>
       <c r="B895" s="18"/>
       <c r="C895" s="18"/>
@@ -29053,7 +29053,7 @@
       <c r="Z895" s="18"/>
       <c r="AA895" s="18"/>
     </row>
-    <row r="896" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A896" s="18"/>
       <c r="B896" s="18"/>
       <c r="C896" s="18"/>
@@ -29082,7 +29082,7 @@
       <c r="Z896" s="18"/>
       <c r="AA896" s="18"/>
     </row>
-    <row r="897" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A897" s="18"/>
       <c r="B897" s="18"/>
       <c r="C897" s="18"/>
@@ -29111,7 +29111,7 @@
       <c r="Z897" s="18"/>
       <c r="AA897" s="18"/>
     </row>
-    <row r="898" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A898" s="18"/>
       <c r="B898" s="18"/>
       <c r="C898" s="18"/>
@@ -29140,7 +29140,7 @@
       <c r="Z898" s="18"/>
       <c r="AA898" s="18"/>
     </row>
-    <row r="899" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A899" s="18"/>
       <c r="B899" s="18"/>
       <c r="C899" s="18"/>
@@ -29169,7 +29169,7 @@
       <c r="Z899" s="18"/>
       <c r="AA899" s="18"/>
     </row>
-    <row r="900" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A900" s="18"/>
       <c r="B900" s="18"/>
       <c r="C900" s="18"/>
@@ -29198,7 +29198,7 @@
       <c r="Z900" s="18"/>
       <c r="AA900" s="18"/>
     </row>
-    <row r="901" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A901" s="18"/>
       <c r="B901" s="18"/>
       <c r="C901" s="18"/>
@@ -29227,7 +29227,7 @@
       <c r="Z901" s="18"/>
       <c r="AA901" s="18"/>
     </row>
-    <row r="902" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A902" s="18"/>
       <c r="B902" s="18"/>
       <c r="C902" s="18"/>
@@ -29256,7 +29256,7 @@
       <c r="Z902" s="18"/>
       <c r="AA902" s="18"/>
     </row>
-    <row r="903" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A903" s="18"/>
       <c r="B903" s="18"/>
       <c r="C903" s="18"/>
@@ -29285,7 +29285,7 @@
       <c r="Z903" s="18"/>
       <c r="AA903" s="18"/>
     </row>
-    <row r="904" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A904" s="18"/>
       <c r="B904" s="18"/>
       <c r="C904" s="18"/>
@@ -29314,7 +29314,7 @@
       <c r="Z904" s="18"/>
       <c r="AA904" s="18"/>
     </row>
-    <row r="905" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A905" s="18"/>
       <c r="B905" s="18"/>
       <c r="C905" s="18"/>
@@ -29343,7 +29343,7 @@
       <c r="Z905" s="18"/>
       <c r="AA905" s="18"/>
     </row>
-    <row r="906" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A906" s="18"/>
       <c r="B906" s="18"/>
       <c r="C906" s="18"/>
@@ -29372,7 +29372,7 @@
       <c r="Z906" s="18"/>
       <c r="AA906" s="18"/>
     </row>
-    <row r="907" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A907" s="18"/>
       <c r="B907" s="18"/>
       <c r="C907" s="18"/>
@@ -29401,7 +29401,7 @@
       <c r="Z907" s="18"/>
       <c r="AA907" s="18"/>
     </row>
-    <row r="908" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A908" s="18"/>
       <c r="B908" s="18"/>
       <c r="C908" s="18"/>
@@ -29430,7 +29430,7 @@
       <c r="Z908" s="18"/>
       <c r="AA908" s="18"/>
     </row>
-    <row r="909" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A909" s="18"/>
       <c r="B909" s="18"/>
       <c r="C909" s="18"/>
@@ -29459,7 +29459,7 @@
       <c r="Z909" s="18"/>
       <c r="AA909" s="18"/>
     </row>
-    <row r="910" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A910" s="18"/>
       <c r="B910" s="18"/>
       <c r="C910" s="18"/>
@@ -29488,7 +29488,7 @@
       <c r="Z910" s="18"/>
       <c r="AA910" s="18"/>
     </row>
-    <row r="911" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A911" s="18"/>
       <c r="B911" s="18"/>
       <c r="C911" s="18"/>
@@ -29517,7 +29517,7 @@
       <c r="Z911" s="18"/>
       <c r="AA911" s="18"/>
     </row>
-    <row r="912" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A912" s="18"/>
       <c r="B912" s="18"/>
       <c r="C912" s="18"/>
@@ -29546,7 +29546,7 @@
       <c r="Z912" s="18"/>
       <c r="AA912" s="18"/>
     </row>
-    <row r="913" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A913" s="18"/>
       <c r="B913" s="18"/>
       <c r="C913" s="18"/>
@@ -29575,7 +29575,7 @@
       <c r="Z913" s="18"/>
       <c r="AA913" s="18"/>
     </row>
-    <row r="914" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A914" s="18"/>
       <c r="B914" s="18"/>
       <c r="C914" s="18"/>
@@ -29604,7 +29604,7 @@
       <c r="Z914" s="18"/>
       <c r="AA914" s="18"/>
     </row>
-    <row r="915" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A915" s="18"/>
       <c r="B915" s="18"/>
       <c r="C915" s="18"/>
@@ -29633,7 +29633,7 @@
       <c r="Z915" s="18"/>
       <c r="AA915" s="18"/>
     </row>
-    <row r="916" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A916" s="18"/>
       <c r="B916" s="18"/>
       <c r="C916" s="18"/>
@@ -29662,7 +29662,7 @@
       <c r="Z916" s="18"/>
       <c r="AA916" s="18"/>
     </row>
-    <row r="917" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A917" s="18"/>
       <c r="B917" s="18"/>
       <c r="C917" s="18"/>
@@ -29691,7 +29691,7 @@
       <c r="Z917" s="18"/>
       <c r="AA917" s="18"/>
     </row>
-    <row r="918" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A918" s="18"/>
       <c r="B918" s="18"/>
       <c r="C918" s="18"/>
@@ -29720,7 +29720,7 @@
       <c r="Z918" s="18"/>
       <c r="AA918" s="18"/>
     </row>
-    <row r="919" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A919" s="18"/>
       <c r="B919" s="18"/>
       <c r="C919" s="18"/>
@@ -29749,7 +29749,7 @@
       <c r="Z919" s="18"/>
       <c r="AA919" s="18"/>
     </row>
-    <row r="920" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A920" s="18"/>
       <c r="B920" s="18"/>
       <c r="C920" s="18"/>
@@ -29778,7 +29778,7 @@
       <c r="Z920" s="18"/>
       <c r="AA920" s="18"/>
     </row>
-    <row r="921" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A921" s="18"/>
       <c r="B921" s="18"/>
       <c r="C921" s="18"/>
@@ -29807,7 +29807,7 @@
       <c r="Z921" s="18"/>
       <c r="AA921" s="18"/>
     </row>
-    <row r="922" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A922" s="18"/>
       <c r="B922" s="18"/>
       <c r="C922" s="18"/>
@@ -29836,7 +29836,7 @@
       <c r="Z922" s="18"/>
       <c r="AA922" s="18"/>
     </row>
-    <row r="923" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A923" s="18"/>
       <c r="B923" s="18"/>
       <c r="C923" s="18"/>
@@ -29865,7 +29865,7 @@
       <c r="Z923" s="18"/>
       <c r="AA923" s="18"/>
     </row>
-    <row r="924" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A924" s="18"/>
       <c r="B924" s="18"/>
       <c r="C924" s="18"/>
@@ -29894,7 +29894,7 @@
       <c r="Z924" s="18"/>
       <c r="AA924" s="18"/>
     </row>
-    <row r="925" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A925" s="18"/>
       <c r="B925" s="18"/>
       <c r="C925" s="18"/>
@@ -29923,7 +29923,7 @@
       <c r="Z925" s="18"/>
       <c r="AA925" s="18"/>
     </row>
-    <row r="926" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A926" s="18"/>
       <c r="B926" s="18"/>
       <c r="C926" s="18"/>
@@ -29952,7 +29952,7 @@
       <c r="Z926" s="18"/>
       <c r="AA926" s="18"/>
     </row>
-    <row r="927" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A927" s="18"/>
       <c r="B927" s="18"/>
       <c r="C927" s="18"/>
@@ -29981,7 +29981,7 @@
       <c r="Z927" s="18"/>
       <c r="AA927" s="18"/>
     </row>
-    <row r="928" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A928" s="18"/>
       <c r="B928" s="18"/>
       <c r="C928" s="18"/>
@@ -30010,7 +30010,7 @@
       <c r="Z928" s="18"/>
       <c r="AA928" s="18"/>
     </row>
-    <row r="929" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A929" s="18"/>
       <c r="B929" s="18"/>
       <c r="C929" s="18"/>
@@ -30039,7 +30039,7 @@
       <c r="Z929" s="18"/>
       <c r="AA929" s="18"/>
     </row>
-    <row r="930" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A930" s="18"/>
       <c r="B930" s="18"/>
       <c r="C930" s="18"/>
@@ -30068,7 +30068,7 @@
       <c r="Z930" s="18"/>
       <c r="AA930" s="18"/>
     </row>
-    <row r="931" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A931" s="18"/>
       <c r="B931" s="18"/>
       <c r="C931" s="18"/>
@@ -30097,7 +30097,7 @@
       <c r="Z931" s="18"/>
       <c r="AA931" s="18"/>
     </row>
-    <row r="932" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A932" s="18"/>
       <c r="B932" s="18"/>
       <c r="C932" s="18"/>
@@ -30126,7 +30126,7 @@
       <c r="Z932" s="18"/>
       <c r="AA932" s="18"/>
     </row>
-    <row r="933" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A933" s="18"/>
       <c r="B933" s="18"/>
       <c r="C933" s="18"/>
@@ -30155,7 +30155,7 @@
       <c r="Z933" s="18"/>
       <c r="AA933" s="18"/>
     </row>
-    <row r="934" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A934" s="18"/>
       <c r="B934" s="18"/>
       <c r="C934" s="18"/>
@@ -30184,7 +30184,7 @@
       <c r="Z934" s="18"/>
       <c r="AA934" s="18"/>
     </row>
-    <row r="935" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A935" s="18"/>
       <c r="B935" s="18"/>
       <c r="C935" s="18"/>
@@ -30213,7 +30213,7 @@
       <c r="Z935" s="18"/>
       <c r="AA935" s="18"/>
     </row>
-    <row r="936" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A936" s="18"/>
       <c r="B936" s="18"/>
       <c r="C936" s="18"/>
@@ -30242,7 +30242,7 @@
       <c r="Z936" s="18"/>
       <c r="AA936" s="18"/>
     </row>
-    <row r="937" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A937" s="18"/>
       <c r="B937" s="18"/>
       <c r="C937" s="18"/>
@@ -30271,7 +30271,7 @@
       <c r="Z937" s="18"/>
       <c r="AA937" s="18"/>
     </row>
-    <row r="938" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A938" s="18"/>
       <c r="B938" s="18"/>
       <c r="C938" s="18"/>
@@ -30300,7 +30300,7 @@
       <c r="Z938" s="18"/>
       <c r="AA938" s="18"/>
     </row>
-    <row r="939" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A939" s="18"/>
       <c r="B939" s="18"/>
       <c r="C939" s="18"/>
@@ -30329,7 +30329,7 @@
       <c r="Z939" s="18"/>
       <c r="AA939" s="18"/>
     </row>
-    <row r="940" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A940" s="18"/>
       <c r="B940" s="18"/>
       <c r="C940" s="18"/>
@@ -30358,7 +30358,7 @@
       <c r="Z940" s="18"/>
       <c r="AA940" s="18"/>
     </row>
-    <row r="941" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A941" s="18"/>
       <c r="B941" s="18"/>
       <c r="C941" s="18"/>
@@ -30387,7 +30387,7 @@
       <c r="Z941" s="18"/>
       <c r="AA941" s="18"/>
     </row>
-    <row r="942" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A942" s="18"/>
       <c r="B942" s="18"/>
       <c r="C942" s="18"/>
@@ -30416,7 +30416,7 @@
       <c r="Z942" s="18"/>
       <c r="AA942" s="18"/>
     </row>
-    <row r="943" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A943" s="18"/>
       <c r="B943" s="18"/>
       <c r="C943" s="18"/>
@@ -30445,7 +30445,7 @@
       <c r="Z943" s="18"/>
       <c r="AA943" s="18"/>
     </row>
-    <row r="944" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A944" s="18"/>
       <c r="B944" s="18"/>
       <c r="C944" s="18"/>
@@ -30474,7 +30474,7 @@
       <c r="Z944" s="18"/>
       <c r="AA944" s="18"/>
     </row>
-    <row r="945" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A945" s="18"/>
       <c r="B945" s="18"/>
       <c r="C945" s="18"/>
@@ -30503,7 +30503,7 @@
       <c r="Z945" s="18"/>
       <c r="AA945" s="18"/>
     </row>
-    <row r="946" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A946" s="18"/>
       <c r="B946" s="18"/>
       <c r="C946" s="18"/>
@@ -30532,7 +30532,7 @@
       <c r="Z946" s="18"/>
       <c r="AA946" s="18"/>
     </row>
-    <row r="947" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A947" s="18"/>
       <c r="B947" s="18"/>
       <c r="C947" s="18"/>
@@ -30561,7 +30561,7 @@
       <c r="Z947" s="18"/>
       <c r="AA947" s="18"/>
     </row>
-    <row r="948" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A948" s="18"/>
       <c r="B948" s="18"/>
       <c r="C948" s="18"/>
@@ -30590,7 +30590,7 @@
       <c r="Z948" s="18"/>
       <c r="AA948" s="18"/>
     </row>
-    <row r="949" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A949" s="18"/>
       <c r="B949" s="18"/>
       <c r="C949" s="18"/>
@@ -30619,7 +30619,7 @@
       <c r="Z949" s="18"/>
       <c r="AA949" s="18"/>
     </row>
-    <row r="950" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A950" s="18"/>
       <c r="B950" s="18"/>
       <c r="C950" s="18"/>
@@ -30648,7 +30648,7 @@
       <c r="Z950" s="18"/>
       <c r="AA950" s="18"/>
     </row>
-    <row r="951" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A951" s="18"/>
       <c r="B951" s="18"/>
       <c r="C951" s="18"/>
@@ -30677,7 +30677,7 @@
       <c r="Z951" s="18"/>
       <c r="AA951" s="18"/>
     </row>
-    <row r="952" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A952" s="18"/>
       <c r="B952" s="18"/>
       <c r="C952" s="18"/>
@@ -30706,7 +30706,7 @@
       <c r="Z952" s="18"/>
       <c r="AA952" s="18"/>
     </row>
-    <row r="953" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A953" s="18"/>
       <c r="B953" s="18"/>
       <c r="C953" s="18"/>
@@ -30735,7 +30735,7 @@
       <c r="Z953" s="18"/>
       <c r="AA953" s="18"/>
     </row>
-    <row r="954" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A954" s="18"/>
       <c r="B954" s="18"/>
       <c r="C954" s="18"/>
@@ -30764,7 +30764,7 @@
       <c r="Z954" s="18"/>
       <c r="AA954" s="18"/>
     </row>
-    <row r="955" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A955" s="18"/>
       <c r="B955" s="18"/>
       <c r="C955" s="18"/>
@@ -30793,7 +30793,7 @@
       <c r="Z955" s="18"/>
       <c r="AA955" s="18"/>
     </row>
-    <row r="956" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A956" s="18"/>
       <c r="B956" s="18"/>
       <c r="C956" s="18"/>
@@ -30822,7 +30822,7 @@
       <c r="Z956" s="18"/>
       <c r="AA956" s="18"/>
     </row>
-    <row r="957" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A957" s="18"/>
       <c r="B957" s="18"/>
       <c r="C957" s="18"/>
@@ -30851,7 +30851,7 @@
       <c r="Z957" s="18"/>
       <c r="AA957" s="18"/>
     </row>
-    <row r="958" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A958" s="18"/>
       <c r="B958" s="18"/>
       <c r="C958" s="18"/>
@@ -30880,7 +30880,7 @@
       <c r="Z958" s="18"/>
       <c r="AA958" s="18"/>
     </row>
-    <row r="959" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A959" s="18"/>
       <c r="B959" s="18"/>
       <c r="C959" s="18"/>
@@ -30909,7 +30909,7 @@
       <c r="Z959" s="18"/>
       <c r="AA959" s="18"/>
     </row>
-    <row r="960" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A960" s="18"/>
       <c r="B960" s="18"/>
       <c r="C960" s="18"/>
@@ -30938,7 +30938,7 @@
       <c r="Z960" s="18"/>
       <c r="AA960" s="18"/>
     </row>
-    <row r="961" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A961" s="18"/>
       <c r="B961" s="18"/>
       <c r="C961" s="18"/>
@@ -30967,7 +30967,7 @@
       <c r="Z961" s="18"/>
       <c r="AA961" s="18"/>
     </row>
-    <row r="962" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A962" s="18"/>
       <c r="B962" s="18"/>
       <c r="C962" s="18"/>
@@ -30996,7 +30996,7 @@
       <c r="Z962" s="18"/>
       <c r="AA962" s="18"/>
     </row>
-    <row r="963" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A963" s="18"/>
       <c r="B963" s="18"/>
       <c r="C963" s="18"/>
@@ -31025,7 +31025,7 @@
       <c r="Z963" s="18"/>
       <c r="AA963" s="18"/>
     </row>
-    <row r="964" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A964" s="18"/>
       <c r="B964" s="18"/>
       <c r="C964" s="18"/>
@@ -31054,7 +31054,7 @@
       <c r="Z964" s="18"/>
       <c r="AA964" s="18"/>
     </row>
-    <row r="965" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A965" s="18"/>
       <c r="B965" s="18"/>
       <c r="C965" s="18"/>
@@ -31083,7 +31083,7 @@
       <c r="Z965" s="18"/>
       <c r="AA965" s="18"/>
     </row>
-    <row r="966" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A966" s="18"/>
       <c r="B966" s="18"/>
       <c r="C966" s="18"/>
@@ -31112,7 +31112,7 @@
       <c r="Z966" s="18"/>
       <c r="AA966" s="18"/>
     </row>
-    <row r="967" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A967" s="18"/>
       <c r="B967" s="18"/>
       <c r="C967" s="18"/>
@@ -31141,7 +31141,7 @@
       <c r="Z967" s="18"/>
       <c r="AA967" s="18"/>
     </row>
-    <row r="968" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A968" s="18"/>
       <c r="B968" s="18"/>
       <c r="C968" s="18"/>
@@ -31170,7 +31170,7 @@
       <c r="Z968" s="18"/>
       <c r="AA968" s="18"/>
     </row>
-    <row r="969" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A969" s="18"/>
       <c r="B969" s="18"/>
       <c r="C969" s="18"/>
@@ -31199,7 +31199,7 @@
       <c r="Z969" s="18"/>
       <c r="AA969" s="18"/>
     </row>
-    <row r="970" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A970" s="18"/>
       <c r="B970" s="18"/>
       <c r="C970" s="18"/>
@@ -31228,7 +31228,7 @@
       <c r="Z970" s="18"/>
       <c r="AA970" s="18"/>
     </row>
-    <row r="971" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A971" s="18"/>
       <c r="B971" s="18"/>
       <c r="C971" s="18"/>
@@ -31257,7 +31257,7 @@
       <c r="Z971" s="18"/>
       <c r="AA971" s="18"/>
     </row>
-    <row r="972" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A972" s="18"/>
       <c r="B972" s="18"/>
       <c r="C972" s="18"/>
@@ -31286,7 +31286,7 @@
       <c r="Z972" s="18"/>
       <c r="AA972" s="18"/>
     </row>
-    <row r="973" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A973" s="18"/>
       <c r="B973" s="18"/>
       <c r="C973" s="18"/>
@@ -31315,7 +31315,7 @@
       <c r="Z973" s="18"/>
       <c r="AA973" s="18"/>
     </row>
-    <row r="974" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A974" s="18"/>
       <c r="B974" s="18"/>
       <c r="C974" s="18"/>
@@ -31344,7 +31344,7 @@
       <c r="Z974" s="18"/>
       <c r="AA974" s="18"/>
     </row>
-    <row r="975" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A975" s="18"/>
       <c r="B975" s="18"/>
       <c r="C975" s="18"/>
@@ -31373,7 +31373,7 @@
       <c r="Z975" s="18"/>
       <c r="AA975" s="18"/>
     </row>
-    <row r="976" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A976" s="18"/>
       <c r="B976" s="18"/>
       <c r="C976" s="18"/>
@@ -31402,7 +31402,7 @@
       <c r="Z976" s="18"/>
       <c r="AA976" s="18"/>
     </row>
-    <row r="977" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A977" s="18"/>
       <c r="B977" s="18"/>
       <c r="C977" s="18"/>
@@ -31431,7 +31431,7 @@
       <c r="Z977" s="18"/>
       <c r="AA977" s="18"/>
     </row>
-    <row r="978" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A978" s="18"/>
       <c r="B978" s="18"/>
       <c r="C978" s="18"/>
@@ -31460,7 +31460,7 @@
       <c r="Z978" s="18"/>
       <c r="AA978" s="18"/>
     </row>
-    <row r="979" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A979" s="18"/>
       <c r="B979" s="18"/>
       <c r="C979" s="18"/>
@@ -31489,7 +31489,7 @@
       <c r="Z979" s="18"/>
       <c r="AA979" s="18"/>
     </row>
-    <row r="980" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A980" s="18"/>
       <c r="B980" s="18"/>
       <c r="C980" s="18"/>
@@ -31518,7 +31518,7 @@
       <c r="Z980" s="18"/>
       <c r="AA980" s="18"/>
     </row>
-    <row r="981" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A981" s="18"/>
       <c r="B981" s="18"/>
       <c r="C981" s="18"/>
@@ -31547,7 +31547,7 @@
       <c r="Z981" s="18"/>
       <c r="AA981" s="18"/>
     </row>
-    <row r="982" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A982" s="18"/>
       <c r="B982" s="18"/>
       <c r="C982" s="18"/>
@@ -31576,7 +31576,7 @@
       <c r="Z982" s="18"/>
       <c r="AA982" s="18"/>
     </row>
-    <row r="983" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A983" s="18"/>
       <c r="B983" s="18"/>
       <c r="C983" s="18"/>
@@ -31605,7 +31605,7 @@
       <c r="Z983" s="18"/>
       <c r="AA983" s="18"/>
     </row>
-    <row r="984" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A984" s="18"/>
       <c r="B984" s="18"/>
       <c r="C984" s="18"/>
@@ -31634,7 +31634,7 @@
       <c r="Z984" s="18"/>
       <c r="AA984" s="18"/>
     </row>
-    <row r="985" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A985" s="18"/>
       <c r="B985" s="18"/>
       <c r="C985" s="18"/>
@@ -31663,7 +31663,7 @@
       <c r="Z985" s="18"/>
       <c r="AA985" s="18"/>
     </row>
-    <row r="986" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A986" s="18"/>
       <c r="B986" s="18"/>
       <c r="C986" s="18"/>
@@ -31692,7 +31692,7 @@
       <c r="Z986" s="18"/>
       <c r="AA986" s="18"/>
     </row>
-    <row r="987" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A987" s="18"/>
       <c r="B987" s="18"/>
       <c r="C987" s="18"/>
@@ -31721,7 +31721,7 @@
       <c r="Z987" s="18"/>
       <c r="AA987" s="18"/>
     </row>
-    <row r="988" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A988" s="18"/>
       <c r="B988" s="18"/>
       <c r="C988" s="18"/>
@@ -31750,7 +31750,7 @@
       <c r="Z988" s="18"/>
       <c r="AA988" s="18"/>
     </row>
-    <row r="989" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A989" s="18"/>
       <c r="B989" s="18"/>
       <c r="C989" s="18"/>
@@ -31779,7 +31779,7 @@
       <c r="Z989" s="18"/>
       <c r="AA989" s="18"/>
     </row>
-    <row r="990" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A990" s="18"/>
       <c r="B990" s="18"/>
       <c r="C990" s="18"/>
@@ -31808,7 +31808,7 @@
       <c r="Z990" s="18"/>
       <c r="AA990" s="18"/>
     </row>
-    <row r="991" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A991" s="18"/>
       <c r="B991" s="18"/>
       <c r="C991" s="18"/>
@@ -31837,7 +31837,7 @@
       <c r="Z991" s="18"/>
       <c r="AA991" s="18"/>
     </row>
-    <row r="992" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A992" s="18"/>
       <c r="B992" s="18"/>
       <c r="C992" s="18"/>
@@ -31866,7 +31866,7 @@
       <c r="Z992" s="18"/>
       <c r="AA992" s="18"/>
     </row>
-    <row r="993" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A993" s="18"/>
       <c r="B993" s="18"/>
       <c r="C993" s="18"/>
@@ -31895,7 +31895,7 @@
       <c r="Z993" s="18"/>
       <c r="AA993" s="18"/>
     </row>
-    <row r="994" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A994" s="18"/>
       <c r="B994" s="18"/>
       <c r="C994" s="18"/>
@@ -31924,7 +31924,7 @@
       <c r="Z994" s="18"/>
       <c r="AA994" s="18"/>
     </row>
-    <row r="995" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A995" s="18"/>
       <c r="B995" s="18"/>
       <c r="C995" s="18"/>
@@ -31953,7 +31953,7 @@
       <c r="Z995" s="18"/>
       <c r="AA995" s="18"/>
     </row>
-    <row r="996" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A996" s="18"/>
       <c r="B996" s="18"/>
       <c r="C996" s="18"/>
@@ -31982,7 +31982,7 @@
       <c r="Z996" s="18"/>
       <c r="AA996" s="18"/>
     </row>
-    <row r="997" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A997" s="18"/>
       <c r="B997" s="18"/>
       <c r="C997" s="18"/>
@@ -32011,7 +32011,7 @@
       <c r="Z997" s="18"/>
       <c r="AA997" s="18"/>
     </row>
-    <row r="998" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A998" s="18"/>
       <c r="B998" s="18"/>
       <c r="C998" s="18"/>
@@ -32040,7 +32040,7 @@
       <c r="Z998" s="18"/>
       <c r="AA998" s="18"/>
     </row>
-    <row r="999" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A999" s="18"/>
       <c r="B999" s="18"/>
       <c r="C999" s="18"/>
@@ -32069,7 +32069,7 @@
       <c r="Z999" s="18"/>
       <c r="AA999" s="18"/>
     </row>
-    <row r="1000" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="18"/>
       <c r="B1000" s="18"/>
       <c r="C1000" s="18"/>
@@ -32221,32 +32221,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="56.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" customWidth="1"/>
-    <col min="13" max="13" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1"/>
-    <col min="15" max="15" width="16.81640625" customWidth="1"/>
-    <col min="17" max="17" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7265625" customWidth="1"/>
-    <col min="19" max="19" width="17.26953125" customWidth="1"/>
-    <col min="21" max="21" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.36328125" customWidth="1"/>
-    <col min="23" max="23" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -32254,7 +32254,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -32320,7 +32320,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -32385,7 +32385,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -32450,7 +32450,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -32515,7 +32515,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -32580,7 +32580,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -32645,7 +32645,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -32710,7 +32710,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -32766,7 +32766,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
         <v>246</v>
       </c>
@@ -32804,7 +32804,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
         <v>248</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
         <v>250</v>
       </c>
@@ -32862,7 +32862,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M14" t="s">
         <v>268</v>
       </c>
@@ -32873,7 +32873,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
         <v>269</v>
       </c>
@@ -32884,7 +32884,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" t="s">
         <v>270</v>
       </c>
@@ -32895,7 +32895,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="13:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="13:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
         <v>271</v>
       </c>
@@ -32906,7 +32906,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="13:15" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="13:15" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
         <v>272</v>
       </c>
@@ -32917,7 +32917,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="13:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="13:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
         <v>273</v>
       </c>
@@ -33069,26 +33069,26 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.90625" customWidth="1"/>
-    <col min="2" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="33.54296875" customWidth="1"/>
-    <col min="6" max="8" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+    <col min="2" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.90625" customWidth="1"/>
-    <col min="13" max="13" width="48.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.90625" customWidth="1"/>
-    <col min="17" max="17" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.90625" customWidth="1"/>
-    <col min="21" max="21" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="13.90625" customWidth="1"/>
+    <col min="10" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>397</v>
       </c>
@@ -33096,7 +33096,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>398</v>
       </c>
@@ -33162,7 +33162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>427</v>
       </c>
@@ -33179,7 +33179,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>403</v>
       </c>
@@ -33190,7 +33190,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>404</v>
       </c>
@@ -33201,7 +33201,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>405</v>
       </c>
@@ -33212,7 +33212,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>406</v>
       </c>
@@ -33223,7 +33223,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>407</v>
       </c>
@@ -33236,7 +33236,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>409</v>
       </c>
@@ -33258,7 +33258,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>424</v>
       </c>
@@ -33268,7 +33268,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>410</v>
       </c>
@@ -33279,7 +33279,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>411</v>
       </c>
@@ -33290,7 +33290,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>412</v>
       </c>
@@ -33301,7 +33301,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>413</v>
       </c>
@@ -33312,7 +33312,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>425</v>
       </c>
@@ -33322,7 +33322,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>414</v>
       </c>
@@ -33333,7 +33333,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>415</v>
       </c>
@@ -33341,7 +33341,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>416</v>
       </c>
@@ -33349,7 +33349,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>417</v>
       </c>
@@ -33357,14 +33357,14 @@
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>426</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>418</v>
       </c>
@@ -33372,7 +33372,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>419</v>
       </c>
@@ -33380,7 +33380,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>420</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -33396,7 +33396,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>422</v>
       </c>
@@ -33404,7 +33404,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>423</v>
       </c>
@@ -33457,13 +33457,13 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>135</v>
       </c>
@@ -33474,7 +33474,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>138</v>
       </c>
@@ -33485,7 +33485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>139</v>
       </c>
@@ -33496,7 +33496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>140</v>
       </c>
@@ -33507,7 +33507,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>143</v>
       </c>

--- a/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
+++ b/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\OneDrive - inc\RenomWork\V-Learning\documents_assets\New CourseMap\Intermediate Course\3_Decision Tree, Random Forest and Gradient Boosting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E1165B27-95A9-467C-B045-FE00923C20B2}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B0EEA8F0-D938-4F3D-8231-035C16894FD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{123C3A31-86E6-435C-82D5-45288C94208C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="482">
   <si>
     <t>Basic Course</t>
   </si>
@@ -1434,6 +1434,57 @@
   </si>
   <si>
     <t>1_Decision Tree model Overview</t>
+  </si>
+  <si>
+    <t>1_1_Underlying Concept of Decision Tree</t>
+  </si>
+  <si>
+    <t>1_2_Homogeneous Splitting</t>
+  </si>
+  <si>
+    <t>1_3_Criterion of Decision Tree</t>
+  </si>
+  <si>
+    <t>1_4_Decision Tree Hyperparameter</t>
+  </si>
+  <si>
+    <t>1_5_Overfitting in Decision Tree</t>
+  </si>
+  <si>
+    <t>2_1_Decision Tree Library Importing</t>
+  </si>
+  <si>
+    <t>2_2_Data Preparation</t>
+  </si>
+  <si>
+    <t>2_3_Feature Selection</t>
+  </si>
+  <si>
+    <t>2_4_Model Fitting</t>
+  </si>
+  <si>
+    <t>2_5_Result Visualization Part-1</t>
+  </si>
+  <si>
+    <t>2_5_Result Visualization Part-2</t>
+  </si>
+  <si>
+    <t>3_Graphviz Installation</t>
+  </si>
+  <si>
+    <t>4_1_Tree Model Visualization</t>
+  </si>
+  <si>
+    <t>4_2_Interactive Tree Model Visualization</t>
+  </si>
+  <si>
+    <t>5_Exercise Study Case</t>
+  </si>
+  <si>
+    <t>2_Decision Tree in Practice</t>
+  </si>
+  <si>
+    <t>4_Tree Visualization</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1779,6 +1830,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -33069,17 +33123,19 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1"/>
@@ -33189,6 +33245,9 @@
       <c r="E5" t="s">
         <v>450</v>
       </c>
+      <c r="I5" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -33200,6 +33259,9 @@
       <c r="E6" t="s">
         <v>451</v>
       </c>
+      <c r="I6" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -33211,6 +33273,9 @@
       <c r="E7" t="s">
         <v>452</v>
       </c>
+      <c r="I7" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -33222,6 +33287,9 @@
       <c r="E8" t="s">
         <v>453</v>
       </c>
+      <c r="I8" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -33235,6 +33303,9 @@
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
+      <c r="I9" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -33246,6 +33317,11 @@
       <c r="E10" t="s">
         <v>454</v>
       </c>
+      <c r="I10" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -33256,6 +33332,9 @@
       </c>
       <c r="E11" t="s">
         <v>455</v>
+      </c>
+      <c r="I11" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -33267,6 +33346,9 @@
       <c r="E12" t="s">
         <v>456</v>
       </c>
+      <c r="I12" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -33278,6 +33360,9 @@
       <c r="E13" t="s">
         <v>457</v>
       </c>
+      <c r="I13" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -33289,6 +33374,9 @@
       <c r="E14" t="s">
         <v>458</v>
       </c>
+      <c r="I14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -33300,6 +33388,9 @@
       <c r="E15" t="s">
         <v>459</v>
       </c>
+      <c r="I15" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -33311,8 +33402,11 @@
       <c r="E16" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>425</v>
       </c>
@@ -33321,8 +33415,11 @@
       <c r="E17" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I17" s="34" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>414</v>
       </c>
@@ -33332,47 +33429,63 @@
       <c r="E18" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>415</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>416</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I20" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>417</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>426</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>418</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>419</v>
       </c>
@@ -33380,7 +33493,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>420</v>
       </c>
@@ -33388,7 +33501,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -33396,7 +33509,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>422</v>
       </c>
@@ -33404,7 +33517,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>423</v>
       </c>
@@ -33413,7 +33526,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A12:C12"/>
@@ -33421,6 +33534,9 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{29744DEC-2F31-4198-9B91-6FDB7BC2CFFC}"/>

--- a/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
+++ b/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\OneDrive - inc\RenomWork\V-Learning\documents_assets\New CourseMap\Intermediate Course\3_Decision Tree, Random Forest and Gradient Boosting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B0EEA8F0-D938-4F3D-8231-035C16894FD3}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8CDC9B63-F316-45D0-AE70-6191A87EB415}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{123C3A31-86E6-435C-82D5-45288C94208C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="504">
   <si>
     <t>Basic Course</t>
   </si>
@@ -1427,9 +1427,6 @@
     <t>2_8_Gamma &amp; Kernel Optimization</t>
   </si>
   <si>
-    <t>2_9_Study Case Practice</t>
-  </si>
-  <si>
     <t>2_Support Vector Machine in Practice</t>
   </si>
   <si>
@@ -1485,6 +1482,75 @@
   </si>
   <si>
     <t>4_Tree Visualization</t>
+  </si>
+  <si>
+    <t>1_Clustering Overview</t>
+  </si>
+  <si>
+    <t>3_Study Case Practice</t>
+  </si>
+  <si>
+    <t>1_1_Clustering Ilustration.md</t>
+  </si>
+  <si>
+    <t>1_2_Clustering Method.md</t>
+  </si>
+  <si>
+    <t>1_3_K-Means Overview.md</t>
+  </si>
+  <si>
+    <t>1_4_Elbow Method in K-Means.md</t>
+  </si>
+  <si>
+    <t>1_5 DBSCAN Overview.md</t>
+  </si>
+  <si>
+    <t>1_6_DBSCAN Hyperparameter.md</t>
+  </si>
+  <si>
+    <t>1_7_Hierarchial Clustering.md</t>
+  </si>
+  <si>
+    <t>2_1_Importing Clustering Library.md</t>
+  </si>
+  <si>
+    <t>2_2_Data Plotting.md</t>
+  </si>
+  <si>
+    <t>2_3_Applying K-Means.md</t>
+  </si>
+  <si>
+    <t>2_4_K-Means Visualization.md</t>
+  </si>
+  <si>
+    <t>2_5_Applying Elbow Method on K-Means.md</t>
+  </si>
+  <si>
+    <t>3_1_Apply DBSCAN without Scaling.md</t>
+  </si>
+  <si>
+    <t>3_2_DBSCAN with Standard Scaler.md</t>
+  </si>
+  <si>
+    <t>3_3_DBSCAN Visualization.md</t>
+  </si>
+  <si>
+    <t>4_1_Applying Hierachial Clustering.md</t>
+  </si>
+  <si>
+    <t>4_2_Dendogram Visualization.md</t>
+  </si>
+  <si>
+    <t>5_Clustering Study Case.md</t>
+  </si>
+  <si>
+    <t>2_ K-Means Clustering</t>
+  </si>
+  <si>
+    <t>3_DBSCAN Clustering</t>
+  </si>
+  <si>
+    <t>4_Hierarchial Clustering</t>
   </si>
 </sst>
 </file>
@@ -33122,8 +33188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3245D9-6EA5-442E-82A1-75E235F38C29}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33230,10 +33296,15 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
       <c r="I4" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
+      <c r="M4" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -33246,7 +33317,10 @@
         <v>450</v>
       </c>
       <c r="I5" t="s">
-        <v>465</v>
+        <v>464</v>
+      </c>
+      <c r="M5" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -33260,7 +33334,10 @@
         <v>451</v>
       </c>
       <c r="I6" t="s">
-        <v>466</v>
+        <v>465</v>
+      </c>
+      <c r="M6" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -33274,7 +33351,10 @@
         <v>452</v>
       </c>
       <c r="I7" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="M7" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -33288,7 +33368,10 @@
         <v>453</v>
       </c>
       <c r="I8" t="s">
-        <v>468</v>
+        <v>467</v>
+      </c>
+      <c r="M8" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -33299,12 +33382,15 @@
         <v>432</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="I9" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="M9" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -33318,10 +33404,13 @@
         <v>454</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
+      <c r="M10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -33334,7 +33423,10 @@
         <v>455</v>
       </c>
       <c r="I11" t="s">
-        <v>470</v>
+        <v>469</v>
+      </c>
+      <c r="M11" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -33347,8 +33439,13 @@
         <v>456</v>
       </c>
       <c r="I12" t="s">
-        <v>471</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -33361,7 +33458,10 @@
         <v>457</v>
       </c>
       <c r="I13" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="M13" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -33375,7 +33475,10 @@
         <v>458</v>
       </c>
       <c r="I14" t="s">
-        <v>473</v>
+        <v>472</v>
+      </c>
+      <c r="M14" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -33389,7 +33492,10 @@
         <v>459</v>
       </c>
       <c r="I15" t="s">
-        <v>474</v>
+        <v>473</v>
+      </c>
+      <c r="M15" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -33403,10 +33509,13 @@
         <v>460</v>
       </c>
       <c r="I16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="M16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>425</v>
       </c>
@@ -33416,10 +33525,13 @@
         <v>461</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="M17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>414</v>
       </c>
@@ -33427,11 +33539,16 @@
         <v>439</v>
       </c>
       <c r="E18" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>415</v>
       </c>
@@ -33439,8 +33556,11 @@
         <v>440</v>
       </c>
       <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>416</v>
       </c>
@@ -33448,12 +33568,15 @@
         <v>441</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>417</v>
       </c>
@@ -33461,20 +33584,28 @@
         <v>442</v>
       </c>
       <c r="I21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="M21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>426</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="I22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>418</v>
       </c>
@@ -33482,26 +33613,35 @@
         <v>443</v>
       </c>
       <c r="I23" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="M23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>419</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>420</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -33509,7 +33649,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>422</v>
       </c>
@@ -33517,7 +33657,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>423</v>
       </c>
@@ -33526,7 +33666,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A12:C12"/>
@@ -33562,6 +33706,7 @@
     <hyperlink ref="C28" r:id="rId21" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/1_Linear Model and Intro to Supervised Machine Learning/4_6_Logistic Regression Test Yourself.md" xr:uid="{23BC8C9F-3549-4BD6-A2F4-1384D00F9D22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
+++ b/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\OneDrive - inc\RenomWork\V-Learning\documents_assets\New CourseMap\Intermediate Course\3_Decision Tree, Random Forest and Gradient Boosting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8CDC9B63-F316-45D0-AE70-6191A87EB415}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D7E1A51D-AB5F-4292-9B59-21ED6A45A2F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{123C3A31-86E6-435C-82D5-45288C94208C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="521">
   <si>
     <t>Basic Course</t>
   </si>
@@ -1551,6 +1551,57 @@
   </si>
   <si>
     <t>4_Hierarchial Clustering</t>
+  </si>
+  <si>
+    <t>1_1_Data Science Workflow Overview.md</t>
+  </si>
+  <si>
+    <t>1_2_Model Validation Overview.md</t>
+  </si>
+  <si>
+    <t>1_3_Crossvalidation Methodology.md</t>
+  </si>
+  <si>
+    <t>1_4_Hyperparameter Optimization.md</t>
+  </si>
+  <si>
+    <t>1_5_Grid Search and Random Search.md</t>
+  </si>
+  <si>
+    <t>2_1_Import Crossvalidation Library.md</t>
+  </si>
+  <si>
+    <t>2_2_Data Preparation.md</t>
+  </si>
+  <si>
+    <t>3_1_K-Fold Crossvalidation.md</t>
+  </si>
+  <si>
+    <t>3_2_LOOCV Crossvalidation.md</t>
+  </si>
+  <si>
+    <t>4_1_Grid Search.md</t>
+  </si>
+  <si>
+    <t>4_2_Random Search.md</t>
+  </si>
+  <si>
+    <t>5_Optimized Tree Visualization.md</t>
+  </si>
+  <si>
+    <t>6_Grid Search vs Random Search.md</t>
+  </si>
+  <si>
+    <t>1_Validation and Optimization</t>
+  </si>
+  <si>
+    <t>2_Validation and Optimization in Practice</t>
+  </si>
+  <si>
+    <t>3_Crossvalidation Method</t>
+  </si>
+  <si>
+    <t>4_Optimization Method</t>
   </si>
 </sst>
 </file>
@@ -33188,8 +33239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3245D9-6EA5-442E-82A1-75E235F38C29}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33305,6 +33356,11 @@
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
+      <c r="Q4" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -33322,6 +33378,9 @@
       <c r="M5" t="s">
         <v>483</v>
       </c>
+      <c r="Q5" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -33339,6 +33398,9 @@
       <c r="M6" t="s">
         <v>484</v>
       </c>
+      <c r="Q6" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -33356,6 +33418,9 @@
       <c r="M7" t="s">
         <v>485</v>
       </c>
+      <c r="Q7" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -33372,6 +33437,9 @@
       </c>
       <c r="M8" t="s">
         <v>486</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -33392,6 +33460,9 @@
       <c r="M9" t="s">
         <v>487</v>
       </c>
+      <c r="Q9" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -33411,6 +33482,11 @@
       <c r="M10" t="s">
         <v>488</v>
       </c>
+      <c r="Q10" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -33427,6 +33503,9 @@
       </c>
       <c r="M11" t="s">
         <v>489</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -33446,6 +33525,9 @@
       </c>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
+      <c r="Q12" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -33463,6 +33545,11 @@
       <c r="M13" t="s">
         <v>490</v>
       </c>
+      <c r="Q13" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -33480,6 +33567,9 @@
       <c r="M14" t="s">
         <v>491</v>
       </c>
+      <c r="Q14" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -33497,6 +33587,9 @@
       <c r="M15" t="s">
         <v>492</v>
       </c>
+      <c r="Q15" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -33514,8 +33607,13 @@
       <c r="M16" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>425</v>
       </c>
@@ -33530,8 +33628,11 @@
       <c r="M17" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>414</v>
       </c>
@@ -33547,8 +33648,11 @@
       </c>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>415</v>
       </c>
@@ -33559,8 +33663,11 @@
       <c r="M19" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>416</v>
       </c>
@@ -33575,8 +33682,11 @@
       <c r="M20" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>417</v>
       </c>
@@ -33590,7 +33700,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>426</v>
       </c>
@@ -33605,7 +33715,7 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>418</v>
       </c>
@@ -33619,7 +33729,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>419</v>
       </c>
@@ -33630,7 +33740,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>420</v>
       </c>
@@ -33641,7 +33751,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -33649,7 +33759,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>422</v>
       </c>
@@ -33657,7 +33767,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>423</v>
       </c>
@@ -33666,18 +33776,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="I4:K4"/>
+  <mergeCells count="18">
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q16:S16"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I17:I19"/>

--- a/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
+++ b/New CourseMap/Intermediate Course/3_Decision Tree, Random Forest and Gradient Boosting/Video List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\OneDrive - inc\RenomWork\V-Learning\documents_assets\New CourseMap\Intermediate Course\3_Decision Tree, Random Forest and Gradient Boosting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D7E1A51D-AB5F-4292-9B59-21ED6A45A2F0}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="6_{A533AE22-1D8C-4384-82C0-713BF4474D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{140F4938-145E-4C7D-8832-D9E36CB125FB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{123C3A31-86E6-435C-82D5-45288C94208C}"/>
+    <workbookView xWindow="7500" yWindow="1245" windowWidth="16005" windowHeight="10200" firstSheet="2" activeTab="3" xr2:uid="{123C3A31-86E6-435C-82D5-45288C94208C}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Course" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="595">
   <si>
     <t>Basic Course</t>
   </si>
@@ -1602,6 +1602,228 @@
   </si>
   <si>
     <t>4_Optimization Method</t>
+  </si>
+  <si>
+    <t>1_Study Case Overview</t>
+  </si>
+  <si>
+    <t>2_Predict Diamond Price</t>
+  </si>
+  <si>
+    <t>3_Credit Card Default Clasification</t>
+  </si>
+  <si>
+    <t>4_Credit Card Customer Clustering</t>
+  </si>
+  <si>
+    <t>5_Exploratory Data Analysis Guide</t>
+  </si>
+  <si>
+    <t>6_Data Preprocessing Guide</t>
+  </si>
+  <si>
+    <t>7_Data Modelling Guide</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/1_1_Intro%20to%20Support%20Vector%20Machine.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/1_2_Breakdown%20Support%20Vector%20Machine.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/1_3_Hyperparameter%20Tuning.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/1_4_Margin%20and%20Kernel%20SVM.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_1_Installing%20Mlxtend.md</t>
+  </si>
+  <si>
+    <t>No Video, only gif in markdown</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_2_SVM%20Library%20Importing.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_3_Data%20Preparation.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_4_SVM%20Modeling.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_5_SVM%20Fit%20and%20Predict.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_6_SVM%20Visualization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_7_Regularization%20Optimization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_8_Gamma%20%26%20Kernel%20Optimization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/2_Support%20Vector%20Machine/2_9_Study%20Case%20Practice.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/1_1_Underlying%20Concept%20of%20Decision%20Tree.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/1_2_Homogeneous%20Splitting.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/1_3_Criterion%20of%20Decision%20Tree.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/1_4_Decision%20Tree%20Hyperparameter.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/1_5_Overfitting%20in%20Decision%20Tree.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/2_1_Decision%20Tree%20Library%20Importing.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/2_2_Data%20Preparation.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/2_3_Feature%20Selection.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/2_4_Model%20Fitting.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/2_5_Result%20Visualization%20Part-1.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/2_5_Result%20Visualization%20Part-2.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/3_Graphviz%20Installation.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/4_1_Tree%20Model%20Visualization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/4_2_Interactive%20Tree%20Model%20Visualization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/3_Decision%20Tree%2C%20Random%20Forest%20and%20Gradient%20Boosting/5_Exercise%20Study%20Case.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/1_1_Clustering%20Ilustration.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/1_2_Clustering%20Method.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/1_3_K-Means%20Overview.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/1_4_Elbow%20Method%20in%20K-Means.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/1_5%20DBSCAN%20Overview.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/1_6_DBSCAN%20Hyperparameter.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/1_7_Hierarchial%20Clustering.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/2_1_Importing%20Clustering%20Library.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/2_2_Data%20Plotting.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/2_3_Applying%20K-Means.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/2_4_K-Means%20Visualization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/2_5_Applying%20Elbow%20Method%20on%20K-Means.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/3_1_Apply%20DBSCAN%20without%20Scaling.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/3_2_DBSCAN%20with%20Standard%20Scaler.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/3_3_DBSCAN%20Visualization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/4_1_Applying%20Hierachial%20Clustering.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/4_2_Dendogram%20Visualization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/4_Clustering%20and%20Unsupervised%20Machine%20Learning/5_Clustering%20Study%20Case.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/1_1_Data%20Science%20Workflow%20Overview.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/1_2_Model%20Validation%20Overview.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/1_3_Crossvalidation%20Methodology.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/1_4_Hyperparameter%20Optimization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/1_5_Grid%20Search%20and%20Random%20Search.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/2_1_Import%20Crossvalidation%20Library.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/2_2_Data%20Preparation.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/3_1_K-Fold%20Crossvalidation.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/3_2_LOOCV%20Crossvalidation.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/4_1_Grid%20Search.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/4_2_Random%20Search.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/5_Optimized%20Tree%20Visualization.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/5_Crossvalidation%20and%20Optimization/6_Grid%20Search%20vs%20Random%20Search.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/6_Study%20Case/1_Study%20Case%20Overview.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/6_Study%20Case/2_Predict%20Diamond%20Price.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/6_Study%20Case/3_Credit%20Card%20Default%20Clasification.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/6_Study%20Case/4_Credit%20Card%20Customer%20Clustering.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/6_Study%20Case/5_Exploratory%20Data%20Analysis%20Guide.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/6_Study%20Case/6_Data%20Preprocessing%20Guide.md</t>
+  </si>
+  <si>
+    <t>https://github.com/BenedictusAryo/documents_assets/blob/master/New%20CourseMap/Intermediate%20Course/6_Study%20Case/7_Data%20Modelling%20Guide.md</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +2099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1945,11 +2167,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -33239,8 +33479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3245D9-6EA5-442E-82A1-75E235F38C29}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33248,16 +33488,18 @@
     <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="27" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33325,42 +33567,42 @@
       <c r="W3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="I4" s="33" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="I4" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="M4" s="33" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="M4" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="Q4" s="33" t="s">
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="Q4" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="U4" t="s">
+        <v>521</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -33372,14 +33614,32 @@
       <c r="E5" t="s">
         <v>450</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="I5" t="s">
         <v>464</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>542</v>
+      </c>
       <c r="M5" t="s">
         <v>483</v>
       </c>
+      <c r="O5" s="3" t="s">
+        <v>557</v>
+      </c>
       <c r="Q5" t="s">
         <v>504</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="U5" t="s">
+        <v>522</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -33392,14 +33652,32 @@
       <c r="E6" t="s">
         <v>451</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>529</v>
+      </c>
       <c r="I6" t="s">
         <v>465</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>543</v>
+      </c>
       <c r="M6" t="s">
         <v>484</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>558</v>
+      </c>
       <c r="Q6" t="s">
         <v>505</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="U6" t="s">
+        <v>523</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -33412,14 +33690,32 @@
       <c r="E7" t="s">
         <v>452</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="I7" t="s">
         <v>466</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>544</v>
+      </c>
       <c r="M7" t="s">
         <v>485</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="Q7" t="s">
         <v>506</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="U7" t="s">
+        <v>524</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -33432,14 +33728,32 @@
       <c r="E8" t="s">
         <v>453</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="I8" t="s">
         <v>467</v>
       </c>
+      <c r="K8" s="3" t="s">
+        <v>545</v>
+      </c>
       <c r="M8" t="s">
         <v>486</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>560</v>
+      </c>
       <c r="Q8" t="s">
         <v>507</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="U8" t="s">
+        <v>525</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -33449,23 +33763,38 @@
       <c r="C9" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="I9" t="s">
         <v>468</v>
       </c>
+      <c r="K9" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="M9" t="s">
         <v>487</v>
       </c>
+      <c r="O9" s="3" t="s">
+        <v>561</v>
+      </c>
       <c r="Q9" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="S9" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="U9" t="s">
+        <v>526</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>408</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -33474,19 +33803,34 @@
       <c r="E10" t="s">
         <v>454</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="F10" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="I10" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="M10" t="s">
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="M10" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="Q10" s="33" t="s">
+      <c r="O10" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q10" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="U10" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -33498,35 +33842,56 @@
       <c r="E11" t="s">
         <v>455</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="I11" t="s">
         <v>469</v>
       </c>
+      <c r="K11" s="3" t="s">
+        <v>547</v>
+      </c>
       <c r="M11" t="s">
         <v>489</v>
       </c>
+      <c r="O11" s="3" t="s">
+        <v>563</v>
+      </c>
       <c r="Q11" t="s">
         <v>509</v>
       </c>
+      <c r="S11" s="3" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="E12" t="s">
         <v>456</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="I12" t="s">
         <v>470</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="K12" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="M12" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
       <c r="Q12" t="s">
         <v>510</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -33539,17 +33904,26 @@
       <c r="E13" t="s">
         <v>457</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I13" t="s">
         <v>471</v>
       </c>
+      <c r="K13" s="3" t="s">
+        <v>549</v>
+      </c>
       <c r="M13" t="s">
         <v>490</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="O13" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q13" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -33561,14 +33935,26 @@
       <c r="E14" t="s">
         <v>458</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="I14" t="s">
         <v>472</v>
       </c>
+      <c r="K14" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="M14" t="s">
         <v>491</v>
       </c>
+      <c r="O14" s="3" t="s">
+        <v>565</v>
+      </c>
       <c r="Q14" t="s">
         <v>511</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -33581,14 +33967,26 @@
       <c r="E15" t="s">
         <v>459</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>538</v>
+      </c>
       <c r="I15" t="s">
         <v>473</v>
       </c>
+      <c r="K15" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="M15" t="s">
         <v>492</v>
       </c>
+      <c r="O15" s="3" t="s">
+        <v>566</v>
+      </c>
       <c r="Q15" t="s">
         <v>512</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -33601,38 +33999,59 @@
       <c r="E16" t="s">
         <v>460</v>
       </c>
+      <c r="G16" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="I16" t="s">
         <v>474</v>
       </c>
+      <c r="K16" s="3" t="s">
+        <v>552</v>
+      </c>
       <c r="M16" t="s">
         <v>493</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="O16" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q16" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="E17" t="s">
         <v>461</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="G17" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I17" s="36" t="s">
         <v>475</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>553</v>
       </c>
       <c r="M17" t="s">
         <v>494</v>
       </c>
+      <c r="O17" s="3" t="s">
+        <v>568</v>
+      </c>
       <c r="Q17" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S17" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>414</v>
       </c>
@@ -33642,51 +34061,71 @@
       <c r="E18" t="s">
         <v>482</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="M18" s="33" t="s">
+      <c r="G18" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="K18" s="40"/>
+      <c r="M18" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="Q18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>415</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="I19" s="34"/>
+      <c r="I19" s="36"/>
+      <c r="K19" s="40"/>
       <c r="M19" t="s">
         <v>495</v>
       </c>
+      <c r="O19" s="3" t="s">
+        <v>569</v>
+      </c>
       <c r="Q19" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S19" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>416</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
       <c r="M20" t="s">
         <v>496</v>
       </c>
+      <c r="O20" s="3" t="s">
+        <v>570</v>
+      </c>
       <c r="Q20" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>417</v>
       </c>
@@ -33696,26 +34135,35 @@
       <c r="I21" t="s">
         <v>476</v>
       </c>
+      <c r="K21" s="3" t="s">
+        <v>554</v>
+      </c>
       <c r="M21" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="O21" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="I22" t="s">
         <v>477</v>
       </c>
-      <c r="M22" s="33" t="s">
+      <c r="K22" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="M22" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>418</v>
       </c>
@@ -33725,11 +34173,17 @@
       <c r="I23" t="s">
         <v>478</v>
       </c>
+      <c r="K23" s="3" t="s">
+        <v>556</v>
+      </c>
       <c r="M23" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O23" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>419</v>
       </c>
@@ -33739,8 +34193,11 @@
       <c r="M24" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O24" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>420</v>
       </c>
@@ -33750,8 +34207,11 @@
       <c r="M25" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O25" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -33759,7 +34219,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>422</v>
       </c>
@@ -33767,7 +34227,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>423</v>
       </c>
@@ -33776,7 +34236,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="Q13:S13"/>
@@ -33795,6 +34255,7 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I17:I19"/>
+    <mergeCell ref="K17:K19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{29744DEC-2F31-4198-9B91-6FDB7BC2CFFC}"/>
@@ -33818,9 +34279,75 @@
     <hyperlink ref="C26" r:id="rId19" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/1_Linear Model and Intro to Supervised Machine Learning/4_4_Logistic Regression Probability Plot.md" xr:uid="{5D1A88F3-7BF0-4737-81A5-46667AE7925D}"/>
     <hyperlink ref="C27" r:id="rId20" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/1_Linear Model and Intro to Supervised Machine Learning/4_5_Logistic Regression Result Testing.md" xr:uid="{DA1414E3-0F3C-46F5-B219-0BD2386EA8B0}"/>
     <hyperlink ref="C28" r:id="rId21" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/1_Linear Model and Intro to Supervised Machine Learning/4_6_Logistic Regression Test Yourself.md" xr:uid="{23BC8C9F-3549-4BD6-A2F4-1384D00F9D22}"/>
+    <hyperlink ref="G5" r:id="rId22" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/1_1_Intro to Support Vector Machine.md" xr:uid="{213678FF-6DB6-44FE-BC2B-7451B9AB9E6E}"/>
+    <hyperlink ref="G6" r:id="rId23" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/1_2_Breakdown Support Vector Machine.md" xr:uid="{D29AA886-EB3C-4DC1-8D72-9AA49BEC3B84}"/>
+    <hyperlink ref="G7" r:id="rId24" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/1_3_Hyperparameter Tuning.md" xr:uid="{D91E6F6B-C645-43B9-92DA-66E9AEBBF889}"/>
+    <hyperlink ref="G8" r:id="rId25" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/1_4_Margin and Kernel SVM.md" xr:uid="{559A0839-D6C1-4F1B-8484-26D0B9F1FFBD}"/>
+    <hyperlink ref="G10" r:id="rId26" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_1_Installing Mlxtend.md" xr:uid="{05267829-0B10-4CA4-B973-9E9FBC985B9E}"/>
+    <hyperlink ref="G11" r:id="rId27" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_2_SVM Library Importing.md" xr:uid="{5BE10C1E-038F-4D3E-8747-68C127DE5F5F}"/>
+    <hyperlink ref="G12" r:id="rId28" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_3_Data Preparation.md" xr:uid="{73CB1262-1E87-4924-82D2-E31DF637D736}"/>
+    <hyperlink ref="G13" r:id="rId29" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_4_SVM Modeling.md" xr:uid="{2CE2DC78-2D25-4993-92F9-DC40148C0B43}"/>
+    <hyperlink ref="G14" r:id="rId30" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_5_SVM Fit and Predict.md" xr:uid="{51A9C7CB-ABC5-47AC-B2EC-E52E3BA55EAD}"/>
+    <hyperlink ref="G15" r:id="rId31" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_6_SVM Visualization.md" xr:uid="{386DCE3B-76AA-45E5-9D61-75B6CDA216A7}"/>
+    <hyperlink ref="G16" r:id="rId32" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_7_Regularization Optimization.md" xr:uid="{D4B9F4E1-C2A0-46AD-BEB4-A20446B3B9B2}"/>
+    <hyperlink ref="G17" r:id="rId33" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_8_Gamma %26 Kernel Optimization.md" xr:uid="{7FF3EDA4-0F00-43A4-9DBD-3527651E66BB}"/>
+    <hyperlink ref="G18" r:id="rId34" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/2_Support Vector Machine/2_9_Study Case Practice.md" xr:uid="{306C3594-47D3-426F-9901-8866E7CC7913}"/>
+    <hyperlink ref="K5" r:id="rId35" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/1_1_Underlying Concept of Decision Tree.md" xr:uid="{83308FA4-FEBE-4925-BD81-182D47647837}"/>
+    <hyperlink ref="K6" r:id="rId36" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/1_2_Homogeneous Splitting.md" xr:uid="{F40A0740-62A1-45A0-9597-D4D8B0DF17DC}"/>
+    <hyperlink ref="K7" r:id="rId37" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/1_3_Criterion of Decision Tree.md" xr:uid="{40E738E0-27F4-4A5D-BCED-A2A9710D89A8}"/>
+    <hyperlink ref="K8" r:id="rId38" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/1_4_Decision Tree Hyperparameter.md" xr:uid="{39D55FC6-14E8-4005-A6E7-33D9919CE3CC}"/>
+    <hyperlink ref="K9" r:id="rId39" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/1_5_Overfitting in Decision Tree.md" xr:uid="{2055FE74-8051-4F9D-B308-BF3BBFC2F1A1}"/>
+    <hyperlink ref="K11" r:id="rId40" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/2_1_Decision Tree Library Importing.md" xr:uid="{80AA5056-EAF9-4435-910A-7AC99377BC6C}"/>
+    <hyperlink ref="K12" r:id="rId41" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/2_2_Data Preparation.md" xr:uid="{C58F351A-A824-4432-9046-FECC101F1E46}"/>
+    <hyperlink ref="K13" r:id="rId42" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/2_3_Feature Selection.md" xr:uid="{D4E4D759-5978-479F-8C76-00E9DBDFFDAE}"/>
+    <hyperlink ref="K14" r:id="rId43" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/2_4_Model Fitting.md" xr:uid="{AC622EAA-A2C9-4D54-BF75-0B01F8F6C38A}"/>
+    <hyperlink ref="K15" r:id="rId44" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/2_5_Result Visualization Part-1.md" xr:uid="{20C88EA0-9F04-4DE5-939C-A8F6220A172E}"/>
+    <hyperlink ref="K16" r:id="rId45" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/2_5_Result Visualization Part-2.md" xr:uid="{244E8325-CF81-4878-83AA-0275ED269ED1}"/>
+    <hyperlink ref="K17" r:id="rId46" xr:uid="{AF4FEC8E-AC66-4091-B0D9-383E8EC1E7E2}"/>
+    <hyperlink ref="K21" r:id="rId47" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/4_1_Tree Model Visualization.md" xr:uid="{A3C8DB38-944F-4FB9-BFB6-3D6710C093E4}"/>
+    <hyperlink ref="K22" r:id="rId48" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/4_2_Interactive Tree Model Visualization.md" xr:uid="{F92022C2-101F-4411-8071-D869D6086533}"/>
+    <hyperlink ref="K23" r:id="rId49" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/3_Decision Tree%2C Random Forest and Gradient Boosting/5_Exercise Study Case.md" xr:uid="{6790B806-B8AB-4B70-A5BE-0506BB4BEAFB}"/>
+    <hyperlink ref="O5" r:id="rId50" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/1_1_Clustering Ilustration.md" xr:uid="{8E0AFE7A-65CB-4363-980D-A9B267280681}"/>
+    <hyperlink ref="O6" r:id="rId51" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/1_2_Clustering Method.md" xr:uid="{BFED36C2-48A4-4A9C-B4EB-8119DB589950}"/>
+    <hyperlink ref="O7" r:id="rId52" xr:uid="{A2331DE5-6078-41FA-B560-484621AC0F5F}"/>
+    <hyperlink ref="O8" r:id="rId53" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/1_4_Elbow Method in K-Means.md" xr:uid="{E4930217-2232-4F48-8C4C-E71225900405}"/>
+    <hyperlink ref="O9" r:id="rId54" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/1_5 DBSCAN Overview.md" xr:uid="{BBC60FA9-E66E-4A88-8EDE-6097260B8A3E}"/>
+    <hyperlink ref="O10" r:id="rId55" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/1_6_DBSCAN Hyperparameter.md" xr:uid="{FD6F1549-FC15-4786-9928-21B61B568F25}"/>
+    <hyperlink ref="O11" r:id="rId56" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/1_7_Hierarchial Clustering.md" xr:uid="{1FFD39AA-590C-46E3-B568-857232C37613}"/>
+    <hyperlink ref="O13" r:id="rId57" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/2_1_Importing Clustering Library.md" xr:uid="{9E3E4DD4-5547-475B-91B9-577767015CC5}"/>
+    <hyperlink ref="O14" r:id="rId58" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/2_2_Data Plotting.md" xr:uid="{8ED1B81D-7E50-4FB0-8E0C-395D026E2995}"/>
+    <hyperlink ref="O15" r:id="rId59" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/2_3_Applying K-Means.md" xr:uid="{6FD9E557-27F9-4D84-BD30-A551E6064A05}"/>
+    <hyperlink ref="O16" r:id="rId60" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/2_4_K-Means Visualization.md" xr:uid="{6CE5DAC1-7FB5-4412-9004-C473BA63B9E5}"/>
+    <hyperlink ref="O17" r:id="rId61" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/2_5_Applying Elbow Method on K-Means.md" xr:uid="{E3CE0FF6-94DD-4B2F-BF8E-8E7336BF57A1}"/>
+    <hyperlink ref="O19" r:id="rId62" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/3_1_Apply DBSCAN without Scaling.md" xr:uid="{CF39B9BE-D565-40F6-B7FF-3761684C5DF9}"/>
+    <hyperlink ref="O20" r:id="rId63" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/3_2_DBSCAN with Standard Scaler.md" xr:uid="{DC377457-2917-4B06-A22F-1272267E416B}"/>
+    <hyperlink ref="O21" r:id="rId64" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/3_3_DBSCAN Visualization.md" xr:uid="{99F9B0DC-E672-4B12-A01E-80C9252E284A}"/>
+    <hyperlink ref="O23" r:id="rId65" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/4_1_Applying Hierachial Clustering.md" xr:uid="{9E772CCB-0725-4A9F-A9E7-CFFDE883FFDC}"/>
+    <hyperlink ref="O24" r:id="rId66" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/4_2_Dendogram Visualization.md" xr:uid="{12A0BA58-C6C4-43B9-948D-C701065CE006}"/>
+    <hyperlink ref="O25" r:id="rId67" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/4_Clustering and Unsupervised Machine Learning/5_Clustering Study Case.md" xr:uid="{35603C83-AF8C-4DFA-88E7-F8D2B48AD35E}"/>
+    <hyperlink ref="S5" r:id="rId68" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/1_1_Data Science Workflow Overview.md" xr:uid="{B09312DA-0C37-4299-B8C5-B2AAE9E97D68}"/>
+    <hyperlink ref="S6" r:id="rId69" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/1_2_Model Validation Overview.md" xr:uid="{FBFE6EF8-29A3-4E0C-9A2A-5D2EE21905E5}"/>
+    <hyperlink ref="S7" r:id="rId70" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/1_3_Crossvalidation Methodology.md" xr:uid="{B4AC0259-E166-499A-88C4-DA9CAB113EE8}"/>
+    <hyperlink ref="S8" r:id="rId71" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/1_4_Hyperparameter Optimization.md" xr:uid="{3B6B09D8-F409-4086-B128-2A503A435A11}"/>
+    <hyperlink ref="S9" r:id="rId72" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/1_5_Grid Search and Random Search.md" xr:uid="{70DDA74E-16C4-452C-8B05-AC68754E7CBC}"/>
+    <hyperlink ref="S11" r:id="rId73" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/2_1_Import Crossvalidation Library.md" xr:uid="{76BAA10A-1AFE-4526-B442-C7E7DF06D3AE}"/>
+    <hyperlink ref="S12" r:id="rId74" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/2_2_Data Preparation.md" xr:uid="{92D15537-21FC-4E0C-8278-7C96A28565D1}"/>
+    <hyperlink ref="S14" r:id="rId75" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/3_1_K-Fold Crossvalidation.md" xr:uid="{47BA8406-8332-4B65-A479-796BBD18A724}"/>
+    <hyperlink ref="S15" r:id="rId76" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/3_2_LOOCV Crossvalidation.md" xr:uid="{2F29FEEA-90AD-4F21-BAA9-72A55F33BBB9}"/>
+    <hyperlink ref="S17" r:id="rId77" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/4_1_Grid Search.md" xr:uid="{1AD2A7FB-2EF3-44FC-A015-D1B65D227850}"/>
+    <hyperlink ref="S18" r:id="rId78" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/4_2_Random Search.md" xr:uid="{46B75B4D-6909-40EA-9E30-181D36997D7D}"/>
+    <hyperlink ref="S19" r:id="rId79" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/5_Optimized Tree Visualization.md" xr:uid="{4BB68E85-7D52-4F08-9661-47FF297EB39F}"/>
+    <hyperlink ref="S20" r:id="rId80" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/5_Crossvalidation and Optimization/6_Grid Search vs Random Search.md" xr:uid="{D3013B99-B99B-4CD0-8F7D-E2CB24C4D6CA}"/>
+    <hyperlink ref="W4" r:id="rId81" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/6_Study Case/1_Study Case Overview.md" xr:uid="{E52CEBBC-14E0-4EC1-A6DB-5D1B781038F9}"/>
+    <hyperlink ref="W5" r:id="rId82" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/6_Study Case/2_Predict Diamond Price.md" xr:uid="{D9B47B2A-E7A9-42AC-B434-8912623DF5E4}"/>
+    <hyperlink ref="W6" r:id="rId83" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/6_Study Case/3_Credit Card Default Clasification.md" xr:uid="{32045250-D44D-4CC3-A640-5931E6EDCCE5}"/>
+    <hyperlink ref="W7" r:id="rId84" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/6_Study Case/4_Credit Card Customer Clustering.md" xr:uid="{92EF6B1A-C4C1-45CA-A636-A9D7DEF1952A}"/>
+    <hyperlink ref="W8" r:id="rId85" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/6_Study Case/5_Exploratory Data Analysis Guide.md" xr:uid="{AF93C6B4-66D1-41B4-ABC5-9B945AAAA45F}"/>
+    <hyperlink ref="W9" r:id="rId86" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/6_Study Case/6_Data Preprocessing Guide.md" xr:uid="{6CE88570-DA3C-4BD0-A757-053776F7263F}"/>
+    <hyperlink ref="W10" r:id="rId87" display="https://github.com/BenedictusAryo/documents_assets/blob/master/New CourseMap/Intermediate Course/6_Study Case/7_Data Modelling Guide.md" xr:uid="{227DE498-E651-4A17-979E-3C94C864F2CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId88"/>
 </worksheet>
 </file>
 
